--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="195">
   <si>
     <t>No.</t>
   </si>
@@ -651,18 +651,6 @@
       </rPr>
       <t>必填非必填参数都有值</t>
     </r>
-  </si>
-  <si>
-    <t>{
- "coordinate": "",
- "isEasyPSW": 0,
- "newFirstPassword": "",
- "newSecondPassword": "",
- "password": "123456",
- "secretCardCode": "",
- "userNo": "16766667777"
-}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>{"token":"$.data.token"}</t>
@@ -766,6 +754,30 @@
   </si>
   <si>
     <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "coordinate": "1",
+ "isEasyPSW": 10,
+ "newFirstPassword": "1",
+ "newSecondPassword": "1",
+ "password": "123456",
+ "secretCardCode": "1",
+ "userNo":"16766667777"
+}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{
+ ""coordinate"": """",
+ ""isEasyPSW"": 0,
+ ""newFirstPassword"": """",
+ ""newSecondPassword"": """",
+ ""password"": ""123456"",
+ ""secretCardCode"": """",
+ ""userNo"": ""16766667777""
+}"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2034,9 +2046,9 @@
   </sheetPr>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2142,15 +2154,15 @@
       <c r="G2" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="42" t="s">
-        <v>174</v>
+      <c r="H2" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L2" s="62"/>
       <c r="M2" s="50"/>
@@ -2159,7 +2171,7 @@
       <c r="P2" s="52"/>
       <c r="Q2" s="53"/>
       <c r="R2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S2" s="35"/>
     </row>
@@ -2177,23 +2189,23 @@
         <v>98</v>
       </c>
       <c r="E3" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>179</v>
-      </c>
       <c r="I3" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J3" s="61"/>
       <c r="K3" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L3" s="62"/>
       <c r="N3" s="51"/>
@@ -2209,22 +2221,22 @@
         <v>94</v>
       </c>
       <c r="D4" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="F4" t="s">
         <v>183</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" t="s">
-        <v>185</v>
-      </c>
       <c r="I4" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J4" s="61"/>
       <c r="K4" s="42" t="s">
@@ -2244,29 +2256,29 @@
         <v>94</v>
       </c>
       <c r="D5" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="F5" t="s">
         <v>187</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="I5" s="40" t="s">
         <v>190</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>191</v>
       </c>
       <c r="J5" s="61"/>
       <c r="P5" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R5" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2295,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2630,39 +2642,47 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7">
       <c r="A17" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:7">
       <c r="A18" s="37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:7">
       <c r="A19" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:7">
       <c r="A20" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:7">
       <c r="A21" s="37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:7">
       <c r="A22" s="37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:7">
       <c r="A23" s="37" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="216">
+      <c r="F25" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1"/>
+    <workbookView xWindow="16780" yWindow="0" windowWidth="16800" windowHeight="21000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inter" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>必填项</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">必填项
 </t>
         </r>
       </text>
@@ -71,16 +62,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>必填项</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">必填项
 </t>
         </r>
       </text>
@@ -90,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="222">
   <si>
     <t>No.</t>
   </si>
@@ -593,41 +575,113 @@
     <t>14，接口返回值</t>
   </si>
   <si>
-    <t>{"$.code":200}</t>
+    <t>/auth/login</t>
+  </si>
+  <si>
+    <t>/auth/logout</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>高血压首页</t>
+  </si>
+  <si>
+    <t>查询高血压首页数据</t>
+  </si>
+  <si>
+    <t>/saasuser/home/queryHomeData</t>
+  </si>
+  <si>
+    <t>高血压患者信息</t>
+  </si>
+  <si>
+    <t>导出随访表记录</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/exportPatientFollowDetail</t>
+  </si>
+  <si>
+    <t>downFilePost</t>
+  </si>
+  <si>
+    <t>{
+ "coordinate": "1",
+ "isEasyPSW": 10,
+ "newFirstPassword": "1",
+ "newSecondPassword": "1",
+ "password": "123456",
+ "secretCardCode": "1",
+ "userNo":"16766667777"
+}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>"{
+ ""coordinate"": """",
+ ""isEasyPSW"": 0,
+ ""newFirstPassword"": """",
+ ""newSecondPassword"": """",
+ ""password"": ""123456"",
+ ""secretCardCode"": """",
+ ""userNo"": ""16766667777""
+}"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>入组患者-分页查询-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/hbpStatistics/enrolledPatient</t>
+  </si>
+  <si>
+    <t>入组患者-分页查询-必填参数</t>
+  </si>
+  <si>
+    <t>入组患者-导出-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/hbpStatistics/enrolledPatientDownload</t>
+  </si>
+  <si>
+    <t>入组患者-导出-必填参数</t>
+  </si>
+  <si>
+    <t>随访情况统计-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/hbpStatistics/findFollowUpSituation</t>
+  </si>
+  <si>
+    <t>随访情况-导出-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/hbpStatistics/exportFollowUpInfo</t>
+  </si>
+  <si>
     <t>id</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>i检查返回值</t>
   </si>
   <si>
     <t>s表值</t>
-    <rPh sb="0" eb="2">
-      <t>quan ju</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>i检查返回值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>exec</t>
-    <rPh sb="0" eb="2">
-      <t>zhi x</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>/auth/login</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>pc</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -636,7 +690,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -644,7 +698,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -653,57 +707,137 @@
     </r>
   </si>
   <si>
-    <t>{"token":"$.data.token"}</t>
+    <t>郭浩杰</t>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success"}</t>
+  </si>
+  <si>
+    <t>pc登出</t>
+  </si>
+  <si>
+    <t>{"token":"{{token}}"}</t>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.data":"退出成功"}</t>
+  </si>
+  <si>
+    <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx</t>
+  </si>
+  <si>
+    <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx"}</t>
+  </si>
+  <si>
+    <t>导出随访表记录全参</t>
+  </si>
+  <si>
+    <t>{
+ "beginAge": 1,
+ "currentPage": 1,
+ "docName": "dc",
+ "endAge": 100,
+ "groupType": "1",
+ "name": "斤斤计较",
+ "orgId": 299,
+ "orgIdList": [],
+ "pageSize": 10,
+ "statusList": [2]
+}</t>
+  </si>
+  <si>
+    <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb2.xlsx</t>
+  </si>
+  <si>
+    <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb2.xlsx"}</t>
+  </si>
+  <si>
+    <t>导出随访表记录必填参数</t>
+  </si>
+  <si>
+    <t>{
+ "beginAge": 0,
+ "currentPage": 1,
+ "docName": "dc",
+ "endAge": 0,
+ "groupType": "1",
+ "name": "",
+ "orgId": 299,
+ "orgIdList": [],
+ "pageSize": 10,
+ "statusList": []
+}</t>
+  </si>
+  <si>
+    <t>{
+ "currPage": 1,
+ "dateBegin": "2022-01-01 00:00:00",
+ "dateEnd": "2022-05-25 23:59:59",
+ "orgIdList": [299],
+ "pageSize": 10
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"$.code":200,"$.msg":"success"}           </t>
+  </si>
+  <si>
+    <t>{
+ "currPage": 0,
+ "dateBegin": "",
+ "dateEnd": "",
+ "orgIdList": [299],
+ "pageSize": 0
+}</t>
+  </si>
+  <si>
+    <t>{"currPage": 0,
+ "dateBegin": "",
+ "dateEnd": "",
+ "orgIdList": [299],
+ "pageSize": 0
+}</t>
+  </si>
+  <si>
+    <t>{
+"orgCode":"299"
+"pageNum":"1"
+"pageSize":"10"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "currPage": 1,
+ "dateBegin": "2022-01-01 00:00:00",
+ "dateEnd": "2022-05-25 23:59:59",
+ "orgIdList": [299],
+ "pageSize": 10
+}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"$.code":200,"$.msg":"success"}</t>
+    <t>{"orgCode":"299"}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>/auth/logout</t>
-  </si>
-  <si>
-    <t>pc登出</t>
-    <rPh sb="0" eb="2">
-      <t>deng chu</t>
+    <t>downFileGet</t>
+  </si>
+  <si>
+    <t>统计查询</t>
+    <rPh sb="0" eb="1">
+      <t>jie</t>
     </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"token":"{{token}}"}</t>
+    <t>{"token":"$.data.token","orgId": 299}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-  </si>
-  <si>
-    <t>{"$.code":200,"$.data":"退出成功"}</t>
-    <rPh sb="0" eb="2">
-      <t>tui chu</t>
-    </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>高血压首页</t>
-  </si>
-  <si>
-    <t>查询高血压首页数据</t>
-  </si>
-  <si>
-    <t>/saasuser/home/queryHomeData</t>
-  </si>
-  <si>
-    <t>[299]</t>
-  </si>
-  <si>
-    <t>高血压患者信息</t>
-  </si>
-  <si>
-    <t>导出随访表记录</t>
-  </si>
-  <si>
-    <t>/saasuser/tPatientInfo/exportPatientFollowDetail</t>
+    <t>[{{orgId}}]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -717,7 +851,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -726,58 +860,33 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>",
- "orgId": 299,
+ "orgId": {{orgId}},
  "orgIdList": [],
  "pageSize": 10,
  "statusList": []
 }</t>
     </r>
-  </si>
-  <si>
-    <t>downFilePost</t>
-  </si>
-  <si>
-    <t>金浩</t>
-    <rPh sb="0" eb="1">
-      <t>jin hao</t>
-    </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"file":"/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx"}</t>
+    <t>{"$.code":200}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/data/sfb.xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>{
- "coordinate": "1",
+"coordinate": "1",
  "isEasyPSW": 10,
- "newFirstPassword": "1",
- "newSecondPassword": "1",
+ "newFirstPassword": "",
+ "newSecondPassword": "",
  "password": "123456",
  "secretCardCode": "1",
  "userNo":"16766667777"
 }</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{
- ""coordinate"": """",
- ""isEasyPSW"": 0,
- ""newFirstPassword"": """",
- ""newSecondPassword"": """",
- ""password"": ""123456"",
- ""secretCardCode"": """",
- ""userNo"": ""16766667777""
-}"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -895,55 +1004,87 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF3B4151"/>
       <name val="微软雅黑 Light"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="14"/>
+      <color theme="2" tint="-0.89996032593768116"/>
       <name val="微软雅黑 Light"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,12 +1128,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1005,7 +1140,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1036,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1149,90 +1315,132 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2044,7 +2252,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2053,250 +2261,629 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="37" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="40.6640625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="49" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" style="42" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="42" customWidth="1"/>
-    <col min="13" max="13" width="26.5" style="54" customWidth="1"/>
-    <col min="14" max="14" width="23.5" style="42" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" style="49" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" style="49" customWidth="1"/>
-    <col min="17" max="17" width="16" style="49" customWidth="1"/>
-    <col min="18" max="18" width="33.1640625" style="42" customWidth="1"/>
-    <col min="19" max="19" width="36.1640625" style="37" customWidth="1"/>
-    <col min="20" max="513" width="8.83203125" style="37" customWidth="1"/>
-    <col min="514" max="16384" width="8.83203125" style="37"/>
+    <col min="1" max="1" width="5.5" style="41" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" style="49" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="15" style="64" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="39" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="39" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" style="41" customWidth="1"/>
+    <col min="17" max="17" width="16" style="41" customWidth="1"/>
+    <col min="18" max="18" width="24.33203125" style="39" customWidth="1"/>
+    <col min="19" max="19" width="36.1640625" style="41" customWidth="1"/>
+    <col min="20" max="513" width="8.83203125" style="41" customWidth="1"/>
+    <col min="514" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="188" customHeight="1">
+      <c r="A2" s="67">
+        <v>2</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="77"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19" ht="61.75" customHeight="1">
+      <c r="A3" s="67">
+        <v>3</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="G3" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="76"/>
+      <c r="K3" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="77"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="50"/>
+    </row>
+    <row r="4" spans="1:19" ht="61.75" customHeight="1">
+      <c r="A4" s="67">
+        <v>4</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="44" t="s">
+      <c r="F4" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="76"/>
+      <c r="K4" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="50"/>
+    </row>
+    <row r="5" spans="1:19" ht="202" customHeight="1">
+      <c r="A5" s="67">
+        <v>5</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="76"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="S5" s="50"/>
+    </row>
+    <row r="6" spans="1:19" ht="149" customHeight="1">
+      <c r="A6" s="79">
+        <v>13</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="60"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="S6" s="50"/>
+    </row>
+    <row r="7" spans="1:19" ht="252">
+      <c r="A7" s="79">
+        <v>14</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="S7" s="50"/>
+    </row>
+    <row r="8" spans="1:19" ht="96" customHeight="1">
+      <c r="A8" s="79">
+        <v>17</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="176" customHeight="1">
-      <c r="A2" s="37">
-        <v>2</v>
-      </c>
-      <c r="C2" s="49" t="s">
+      <c r="H8" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="60"/>
+      <c r="K8" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="50"/>
+    </row>
+    <row r="9" spans="1:19" ht="112" customHeight="1">
+      <c r="A9" s="79">
+        <v>18</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" t="s">
-        <v>174</v>
-      </c>
-      <c r="S2" s="35"/>
-    </row>
-    <row r="3" spans="1:19" ht="61.75" customHeight="1">
-      <c r="A3" s="37">
-        <v>3</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="D9" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="50"/>
+    </row>
+    <row r="10" spans="1:19" ht="84" customHeight="1">
+      <c r="A10" s="79">
+        <v>19</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C10" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="D10" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="62"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-    </row>
-    <row r="4" spans="1:19" ht="61.75" customHeight="1">
-      <c r="A4" s="37">
-        <v>4</v>
-      </c>
-      <c r="C4" s="49" t="s">
+      <c r="H10" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="50"/>
+    </row>
+    <row r="11" spans="1:19" ht="57" customHeight="1">
+      <c r="A11" s="79">
+        <v>20</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D11" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="62"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-    </row>
-    <row r="5" spans="1:19" ht="157">
-      <c r="A5" s="37">
-        <v>5</v>
-      </c>
-      <c r="C5" s="64" t="s">
+      <c r="G11" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="60"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="S11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" ht="72" customHeight="1">
+      <c r="A12" s="79">
+        <v>21</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D12" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="F12" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G12" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="60"/>
+      <c r="K12" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="50"/>
+    </row>
+    <row r="13" spans="1:19" ht="126">
+      <c r="A13" s="79">
+        <v>22</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="66" t="s">
+      <c r="F13" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="61"/>
-      <c r="P5" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>191</v>
-      </c>
+      <c r="G13" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="S13" s="50"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="42"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="D15" s="41"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="65"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="41"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="G1"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C16:C1048576 D14:D15">
+      <formula1>"正常,异常"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
+      <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H15 G16:G1048576 D14">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B16:B1048576 C6:C15 B2:B13">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C6:C1048576">
-      <formula1>"正常,异常"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -2328,7 +2915,7 @@
     <col min="11" max="11" width="13.5" style="37" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" style="37" customWidth="1"/>
     <col min="13" max="13" width="32.5" style="37" customWidth="1"/>
-    <col min="14" max="14" width="27.5" style="55" customWidth="1"/>
+    <col min="14" max="14" width="27.5" style="43" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="37" customWidth="1"/>
     <col min="16" max="16" width="20" style="37" customWidth="1"/>
     <col min="17" max="513" width="8.83203125" style="37" customWidth="1"/>
@@ -2375,7 +2962,7 @@
       <c r="M1" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="44" t="s">
         <v>111</v>
       </c>
       <c r="O1" s="25" t="s">
@@ -2416,10 +3003,10 @@
       <c r="L2" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="46" t="s">
         <v>123</v>
       </c>
       <c r="O2" s="36" t="s">
@@ -2454,7 +3041,7 @@
       <c r="M3" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="47">
         <v>200</v>
       </c>
       <c r="O3" s="36" t="s">
@@ -2489,7 +3076,7 @@
       <c r="M4" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="47" t="s">
         <v>134</v>
       </c>
       <c r="O4" s="36" t="s">
@@ -2524,7 +3111,7 @@
       <c r="M5" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="47">
         <v>6741</v>
       </c>
       <c r="O5" s="36" t="s">
@@ -2559,7 +3146,7 @@
       <c r="M6" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="48" t="s">
         <v>144</v>
       </c>
       <c r="O6" s="36" t="s">
@@ -2597,7 +3184,7 @@
       <c r="M7" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="N7" s="59"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="36" t="s">
         <v>151</v>
       </c>
@@ -2679,10 +3266,10 @@
     </row>
     <row r="25" spans="1:7" ht="216">
       <c r="F25" s="35" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="0" windowWidth="16800" windowHeight="21000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="inter" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,16 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">必填项
+          <t>必填项</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -72,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
   <si>
     <t>No.</t>
   </si>
@@ -342,9 +351,6 @@
   </si>
   <si>
     <t>s结果</t>
-  </si>
-  <si>
-    <t>f检查文件位置</t>
   </si>
   <si>
     <t>f结果</t>
@@ -828,10 +834,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"token":"$.data.token","orgId": 299}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -878,6 +880,17 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>f检查文件位置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化全局变量</t>
+  </si>
+  <si>
+    <t>{"userNo":"123"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>{
 "coordinate": "1",
  "isEasyPSW": 10,
@@ -885,8 +898,24 @@
  "newSecondPassword": "",
  "password": "123456",
  "secretCardCode": "1",
- "userNo":"16766667777"
+ "userNo":"{{userNo}}"
 }</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgId":"select orgCode from sys_user_detail where userNo='{{userNo}}'"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgId":2399}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.autoNum(3))","test":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"$.data.token","hhh":"12345"}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1084,7 +1113,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,19 +1157,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD274CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,25 +1169,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1348,99 +1365,129 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2252,638 +2299,670 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5" style="41" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="41" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="38" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="65" customWidth="1"/>
     <col min="7" max="7" width="15" style="64" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" style="39" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="41" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="35.6640625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="39" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="42" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="39" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="86" customWidth="1"/>
+    <col min="11" max="11" width="33.5" style="39" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="86" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="39" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" style="85" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" style="41" customWidth="1"/>
-    <col min="17" max="17" width="16" style="41" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" style="39" customWidth="1"/>
+    <col min="17" max="17" width="8" style="85" customWidth="1"/>
+    <col min="18" max="18" width="59.6640625" style="39" customWidth="1"/>
     <col min="19" max="19" width="36.1640625" style="41" customWidth="1"/>
     <col min="20" max="513" width="8.83203125" style="41" customWidth="1"/>
     <col min="514" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="73" t="s">
         <v>81</v>
       </c>
       <c r="F1" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="72" t="s">
+      <c r="N1" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="113" customHeight="1">
+      <c r="A2" s="78">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="S2" s="49"/>
+    </row>
+    <row r="3" spans="1:19" ht="188" customHeight="1">
+      <c r="A3" s="58">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="50" t="s">
+      <c r="F3" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="82"/>
+      <c r="K3" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="87"/>
+      <c r="M3" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="88"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="50"/>
+    </row>
+    <row r="4" spans="1:19" ht="61.75" customHeight="1">
+      <c r="A4" s="58">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="188" customHeight="1">
-      <c r="A2" s="67">
-        <v>2</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="62" t="s">
+      <c r="D4" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="75" t="s">
+      <c r="J4" s="82"/>
+      <c r="K4" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="87"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="49"/>
+    </row>
+    <row r="5" spans="1:19" ht="61.75" customHeight="1">
+      <c r="A5" s="58">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="82"/>
+      <c r="K5" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="87"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="S5" s="49"/>
+    </row>
+    <row r="6" spans="1:19" ht="202" customHeight="1">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="82"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="S6" s="49"/>
+    </row>
+    <row r="7" spans="1:19" ht="149" customHeight="1">
+      <c r="A7" s="60">
+        <v>13</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="83"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="S7" s="49"/>
+    </row>
+    <row r="8" spans="1:19" ht="252">
+      <c r="A8" s="60">
+        <v>14</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" s="83"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="S8" s="49"/>
+    </row>
+    <row r="9" spans="1:19" ht="96" customHeight="1">
+      <c r="A9" s="60">
+        <v>17</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="78"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="49"/>
+    </row>
+    <row r="10" spans="1:19" ht="112" customHeight="1">
+      <c r="A10" s="60">
+        <v>18</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="83"/>
+      <c r="K10" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="78"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="49"/>
+    </row>
+    <row r="11" spans="1:19" ht="84" customHeight="1">
+      <c r="A11" s="60">
+        <v>19</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="83"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="S11" s="49"/>
+    </row>
+    <row r="12" spans="1:19" ht="57" customHeight="1">
+      <c r="A12" s="60">
+        <v>20</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="83"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="S12" s="49"/>
+    </row>
+    <row r="13" spans="1:19" ht="72" customHeight="1">
+      <c r="A13" s="60">
+        <v>21</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="S2" s="52"/>
-    </row>
-    <row r="3" spans="1:19" ht="61.75" customHeight="1">
-      <c r="A3" s="67">
-        <v>3</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="52" t="s">
+      <c r="H13" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J13" s="83"/>
+      <c r="K13" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="78"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="49"/>
+    </row>
+    <row r="14" spans="1:19" ht="126">
+      <c r="A14" s="60">
+        <v>22</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="J14" s="83"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="50"/>
-    </row>
-    <row r="4" spans="1:19" ht="61.75" customHeight="1">
-      <c r="A4" s="67">
-        <v>4</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="50"/>
-    </row>
-    <row r="5" spans="1:19" ht="202" customHeight="1">
-      <c r="A5" s="67">
-        <v>5</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="52" t="s">
+      <c r="Q14" s="78"/>
+      <c r="R14" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="S5" s="50"/>
-    </row>
-    <row r="6" spans="1:19" ht="149" customHeight="1">
-      <c r="A6" s="79">
-        <v>13</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="S6" s="50"/>
-    </row>
-    <row r="7" spans="1:19" ht="252">
-      <c r="A7" s="79">
-        <v>14</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="S7" s="50"/>
-    </row>
-    <row r="8" spans="1:19" ht="96" customHeight="1">
-      <c r="A8" s="79">
-        <v>17</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="50"/>
-    </row>
-    <row r="9" spans="1:19" ht="112" customHeight="1">
-      <c r="A9" s="79">
-        <v>18</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J9" s="60"/>
-      <c r="K9" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="50"/>
-    </row>
-    <row r="10" spans="1:19" ht="84" customHeight="1">
-      <c r="A10" s="79">
-        <v>19</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="S10" s="50"/>
-    </row>
-    <row r="11" spans="1:19" ht="57" customHeight="1">
-      <c r="A11" s="79">
-        <v>20</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="G11" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="S11" s="50"/>
-    </row>
-    <row r="12" spans="1:19" ht="72" customHeight="1">
-      <c r="A12" s="79">
-        <v>21</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="50"/>
-    </row>
-    <row r="13" spans="1:19" ht="126">
-      <c r="A13" s="79">
-        <v>22</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="S13" s="50"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="42"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="39"/>
+      <c r="S14" s="49"/>
     </row>
     <row r="15" spans="1:19">
+      <c r="A15" s="38"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="41"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="66"/>
+      <c r="E15" s="39"/>
       <c r="G15" s="65"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="41"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="39"/>
+      <c r="J15" s="84"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="86"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="D16" s="41"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="65"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="85"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C16:C1048576 D14:D15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 C17:C1048576 D15:D16">
       <formula1>"正常,异常"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G13">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G14">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H15 G16:G1048576 D14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H16 G17:G1048576 D15">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B16:B1048576 C6:C15 B2:B13">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17:B1048576 C7:C16 B3:B14">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -2924,352 +3003,352 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.75" customHeight="1">
       <c r="A1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>79</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="61.75" customHeight="1">
       <c r="B2" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="D2" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="K2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="L2" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="N2" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="O2" s="36" t="s">
         <v>123</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="F3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="H3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>127</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>128</v>
       </c>
       <c r="N3" s="47">
         <v>200</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="F4" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="H4" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="N4" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="O4" s="36" t="s">
         <v>134</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="F5" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="H5" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>137</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>138</v>
       </c>
       <c r="N5" s="47">
         <v>6741</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="F6" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="H6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="L6" s="37" t="s">
+      <c r="M6" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="N6" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="O6" s="36" t="s">
         <v>144</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="69.5" customHeight="1">
       <c r="B7" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>114</v>
-      </c>
       <c r="F7" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="H7" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="35" t="s">
+      <c r="J7" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="37" t="s">
+      <c r="M7" s="37" t="s">
         <v>149</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>150</v>
       </c>
       <c r="N7" s="47"/>
       <c r="O7" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="216">
       <c r="F25" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -33,9 +33,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">必填项
+          <t>必填项</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -47,7 +54,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
           <t>必填项</t>
         </r>
@@ -60,7 +66,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
           <t>必填项</t>
         </r>
@@ -69,7 +74,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -81,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="226">
   <si>
     <t>No.</t>
   </si>
@@ -339,21 +343,6 @@
   </si>
   <si>
     <t>担当者</t>
-  </si>
-  <si>
-    <t>i返回值</t>
-  </si>
-  <si>
-    <t>i结果</t>
-  </si>
-  <si>
-    <t>s检查表值</t>
-  </si>
-  <si>
-    <t>s结果</t>
-  </si>
-  <si>
-    <t>f结果</t>
   </si>
   <si>
     <t>全局变量</t>
@@ -663,18 +652,6 @@
   </si>
   <si>
     <t>/saasuser/hbpStatistics/exportFollowUpInfo</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>exec</t>
-  </si>
-  <si>
-    <t>i检查返回值</t>
-  </si>
-  <si>
-    <t>s表值</t>
   </si>
   <si>
     <r>
@@ -880,13 +857,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>f检查文件位置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化全局变量</t>
-  </si>
-  <si>
     <t>{"userNo":"123"}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -903,19 +873,77 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"orgId":"select orgCode from sys_user_detail where userNo='{{userNo}}'"}</t>
+    <t>设置全局变量</t>
+    <rPh sb="0" eb="2">
+      <t>she zhi</t>
+    </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"orgId":2399}</t>
+    <t>{"userNo":"jinhao","orgno":"测试"}</t>
+    <rPh sb="0" eb="2">
+      <t>ce shi</t>
+    </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.autoNum(3))","test":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <t>{"hhh":"$.msg"}</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>{"token":"$.data.token","hhh":"12345"}</t>
+    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.autoNum(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>i结果</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>f结果</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgId":299}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <rPh sb="0" eb="2">
+      <t>bian hao</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>i检查接口返回值</t>
+    <rPh sb="0" eb="4">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>f检查文件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>db检查表值</t>
+    <rPh sb="0" eb="6">
+      <t>biao zhi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>db结果</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgId":"select orgCode from sys_user_detail where userNo='16766667777'","userNo":"select orgCode from sys_user_detail where userNo='888'"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <rPh sb="0" eb="2">
+      <t>zhi x</t>
+    </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1033,12 +1061,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="微软雅黑 Light"/>
       <family val="2"/>
@@ -1079,13 +1101,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1111,6 +1126,15 @@
       <name val="微软雅黑 Light"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1169,12 +1193,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1188,6 +1206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1365,49 +1389,40 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,75 +1434,66 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2299,670 +2305,657 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5" style="41" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="41" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="41" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="40" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="15" style="64" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="62" customWidth="1"/>
+    <col min="7" max="7" width="15" style="61" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" style="39" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="41" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="86" customWidth="1"/>
-    <col min="11" max="11" width="33.5" style="39" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="86" customWidth="1"/>
-    <col min="13" max="13" width="24.33203125" style="42" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="39" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" style="85" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" style="41" customWidth="1"/>
-    <col min="17" max="17" width="8" style="85" customWidth="1"/>
-    <col min="18" max="18" width="59.6640625" style="39" customWidth="1"/>
-    <col min="19" max="19" width="36.1640625" style="41" customWidth="1"/>
-    <col min="20" max="513" width="8.83203125" style="41" customWidth="1"/>
-    <col min="514" max="16384" width="8.83203125" style="41"/>
+    <col min="10" max="10" width="33.5" style="39" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="75" customWidth="1"/>
+    <col min="12" max="12" width="43.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="74" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="41" customWidth="1"/>
+    <col min="15" max="15" width="8" style="74" customWidth="1"/>
+    <col min="16" max="16" width="59.6640625" style="39" customWidth="1"/>
+    <col min="17" max="17" width="36.1640625" style="41" customWidth="1"/>
+    <col min="18" max="511" width="8.83203125" style="41" customWidth="1"/>
+    <col min="512" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="33.5" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="67" t="s">
+    <row r="1" spans="1:17" ht="33.5" customHeight="1">
+      <c r="A1" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="81" t="s">
+      <c r="Q1" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q1" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="113" customHeight="1">
-      <c r="A2" s="78">
+    </row>
+    <row r="2" spans="1:17" ht="97" customHeight="1">
+      <c r="A2" s="71">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="80" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S2" s="49"/>
-    </row>
-    <row r="3" spans="1:19" ht="188" customHeight="1">
-      <c r="A3" s="58">
+        <v>212</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q2" s="49"/>
+    </row>
+    <row r="3" spans="1:17" ht="188" customHeight="1">
+      <c r="A3" s="56">
         <v>2</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>89</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="N3" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="76"/>
+      <c r="L3" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="S3" s="50"/>
-    </row>
-    <row r="4" spans="1:19" ht="61.75" customHeight="1">
-      <c r="A4" s="58">
+      <c r="M3" s="77"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" ht="61.75" customHeight="1">
+      <c r="A4" s="56">
         <v>3</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>168</v>
+        <v>88</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>163</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="55"/>
+        <v>184</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="76"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="78"/>
       <c r="N4" s="53"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="49"/>
-    </row>
-    <row r="5" spans="1:19" ht="61.75" customHeight="1">
-      <c r="A5" s="58">
+      <c r="O4" s="78"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="5" spans="1:17" ht="61.75" customHeight="1">
+      <c r="A5" s="56">
         <v>4</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="76"/>
+      <c r="L5" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="78"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="49"/>
+    </row>
+    <row r="6" spans="1:17" ht="57" customHeight="1">
+      <c r="A6" s="71">
+        <v>1</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="49"/>
+    </row>
+    <row r="7" spans="1:17" ht="202" customHeight="1">
+      <c r="A7" s="56">
+        <v>5</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="G7" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" s="51" t="s">
+      <c r="H7" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="O7" s="71"/>
+      <c r="P7" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="49"/>
+    </row>
+    <row r="8" spans="1:17" ht="149" customHeight="1">
+      <c r="A8" s="57">
+        <v>13</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="82"/>
-      <c r="K5" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="S5" s="49"/>
-    </row>
-    <row r="6" spans="1:19" ht="202" customHeight="1">
-      <c r="A6" s="58">
-        <v>5</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="75" t="s">
+      <c r="O8" s="71"/>
+      <c r="P8" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="49"/>
+    </row>
+    <row r="9" spans="1:17" ht="252">
+      <c r="A9" s="57">
+        <v>14</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="O9" s="71"/>
+      <c r="P9" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q9" s="49"/>
+    </row>
+    <row r="10" spans="1:17" ht="96" customHeight="1">
+      <c r="A10" s="57">
+        <v>17</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F10" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G10" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="71"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+    </row>
+    <row r="11" spans="1:17" ht="112" customHeight="1">
+      <c r="A11" s="57">
+        <v>18</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="50" t="s">
+      <c r="F11" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="S6" s="49"/>
-    </row>
-    <row r="7" spans="1:19" ht="149" customHeight="1">
-      <c r="A7" s="60">
-        <v>13</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="K11" s="71"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49"/>
+    </row>
+    <row r="12" spans="1:17" ht="84" customHeight="1">
+      <c r="A12" s="57">
+        <v>19</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="O12" s="71"/>
+      <c r="P12" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q12" s="49"/>
+    </row>
+    <row r="13" spans="1:17" ht="57" customHeight="1">
+      <c r="A13" s="57">
+        <v>20</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="50" t="s">
+      <c r="I13" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="50"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="O13" s="71"/>
+      <c r="P13" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q13" s="49"/>
+    </row>
+    <row r="14" spans="1:17" ht="72" customHeight="1">
+      <c r="A14" s="57">
+        <v>21</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="50" t="s">
+      <c r="I14" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="71"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" ht="126">
+      <c r="A15" s="57">
+        <v>22</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="S7" s="49"/>
-    </row>
-    <row r="8" spans="1:19" ht="252">
-      <c r="A8" s="60">
-        <v>14</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J8" s="83"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="S8" s="49"/>
-    </row>
-    <row r="9" spans="1:19" ht="96" customHeight="1">
-      <c r="A9" s="60">
-        <v>17</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="L9" s="78"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="49"/>
-    </row>
-    <row r="10" spans="1:19" ht="112" customHeight="1">
-      <c r="A10" s="60">
-        <v>18</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="83"/>
-      <c r="K10" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="49"/>
-    </row>
-    <row r="11" spans="1:19" ht="84" customHeight="1">
-      <c r="A11" s="60">
-        <v>19</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="S11" s="49"/>
-    </row>
-    <row r="12" spans="1:19" ht="57" customHeight="1">
-      <c r="A12" s="60">
-        <v>20</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="S12" s="49"/>
-    </row>
-    <row r="13" spans="1:19" ht="72" customHeight="1">
-      <c r="A13" s="60">
-        <v>21</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E13" s="50" t="s">
+      <c r="I15" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J13" s="83"/>
-      <c r="K13" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="49"/>
-    </row>
-    <row r="14" spans="1:19" ht="126">
-      <c r="A14" s="60">
-        <v>22</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="J14" s="83"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="S14" s="49"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="39"/>
-      <c r="G15" s="65"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="84"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="86"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="J15" s="50"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="71"/>
+      <c r="P15" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q15" s="49"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="65"/>
+      <c r="E16" s="39"/>
+      <c r="G16" s="62"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="85"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="86"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="75"/>
+    </row>
+    <row r="17" spans="4:13">
+      <c r="D17" s="41"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="62"/>
+      <c r="I17" s="39"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="75"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 C17:C1048576 D15:D16">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 C18:C1048576 C1:C6">
       <formula1>"正常,异常"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G15">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H16 G17:G1048576 D15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H17 G18:G1048576 D16">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17:B1048576 C7:C16 B3:B14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18:B1048576 C8:C17 B3:B5 B7:B15">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G6"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -3003,352 +2996,352 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.75" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>79</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="L1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="M1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="N1" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="O1" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="61.75" customHeight="1">
       <c r="B2" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="L2" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="M2" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="N2" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="O2" s="36" t="s">
         <v>118</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="K3" s="37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N3" s="47">
         <v>200</v>
       </c>
       <c r="O3" s="36" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C4" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="K4" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="36" t="s">
         <v>129</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C5" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="K5" s="37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N5" s="47">
         <v>6741</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C6" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="K6" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="36" t="s">
         <v>139</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="69.5" customHeight="1">
       <c r="B7" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C7" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>118</v>
-      </c>
       <c r="K7" s="37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N7" s="47"/>
       <c r="O7" s="36" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="37" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="37" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="37" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="37" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="37" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="37" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="37" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="37" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="37" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="37" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="37" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="37" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="37" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="216">
       <c r="F25" s="35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="101">
   <si>
     <t>类型</t>
   </si>
@@ -181,9 +181,6 @@
     <t>担当者</t>
   </si>
   <si>
-    <t>全局变量</t>
-  </si>
-  <si>
     <t>正常</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t>导出随访表记录必填参数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"$.code":200,"$.msg":"success"}           </t>
   </si>
   <si>
     <t>downFileGet</t>
@@ -674,6 +668,55 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>查询高血压首页数据-orgids错误</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>[123123]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":500,"$.msg":"hypertension 系统出现异常,请联系管理员-DTO！","$.data":null}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="2">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userNo":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgId":2929}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgId3":"select orgCode from sys_user_detail where userNo='16766667777'","userNo":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orgno":"select orgCode from sys_user_detail where userNo='16766667777'","userNo":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"suc23cess"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.data":"退出成功"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -682,7 +725,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -780,8 +823,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +878,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -858,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -894,9 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -976,6 +1027,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,617 +1332,641 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="45" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="15" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15" style="37" customWidth="1"/>
     <col min="8" max="8" width="29.33203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="33.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="24" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="23" customWidth="1"/>
     <col min="12" max="12" width="38.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8" style="22" customWidth="1"/>
+    <col min="15" max="15" width="8" style="21" customWidth="1"/>
     <col min="16" max="16" width="41.5" style="5" customWidth="1"/>
-    <col min="17" max="509" width="8.83203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="40.83203125" style="4" customWidth="1"/>
+    <col min="18" max="509" width="8.83203125" style="4" customWidth="1"/>
     <col min="510" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" ht="33.5" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="O1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="109" customHeight="1">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="188" customHeight="1">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="61.75" customHeight="1">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:17" ht="61.75" customHeight="1">
+      <c r="A5" s="42">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="61.75" customHeight="1">
+      <c r="A6" s="42">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="202" customHeight="1">
+      <c r="A7" s="42">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="97" customHeight="1">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="24">
-        <v>1</v>
-      </c>
-      <c r="G2" s="24">
-        <v>2</v>
-      </c>
-      <c r="H2" s="24">
-        <v>3</v>
-      </c>
-      <c r="I2" s="22">
-        <v>4</v>
-      </c>
-      <c r="J2" s="24">
-        <v>5</v>
-      </c>
-      <c r="K2" s="24">
-        <v>6</v>
-      </c>
-      <c r="L2" s="24">
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="220" customHeight="1">
+      <c r="A8" s="43">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="24">
-        <v>8</v>
-      </c>
-      <c r="N2" s="24">
-        <v>9</v>
-      </c>
-      <c r="O2" s="24">
-        <v>10</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="188" customHeight="1">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" ht="61.75" customHeight="1">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="27"/>
-    </row>
-    <row r="5" spans="1:16" ht="61.75" customHeight="1">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" ht="202" customHeight="1">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="231">
+      <c r="A9" s="43">
         <v>22</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="220" customHeight="1">
-      <c r="A7" s="12">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="231">
-      <c r="A8" s="12">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="96" customHeight="1">
-      <c r="A9" s="12">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="96" customHeight="1">
+      <c r="A10" s="43">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="154" customHeight="1">
+      <c r="A11" s="43">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="84" customHeight="1">
+      <c r="A12" s="43">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="57" customHeight="1">
+      <c r="A13" s="43">
         <v>33</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="24"/>
-    </row>
-    <row r="10" spans="1:16" ht="112" customHeight="1">
-      <c r="A10" s="12">
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="72" customHeight="1">
+      <c r="A14" s="43">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:17" ht="126">
+      <c r="A15" s="43">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="33" customFormat="1" ht="216">
+      <c r="A16" s="43">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="E16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="33" customFormat="1" ht="216">
+      <c r="A17" s="44">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="1:16" ht="84" customHeight="1">
-      <c r="A11" s="12">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="57" customHeight="1">
-      <c r="A12" s="12">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="72" customHeight="1">
-      <c r="A13" s="12">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:16" ht="126">
-      <c r="A14" s="12">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="I17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="216">
-      <c r="A15" s="12">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="34" customFormat="1" ht="216">
-      <c r="A16" s="34">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>44</v>
+      <c r="J17" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C5 C15:C1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">
       <formula1>"正常,异常"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G15">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G17:G1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G18:G1048576">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B17:B1048576 B3:B14 C7:C14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18:B1048576 B3:B15 C8:C15">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2"/>
@@ -1913,77 +2009,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="33.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="O1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="97" customHeight="1">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="97" customHeight="1">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="76" customHeight="1">
@@ -1991,41 +2087,41 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="26"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="28"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
@@ -2033,37 +2129,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="27"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="27"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
@@ -2071,39 +2167,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>47</v>
+      <c r="G5" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="M5" s="26"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="27"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="90" customHeight="1">
@@ -2111,94 +2207,94 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="24"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\SAAS\i\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
   <si>
     <t>类型</t>
   </si>
@@ -725,7 +725,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -912,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1010,12 +1010,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1025,12 +1019,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,10 +1031,19 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,6 +1052,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1074,7 +1139,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1335,35 +1400,35 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15" style="37" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="23" customWidth="1"/>
-    <col min="12" max="12" width="38.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15" style="35" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="4" customWidth="1"/>
     <col min="15" max="15" width="8" style="21" customWidth="1"/>
-    <col min="16" max="16" width="41.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.83203125" style="4" customWidth="1"/>
-    <col min="18" max="509" width="8.83203125" style="4" customWidth="1"/>
-    <col min="510" max="16384" width="8.83203125" style="4"/>
+    <col min="16" max="16" width="41.44140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.77734375" style="4" customWidth="1"/>
+    <col min="18" max="509" width="8.77734375" style="4" customWidth="1"/>
+    <col min="510" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -1415,8 +1480,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="109" customHeight="1">
-      <c r="A2" s="41">
+    <row r="2" spans="1:17" ht="109.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="21"/>
@@ -1438,8 +1503,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="188" customHeight="1">
-      <c r="A3" s="42">
+    <row r="3" spans="1:17" ht="187.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1475,8 +1540,8 @@
       <c r="O3" s="27"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="61.75" customHeight="1">
-      <c r="A4" s="42">
+    <row r="4" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1512,8 +1577,8 @@
       <c r="N4" s="8"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:17" ht="61.75" customHeight="1">
-      <c r="A5" s="42">
+    <row r="5" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="38">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1549,23 +1614,23 @@
       <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="61.75" customHeight="1">
-      <c r="A6" s="42">
+    <row r="6" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="38">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -1586,9 +1651,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="202" customHeight="1">
-      <c r="A7" s="42">
+    <row r="7" spans="1:17" ht="202.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>7</v>
@@ -1618,9 +1686,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="220" customHeight="1">
-      <c r="A8" s="43">
+    <row r="8" spans="1:17" ht="220.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
         <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
@@ -1653,9 +1724,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="231">
-      <c r="A9" s="43">
+    <row r="9" spans="1:17" ht="211.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
         <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -1688,8 +1762,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="96" customHeight="1">
-      <c r="A10" s="43">
+    <row r="10" spans="1:17" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
         <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1722,8 +1796,8 @@
       </c>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:17" ht="154" customHeight="1">
-      <c r="A11" s="43">
+    <row r="11" spans="1:17" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
         <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1756,9 +1830,12 @@
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="84" customHeight="1">
-      <c r="A12" s="43">
+    <row r="12" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
         <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
@@ -1791,9 +1868,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="57" customHeight="1">
-      <c r="A13" s="43">
+    <row r="13" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
@@ -1826,8 +1906,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" customHeight="1">
-      <c r="A14" s="43">
+    <row r="14" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1858,9 +1938,12 @@
       <c r="L14" s="4"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:17" ht="126">
-      <c r="A15" s="43">
+    <row r="15" spans="1:17" ht="134.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -1893,26 +1976,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="33" customFormat="1" ht="216">
-      <c r="A16" s="43">
+    <row r="16" spans="1:17" s="43" customFormat="1" ht="209.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1921,30 +2004,30 @@
       <c r="J16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P16" s="43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="33" customFormat="1" ht="216">
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="208.8" x14ac:dyDescent="0.25">
       <c r="A17" s="44">
         <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="10" t="s">
         <v>75</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -1986,29 +2069,29 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.77734375" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="7.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="54.83203125" style="2" customWidth="1"/>
-    <col min="17" max="513" width="8.83203125" style="2" customWidth="1"/>
-    <col min="514" max="16384" width="8.83203125" style="2"/>
+    <col min="16" max="16" width="54.77734375" style="2" customWidth="1"/>
+    <col min="17" max="513" width="8.77734375" style="2" customWidth="1"/>
+    <col min="514" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.5" customHeight="1">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -2058,7 +2141,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="97" customHeight="1">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="97.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2082,7 +2165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="76" customHeight="1">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="76.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2124,7 +2207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2162,7 +2245,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2202,7 +2285,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="90" customHeight="1">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2242,57 +2325,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\SAAS\i\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="2" r:id="rId1"/>
     <sheet name="说明" sheetId="3" r:id="rId2"/>
+    <sheet name="bak" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
@@ -157,8 +158,77 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jh</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="101">
   <si>
     <t>类型</t>
   </si>
@@ -725,7 +795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -828,6 +898,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="FangSong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1052,74 +1128,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1399,35 +1407,35 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="34" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="13" customWidth="1"/>
     <col min="7" max="7" width="15" style="35" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="18.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="23" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="4" customWidth="1"/>
     <col min="15" max="15" width="8" style="21" customWidth="1"/>
-    <col min="16" max="16" width="41.44140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.77734375" style="4" customWidth="1"/>
-    <col min="18" max="509" width="8.77734375" style="4" customWidth="1"/>
-    <col min="510" max="16384" width="8.77734375" style="4"/>
+    <col min="16" max="16" width="41.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.83203125" style="4" customWidth="1"/>
+    <col min="18" max="509" width="8.83203125" style="4" customWidth="1"/>
+    <col min="510" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="33.5" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="109.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="105" customHeight="1">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -1503,7 +1511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="187.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="188" customHeight="1">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -1540,7 +1548,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="61.75" customHeight="1">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -1577,7 +1585,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="61.75" customHeight="1">
       <c r="A5" s="38">
         <v>10</v>
       </c>
@@ -1614,7 +1622,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="61.75" customHeight="1">
       <c r="A6" s="38">
         <v>11</v>
       </c>
@@ -1651,7 +1659,7 @@
       <c r="O6" s="26"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="202.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="202" customHeight="1">
       <c r="A7" s="38">
         <v>20</v>
       </c>
@@ -1686,7 +1694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="220.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="220" customHeight="1">
       <c r="A8" s="39">
         <v>21</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="231">
       <c r="A9" s="39">
         <v>22</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="96" customHeight="1">
       <c r="A10" s="39">
         <v>30</v>
       </c>
@@ -1796,7 +1804,7 @@
       </c>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:17" ht="154.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="154" customHeight="1">
       <c r="A11" s="39">
         <v>31</v>
       </c>
@@ -1830,7 +1838,7 @@
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="84" customHeight="1">
       <c r="A12" s="39">
         <v>32</v>
       </c>
@@ -1868,7 +1876,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="57" customHeight="1">
       <c r="A13" s="39">
         <v>33</v>
       </c>
@@ -1906,7 +1914,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="72" customHeight="1">
       <c r="A14" s="39">
         <v>34</v>
       </c>
@@ -1938,7 +1946,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:17" ht="134.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="126">
       <c r="A15" s="39">
         <v>35</v>
       </c>
@@ -1976,7 +1984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="43" customFormat="1" ht="209.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="43" customFormat="1" ht="216">
       <c r="A16" s="39">
         <v>40</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="43" customFormat="1" ht="208.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="216">
       <c r="A17" s="44">
         <v>41</v>
       </c>
@@ -2065,33 +2073,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="7.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="54.77734375" style="2" customWidth="1"/>
-    <col min="17" max="513" width="8.77734375" style="2" customWidth="1"/>
-    <col min="514" max="16384" width="8.77734375" style="2"/>
+    <col min="16" max="16" width="54.83203125" style="2" customWidth="1"/>
+    <col min="17" max="513" width="8.83203125" style="2" customWidth="1"/>
+    <col min="514" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.5" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -2141,7 +2149,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="97.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="97" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="76.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="76" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2207,7 +2215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2245,7 +2253,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2285,7 +2293,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="90" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2325,57 +2333,57 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -2398,4 +2406,666 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15" style="35" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="23" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8" style="21" customWidth="1"/>
+    <col min="16" max="16" width="41.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.83203125" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="33.5" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="105" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="188" customHeight="1">
+      <c r="A3" s="38">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="61.75" customHeight="1">
+      <c r="A4" s="38">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:17" ht="61.75" customHeight="1">
+      <c r="A5" s="38">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" ht="61.75" customHeight="1">
+      <c r="A6" s="38">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="202" customHeight="1">
+      <c r="A7" s="38">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="220" customHeight="1">
+      <c r="A8" s="39">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="231">
+      <c r="A9" s="39">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="96" customHeight="1">
+      <c r="A10" s="39">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="154" customHeight="1">
+      <c r="A11" s="39">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" ht="84" customHeight="1">
+      <c r="A12" s="39">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="57" customHeight="1">
+      <c r="A13" s="39">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="72" customHeight="1">
+      <c r="A14" s="39">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:17" ht="126">
+      <c r="A15" s="39">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="43" customFormat="1" ht="216">
+      <c r="A16" s="39">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="216">
+      <c r="A17" s="44">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18:B1048576 B3:B15 C8:C15">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G18:G1048576">
+      <formula1>"post,get,postLogin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G15">
+      <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">
+      <formula1>"正常,异常"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -896,6 +896,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2412,11 +2413,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="4" customWidth="1"/>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\SAAS\i\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="2" r:id="rId1"/>
     <sheet name="说明" sheetId="3" r:id="rId2"/>
     <sheet name="bak" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="166">
   <si>
     <t>类型</t>
   </si>
@@ -787,6 +787,350 @@
     <t>{"$.code":200,"$.data":"退出成功"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>医生端小程序登录-全参</t>
+  </si>
+  <si>
+    <t>/auth/miniLogin</t>
+  </si>
+  <si>
+    <t>{
+ "jsCode": "013ZFHkl2Ym7c94Kxtnl2ko52B4ZFHkn",
+ "loginEnum": "ACCOUNT",
+ "password": "123456",
+ "userNo": "16766667777"
+}</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生端小程序登录-必填参数</t>
+  </si>
+  <si>
+    <t>{
+ "loginEnum": "ACCOUNT",
+ "password": "123456",
+ "userNo": "16766667777"
+}</t>
+  </si>
+  <si>
+    <t>{"apptoken":"$.data.token"}</t>
+  </si>
+  <si>
+    <t>医生端-新增患者-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/save</t>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success","$.data":null}</t>
+  </si>
+  <si>
+    <t>医生端-新增患者-必填参数</t>
+  </si>
+  <si>
+    <t>{
+ "idCardNo": "110112199907037382",
+ "name": "大黑",
+ "phone": "13555557777",
+}</t>
+  </si>
+  <si>
+    <t>医生端-患者列表-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/queryPatientList</t>
+  </si>
+  <si>
+    <t>{
+ "currPage": 1,
+ "followId": "1",
+ "itemId": 79,
+ "pageSize": 10,
+ "patientName": "李大头",
+ "riskLevel": "0"
+}</t>
+  </si>
+  <si>
+    <t>医生端-患者列表-必填参数</t>
+  </si>
+  <si>
+    <t>{
+ "currPage": 1,
+ "itemId": 79,
+ "pageSize": 10,
+ "riskLevel": ""
+}</t>
+  </si>
+  <si>
+    <t>{"glempild":"$.data.data.[0].empiId"}</t>
+  </si>
+  <si>
+    <t>医生端-单个患者查询</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/querySinglePatient</t>
+  </si>
+  <si>
+    <t>{
+ "idCardNo": "110112199907037382"
+}</t>
+  </si>
+  <si>
+    <t>医生端-添加对照组患者-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/savePatientContrast</t>
+  </si>
+  <si>
+    <t>{
+ "doctorDesignatedFlag": 0,
+ "doctorId": 265,
+ "doctorName": "测试12",
+ "idCardNo": "110112199902047352",
+ "itemId": "79",
+ "name": "刘老头",
+ "orgId": 299,
+ "phone": "18923232323"
+}</t>
+  </si>
+  <si>
+    <t>医生端-查询对照组患者-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/findPatientContrast</t>
+  </si>
+  <si>
+    <t>{
+"name":"刘老头",
+"pageNum":"1",
+"pageSize":"1"
+}</t>
+  </si>
+  <si>
+    <t>{"dzempild":"$.data.data.[0].empiId"}</t>
+  </si>
+  <si>
+    <t>医生端-查询对照组患者-必填参数</t>
+  </si>
+  <si>
+    <t>{
+"name":"",
+"pageNum":"1",
+"pageSize":"1"
+}</t>
+  </si>
+  <si>
+    <t>医生端-修改对照组患者-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/updPatientContrast</t>
+  </si>
+  <si>
+    <t>{
+ "empiId": "{{dzempild}}",
+ "idCardNo": "110112199902047352",
+ "name": "刘老头",
+ "phone": "18923232323"
+}</t>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success","$.data":"true"}</t>
+  </si>
+  <si>
+    <t>医生端-患者组别下拉框</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/groupTypeList</t>
+  </si>
+  <si>
+    <t>医生端-分级代码</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/queryGroup</t>
+  </si>
+  <si>
+    <t>高血压随访接口</t>
+  </si>
+  <si>
+    <t>医生端-更改管理组别</t>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/updateManageGrade</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>{
+"followUpStatus":"2",
+"pid":"{{glempild}}"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "age": "18",
+ "avatar": "",
+ "belongDocId": 0,
+ "birthday": "",
+ "completeTag": "不完整",
+ "dateAdded": "",
+ "empiId": "12233",
+ "fatFlag": "",
+ "followId": 0,
+ "followUpStatus": "",
+ "grading": "",
+ "gradingName": "",
+ "historyState": "0",
+ "id": 0,
+ "idCardNo": "110112199907036238",
+ "itemId": "",
+ "name": "小黑",
+ "phone": "13555556666",
+ "referralDocId": 0,
+ "riskLevelName": "中危",
+ "sex": "男",
+ "sexName": "",
+ "state": 0,
+ "status": "2"
+}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"$.data.token"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.autoNum(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "idCardNo": "{{idCardNo}}",
+ "name": "大黑",
+ "phone": "{{phone}}"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "loginEnum": "ACCOUNT",
+ "password": "123456",
+ "userNo": "{{userNo}}"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置请求头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deviceTag":"app"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "currPage": 1,
+ "itemId": {{itemId}},
+ "pageSize": 10,
+ "riskLevel": ""
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "currPage": 1,
+ "followId": "1",
+ "itemId": {{itemId}},
+ "pageSize": 10,
+ "patientName": "李大头",
+ "riskLevel": "0"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"phone":"str(Data_PO.autoPhone())","idCardNo":"str(Data_PO.autoIdcard())","itemId":"select itemId from saashypertensiontest.ecf_follow_info where orgId = {{orgId}} and followUpName = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1' limit 1"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "doctorDesignatedFlag": 0,
+ "doctorId": 265,
+ "doctorName": "测试12",
+ "idCardNo": "110112199902047352",
+ "itemId": {{itemId}},
+ "name": "刘老头",
+ "orgId": {{orgId}},
+ "phone": "18923232323"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/querySinglePatient?idCardNo={{ldt_idCardNo}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/findPatientContrast?name=刘老头&amp;pageNum=1&amp;pageSize=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/findPatientContrast?name=&amp;pageNum=1&amp;pageSize=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dzempild":"$.data.data[0].empiId"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success","data":true}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生端-单个患者查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/queryPatientList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ldt_idCardNo":"select idCardNo from saashypertensiontest.t_patient_info where name = '李大头'","glempild":"$.data.list[0].empiId"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/updateManageGrade?followUpStatus=1&amp;pId={{glempild}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -795,7 +1139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -905,8 +1249,33 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2" tint="-0.89996032593768116"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,8 +1330,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -985,11 +1378,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1530,66 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,6 +1597,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1148,7 +1684,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1406,37 +1942,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15" style="35" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="23" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="41.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="54.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="4" customWidth="1"/>
     <col min="15" max="15" width="8" style="21" customWidth="1"/>
-    <col min="16" max="16" width="41.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.83203125" style="4" customWidth="1"/>
-    <col min="18" max="509" width="8.83203125" style="4" customWidth="1"/>
-    <col min="510" max="16384" width="8.83203125" style="4"/>
+    <col min="16" max="16" width="38.109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.77734375" style="4" customWidth="1"/>
+    <col min="18" max="509" width="8.77734375" style="4" customWidth="1"/>
+    <col min="510" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.5" customHeight="1">
+    <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
@@ -1509,12 +2045,15 @@
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="188" customHeight="1">
-      <c r="A3" s="38">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="102.6" customHeight="1">
+      <c r="A3" s="61">
         <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -1549,8 +2088,8 @@
       <c r="O3" s="27"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="61.75" customHeight="1">
-      <c r="A4" s="38">
+    <row r="4" spans="1:17" ht="61.8" customHeight="1">
+      <c r="A4" s="61">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1586,8 +2125,11 @@
       <c r="N4" s="8"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:17" ht="61.75" customHeight="1">
-      <c r="A5" s="38">
+    <row r="5" spans="1:17" ht="61.8" customHeight="1">
+      <c r="A5" s="61">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1623,9 +2165,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="61.75" customHeight="1">
-      <c r="A6" s="38">
+    <row r="6" spans="1:17" ht="61.8" customHeight="1">
+      <c r="A6" s="61">
         <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>90</v>
@@ -1660,8 +2205,8 @@
       <c r="O6" s="26"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="202" customHeight="1">
-      <c r="A7" s="38">
+    <row r="7" spans="1:17" ht="202.05" customHeight="1">
+      <c r="A7" s="61">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1695,8 +2240,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="220" customHeight="1">
-      <c r="A8" s="39">
+    <row r="8" spans="1:17" ht="220.05" customHeight="1">
+      <c r="A8" s="62">
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1733,8 +2278,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="231">
-      <c r="A9" s="39">
+    <row r="9" spans="1:17" ht="268.8">
+      <c r="A9" s="62">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1772,8 +2317,11 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="96" customHeight="1">
-      <c r="A10" s="39">
+      <c r="A10" s="62">
         <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
@@ -1805,9 +2353,12 @@
       </c>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:17" ht="154" customHeight="1">
-      <c r="A11" s="39">
+    <row r="11" spans="1:17" ht="69" customHeight="1">
+      <c r="A11" s="62">
         <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -1839,8 +2390,8 @@
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="84" customHeight="1">
-      <c r="A12" s="39">
+    <row r="12" spans="1:17" ht="63.6" customHeight="1">
+      <c r="A12" s="62">
         <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1878,7 +2429,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="57" customHeight="1">
-      <c r="A13" s="39">
+      <c r="A13" s="62">
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1915,9 +2466,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" customHeight="1">
-      <c r="A14" s="39">
+    <row r="14" spans="1:17" ht="50.4" customHeight="1">
+      <c r="A14" s="62">
         <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
@@ -1947,8 +2501,8 @@
       <c r="L14" s="4"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:17" ht="126">
-      <c r="A15" s="39">
+    <row r="15" spans="1:17" ht="50.4" customHeight="1">
+      <c r="A15" s="62">
         <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1985,9 +2539,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="43" customFormat="1" ht="216">
-      <c r="A16" s="39">
+    <row r="16" spans="1:17" s="43" customFormat="1" ht="61.8" customHeight="1">
+      <c r="A16" s="62">
         <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -2017,9 +2574,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="43" customFormat="1" ht="216">
-      <c r="A17" s="44">
+    <row r="17" spans="1:16" s="43" customFormat="1" ht="64.8" customHeight="1">
+      <c r="A17" s="63">
         <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
@@ -2045,6 +2605,508 @@
       <c r="J17" s="5" t="s">
         <v>98</v>
       </c>
+    </row>
+    <row r="18" spans="1:16" ht="85.8" customHeight="1">
+      <c r="A18" s="37">
+        <v>45</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="67.2" customHeight="1">
+      <c r="A19" s="37">
+        <v>46</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="52" customFormat="1" ht="60.6" customHeight="1">
+      <c r="A20" s="59">
+        <v>50</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="56"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="55"/>
+    </row>
+    <row r="21" spans="1:16" s="52" customFormat="1" ht="78.599999999999994" customHeight="1">
+      <c r="A21" s="59">
+        <v>51</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="52" customFormat="1" ht="46.2" customHeight="1">
+      <c r="A22" s="58">
+        <v>52</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="55"/>
+    </row>
+    <row r="23" spans="1:16" s="52" customFormat="1" ht="96">
+      <c r="A23" s="59">
+        <v>53</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" s="52" customFormat="1" ht="129.6" customHeight="1">
+      <c r="A24" s="59">
+        <v>54</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="56"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="55"/>
+    </row>
+    <row r="25" spans="1:16" s="52" customFormat="1" ht="115.2">
+      <c r="A25" s="59">
+        <v>55</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="52" customFormat="1" ht="76.8">
+      <c r="A26" s="59">
+        <v>56</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="J26" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="56"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" s="52" customFormat="1" ht="150.6" customHeight="1">
+      <c r="A27" s="52">
+        <v>57</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="56"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="55"/>
+    </row>
+    <row r="28" spans="1:16" s="52" customFormat="1" ht="96">
+      <c r="A28" s="64">
+        <v>58</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="J28" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="52" customFormat="1" ht="57.6">
+      <c r="A29" s="59">
+        <v>59</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="55"/>
+      <c r="J29" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="56"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="55"/>
+    </row>
+    <row r="30" spans="1:16" s="52" customFormat="1" ht="134.4">
+      <c r="A30" s="59">
+        <v>60</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="56"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="55"/>
+    </row>
+    <row r="31" spans="1:16" s="52" customFormat="1" ht="57.6">
+      <c r="A31" s="59">
+        <v>61</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="55"/>
+      <c r="J31" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="56"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="55"/>
+    </row>
+    <row r="32" spans="1:16" s="52" customFormat="1" ht="57.6">
+      <c r="A32" s="59">
+        <v>62</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="55"/>
+      <c r="J32" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="56"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="55"/>
+    </row>
+    <row r="33" spans="1:16" s="52" customFormat="1" ht="57.6">
+      <c r="A33" s="59">
+        <v>63</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="J33" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="56"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2052,16 +3114,16 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">
       <formula1>"正常,异常"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G15 G20:G32">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G18:G1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G34:G1048576">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18:B1048576 B3:B15 C8:C15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 B3:B1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G18"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -2078,29 +3140,29 @@
       <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.77734375" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="7.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="54.83203125" style="2" customWidth="1"/>
-    <col min="17" max="513" width="8.83203125" style="2" customWidth="1"/>
-    <col min="514" max="16384" width="8.83203125" style="2"/>
+    <col min="16" max="16" width="54.77734375" style="2" customWidth="1"/>
+    <col min="17" max="513" width="8.77734375" style="2" customWidth="1"/>
+    <col min="514" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.5" customHeight="1">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -2150,7 +3212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="97" customHeight="1">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="97.05" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2174,7 +3236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="76" customHeight="1">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="76.05" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2216,7 +3278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2254,7 +3316,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2411,36 +3473,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="13" customWidth="1"/>
     <col min="7" max="7" width="15" style="35" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="23" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="53.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="4" customWidth="1"/>
     <col min="15" max="15" width="8" style="21" customWidth="1"/>
-    <col min="16" max="16" width="41.5" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.83203125" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="4"/>
+    <col min="16" max="16" width="41.44140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.77734375" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.5" customHeight="1">
+    <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
@@ -2493,7 +3555,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="105" customHeight="1">
+    <row r="2" spans="1:17" ht="90.6" customHeight="1">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -2516,9 +3578,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="188" customHeight="1">
+    <row r="3" spans="1:17" ht="187.95" customHeight="1">
       <c r="A3" s="38">
         <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -2553,7 +3618,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="61.75" customHeight="1">
+    <row r="4" spans="1:17" ht="61.8" customHeight="1">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -2590,8 +3655,11 @@
       <c r="N4" s="8"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:17" ht="61.75" customHeight="1">
+    <row r="5" spans="1:17" ht="61.8" customHeight="1">
       <c r="A5" s="38">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2627,9 +3695,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="61.75" customHeight="1">
+    <row r="6" spans="1:17" ht="61.8" customHeight="1">
       <c r="A6" s="38">
         <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>90</v>
@@ -2664,7 +3735,7 @@
       <c r="O6" s="26"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="202" customHeight="1">
+    <row r="7" spans="1:17" ht="202.05" customHeight="1">
       <c r="A7" s="38">
         <v>20</v>
       </c>
@@ -2699,7 +3770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="220" customHeight="1">
+    <row r="8" spans="1:17" ht="220.05" customHeight="1">
       <c r="A8" s="39">
         <v>21</v>
       </c>
@@ -2737,7 +3808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="231">
+    <row r="9" spans="1:17" ht="211.2">
       <c r="A9" s="39">
         <v>22</v>
       </c>
@@ -2809,9 +3880,12 @@
       </c>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:17" ht="154" customHeight="1">
+    <row r="11" spans="1:17" ht="154.05000000000001" customHeight="1">
       <c r="A11" s="39">
         <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -2951,7 +4025,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:17" ht="126">
+    <row r="15" spans="1:17" ht="134.4">
       <c r="A15" s="39">
         <v>35</v>
       </c>
@@ -2989,10 +4063,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="43" customFormat="1" ht="216">
+    <row r="16" spans="1:17" s="43" customFormat="1" ht="209.4">
       <c r="A16" s="39">
         <v>40</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +4082,7 @@
       <c r="F16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -3021,10 +4098,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="43" customFormat="1" ht="216">
+    <row r="17" spans="1:16" s="43" customFormat="1" ht="208.8">
       <c r="A17" s="44">
         <v>41</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
@@ -3049,18 +4129,466 @@
       <c r="J17" s="5" t="s">
         <v>98</v>
       </c>
+    </row>
+    <row r="18" spans="1:16" s="45" customFormat="1" ht="151.19999999999999" customHeight="1">
+      <c r="A18" s="45">
+        <v>50</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="48"/>
+    </row>
+    <row r="19" spans="1:16" s="45" customFormat="1" ht="96">
+      <c r="A19" s="45">
+        <v>51</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="45" customFormat="1" ht="172.2" customHeight="1">
+      <c r="A20" s="45">
+        <v>52</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="48"/>
+    </row>
+    <row r="21" spans="1:16" s="45" customFormat="1" ht="96">
+      <c r="A21" s="45">
+        <v>53</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="48"/>
+    </row>
+    <row r="22" spans="1:16" s="45" customFormat="1" ht="153.6">
+      <c r="A22" s="45">
+        <v>54</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="48"/>
+    </row>
+    <row r="23" spans="1:16" s="45" customFormat="1" ht="115.2">
+      <c r="A23" s="45">
+        <v>55</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="49"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="45" customFormat="1" ht="76.8">
+      <c r="A24" s="45">
+        <v>56</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="49"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="48"/>
+    </row>
+    <row r="25" spans="1:16" s="45" customFormat="1" ht="192">
+      <c r="A25" s="45">
+        <v>57</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="49"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="48"/>
+    </row>
+    <row r="26" spans="1:16" s="45" customFormat="1" ht="96">
+      <c r="A26" s="45">
+        <v>58</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="49"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="45" customFormat="1" ht="96">
+      <c r="A27" s="45">
+        <v>59</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="49"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="1:16" s="45" customFormat="1" ht="115.2">
+      <c r="A28" s="45">
+        <v>60</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="49"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="48"/>
+    </row>
+    <row r="29" spans="1:16" s="45" customFormat="1" ht="57.6">
+      <c r="A29" s="45">
+        <v>61</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="48"/>
+      <c r="J29" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="49"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="48"/>
+    </row>
+    <row r="30" spans="1:16" s="45" customFormat="1" ht="57.6">
+      <c r="A30" s="45">
+        <v>62</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="48"/>
+      <c r="J30" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="49"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="48"/>
+    </row>
+    <row r="31" spans="1:16" s="45" customFormat="1" ht="76.8">
+      <c r="A31" s="45">
+        <v>63</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18:B1048576 B3:B15 C8:C15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 B3:B1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G18:G1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G32:G1048576 G19">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G16 G18 G20:G30">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">
@@ -3068,6 +4596,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="147">
   <si>
     <t>类型</t>
   </si>
@@ -806,118 +806,34 @@
     <t>医生端小程序登录-必填参数</t>
   </si>
   <si>
-    <t>{
- "loginEnum": "ACCOUNT",
- "password": "123456",
- "userNo": "16766667777"
-}</t>
-  </si>
-  <si>
-    <t>{"apptoken":"$.data.token"}</t>
-  </si>
-  <si>
     <t>医生端-新增患者-全参</t>
   </si>
   <si>
     <t>/saasuser/tPatientInfo/save</t>
   </si>
   <si>
-    <t>{"$.code":200,"$.msg":"success","$.data":null}</t>
-  </si>
-  <si>
     <t>医生端-新增患者-必填参数</t>
   </si>
   <si>
-    <t>{
- "idCardNo": "110112199907037382",
- "name": "大黑",
- "phone": "13555557777",
-}</t>
-  </si>
-  <si>
     <t>医生端-患者列表-全参</t>
   </si>
   <si>
     <t>/saasuser/tPatientInfo/queryPatientList</t>
   </si>
   <si>
-    <t>{
- "currPage": 1,
- "followId": "1",
- "itemId": 79,
- "pageSize": 10,
- "patientName": "李大头",
- "riskLevel": "0"
-}</t>
-  </si>
-  <si>
     <t>医生端-患者列表-必填参数</t>
   </si>
   <si>
-    <t>{
- "currPage": 1,
- "itemId": 79,
- "pageSize": 10,
- "riskLevel": ""
-}</t>
-  </si>
-  <si>
-    <t>{"glempild":"$.data.data.[0].empiId"}</t>
-  </si>
-  <si>
-    <t>医生端-单个患者查询</t>
-  </si>
-  <si>
-    <t>/saasuser/tPatientInfo/querySinglePatient</t>
-  </si>
-  <si>
-    <t>{
- "idCardNo": "110112199907037382"
-}</t>
-  </si>
-  <si>
     <t>医生端-添加对照组患者-全参</t>
   </si>
   <si>
     <t>/saasuser/tPatientInfo/savePatientContrast</t>
   </si>
   <si>
-    <t>{
- "doctorDesignatedFlag": 0,
- "doctorId": 265,
- "doctorName": "测试12",
- "idCardNo": "110112199902047352",
- "itemId": "79",
- "name": "刘老头",
- "orgId": 299,
- "phone": "18923232323"
-}</t>
-  </si>
-  <si>
     <t>医生端-查询对照组患者-全参</t>
   </si>
   <si>
-    <t>/saasuser/tPatientInfo/findPatientContrast</t>
-  </si>
-  <si>
-    <t>{
-"name":"刘老头",
-"pageNum":"1",
-"pageSize":"1"
-}</t>
-  </si>
-  <si>
-    <t>{"dzempild":"$.data.data.[0].empiId"}</t>
-  </si>
-  <si>
     <t>医生端-查询对照组患者-必填参数</t>
-  </si>
-  <si>
-    <t>{
-"name":"",
-"pageNum":"1",
-"pageSize":"1"
-}</t>
   </si>
   <si>
     <t>医生端-修改对照组患者-全参</t>
@@ -934,9 +850,6 @@
 }</t>
   </si>
   <si>
-    <t>{"$.code":200,"$.msg":"success","$.data":"true"}</t>
-  </si>
-  <si>
     <t>医生端-患者组别下拉框</t>
   </si>
   <si>
@@ -955,16 +868,7 @@
     <t>医生端-更改管理组别</t>
   </si>
   <si>
-    <t>/saasuser/ecfFollowInfo/updateManageGrade</t>
-  </si>
-  <si>
     <t>put</t>
-  </si>
-  <si>
-    <t>{
-"followUpStatus":"2",
-"pid":"{{glempild}}"
-}</t>
   </si>
   <si>
     <t>{
@@ -1005,10 +909,6 @@
   </si>
   <si>
     <t>/saasuser/tPatientInfo/save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.code":200,"$.msg":"success"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1275,7 +1175,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,12 +1226,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1355,7 +1249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1378,26 +1272,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1510,12 +1389,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1528,27 +1401,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1564,8 +1416,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1573,22 +1428,19 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1684,7 +1536,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1945,20 +1797,20 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="38" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
     <col min="6" max="6" width="41.77734375" style="13" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="54.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="49.21875" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
@@ -2025,7 +1877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="105" customHeight="1">
+    <row r="2" spans="1:17" ht="54" customHeight="1">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -2045,15 +1897,12 @@
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
       <c r="P2" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="102.6" customHeight="1">
-      <c r="A3" s="61">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="51.6" customHeight="1">
+      <c r="A3" s="52">
         <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -2080,20 +1929,15 @@
         <v>99</v>
       </c>
       <c r="K3" s="24"/>
-      <c r="L3" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="25"/>
       <c r="N3" s="8"/>
       <c r="O3" s="27"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A4" s="61">
+      <c r="A4" s="52">
         <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -2126,7 +1970,7 @@
       <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A5" s="61">
+      <c r="A5" s="52">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2166,7 +2010,7 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A6" s="61">
+      <c r="A6" s="52">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2175,16 +2019,16 @@
       <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -2205,8 +2049,8 @@
       <c r="O6" s="26"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="202.05" customHeight="1">
-      <c r="A7" s="61">
+    <row r="7" spans="1:17" ht="76.8" customHeight="1">
+      <c r="A7" s="52">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2240,8 +2084,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="220.05" customHeight="1">
-      <c r="A8" s="62">
+    <row r="8" spans="1:17" ht="56.4" customHeight="1">
+      <c r="A8" s="53">
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2278,8 +2122,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="268.8">
-      <c r="A9" s="62">
+    <row r="9" spans="1:17" ht="57" customHeight="1">
+      <c r="A9" s="53">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2316,306 +2160,101 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="96" customHeight="1">
-      <c r="A10" s="62">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>99</v>
-      </c>
+    <row r="10" spans="1:17" ht="52.8" customHeight="1">
+      <c r="A10" s="53"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="6"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="L10" s="7"/>
       <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:17" ht="69" customHeight="1">
-      <c r="A11" s="62">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A11" s="53"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="6"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="L11" s="7"/>
       <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="63.6" customHeight="1">
-      <c r="A12" s="62">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="53"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="6"/>
       <c r="K12" s="21"/>
       <c r="L12" s="4"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="57" customHeight="1">
-      <c r="A13" s="62">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A13" s="53"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="14"/>
+      <c r="I13" s="6"/>
       <c r="K13" s="21"/>
       <c r="L13" s="4"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="50.4" customHeight="1">
-      <c r="A14" s="62">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="A14" s="53"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="6"/>
       <c r="K14" s="21"/>
       <c r="L14" s="4"/>
       <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:17" ht="50.4" customHeight="1">
-      <c r="A15" s="62">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="53"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="14"/>
+      <c r="I15" s="6"/>
       <c r="K15" s="21"/>
       <c r="L15" s="4"/>
       <c r="M15" s="23"/>
-      <c r="N15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="43" customFormat="1" ht="61.8" customHeight="1">
-      <c r="A16" s="62">
-        <v>40</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="P16" s="43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="64.8" customHeight="1">
-      <c r="A17" s="63">
-        <v>41</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" s="41" customFormat="1" ht="61.8" customHeight="1">
+      <c r="A16" s="53"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="64.8" customHeight="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:16" ht="85.8" customHeight="1">
-      <c r="A18" s="37">
-        <v>45</v>
-      </c>
-      <c r="B18" s="52"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="32" t="s">
-        <v>50</v>
-      </c>
+      <c r="E18" s="32"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -2625,24 +2264,16 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
-      <c r="P18" s="10" t="s">
-        <v>155</v>
-      </c>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16" ht="67.2" customHeight="1">
-      <c r="A19" s="37">
-        <v>46</v>
-      </c>
-      <c r="B19" s="52"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="51" t="s">
-        <v>150</v>
-      </c>
+      <c r="E19" s="42"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="23" t="s">
-        <v>151</v>
-      </c>
+      <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="21"/>
       <c r="J19" s="23"/>
@@ -2650,463 +2281,208 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="52" customFormat="1" ht="60.6" customHeight="1">
-      <c r="A20" s="59">
-        <v>50</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="55"/>
-    </row>
-    <row r="21" spans="1:16" s="52" customFormat="1" ht="78.599999999999994" customHeight="1">
-      <c r="A21" s="59">
-        <v>51</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="52" customFormat="1" ht="46.2" customHeight="1">
-      <c r="A22" s="58">
-        <v>52</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="55"/>
-    </row>
-    <row r="23" spans="1:16" s="52" customFormat="1" ht="96">
-      <c r="A23" s="59">
-        <v>53</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="57"/>
-      <c r="O23" s="57"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" s="43" customFormat="1" ht="60.6" customHeight="1">
+      <c r="A20" s="50"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="46"/>
+    </row>
+    <row r="21" spans="1:16" s="43" customFormat="1" ht="78.599999999999994" customHeight="1">
+      <c r="A21" s="50"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" s="43" customFormat="1" ht="46.2" customHeight="1">
+      <c r="A22" s="49"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="46"/>
+    </row>
+    <row r="23" spans="1:16" s="43" customFormat="1">
+      <c r="A23" s="50"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="48"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" s="52" customFormat="1" ht="129.6" customHeight="1">
-      <c r="A24" s="59">
-        <v>54</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="55"/>
-    </row>
-    <row r="25" spans="1:16" s="52" customFormat="1" ht="115.2">
-      <c r="A25" s="59">
-        <v>55</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="52" customFormat="1" ht="76.8">
-      <c r="A26" s="59">
-        <v>56</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>9</v>
-      </c>
+    <row r="24" spans="1:16" s="43" customFormat="1" ht="129.6" customHeight="1">
+      <c r="A24" s="50"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="46"/>
+    </row>
+    <row r="25" spans="1:16" s="43" customFormat="1">
+      <c r="A25" s="50"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" s="43" customFormat="1">
+      <c r="A26" s="50"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="5"/>
-      <c r="J26" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="57"/>
-      <c r="O26" s="57"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="48"/>
+      <c r="O26" s="48"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" s="52" customFormat="1" ht="150.6" customHeight="1">
-      <c r="A27" s="52">
-        <v>57</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="55"/>
-    </row>
-    <row r="28" spans="1:16" s="52" customFormat="1" ht="96">
-      <c r="A28" s="64">
-        <v>58</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>9</v>
-      </c>
+    <row r="27" spans="1:16" s="43" customFormat="1" ht="150.6" customHeight="1">
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="5"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="46"/>
+    </row>
+    <row r="28" spans="1:16" s="43" customFormat="1">
+      <c r="A28" s="55"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="5"/>
-      <c r="J28" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="52" customFormat="1" ht="57.6">
-      <c r="A29" s="59">
-        <v>59</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="55"/>
-      <c r="J29" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="55"/>
-    </row>
-    <row r="30" spans="1:16" s="52" customFormat="1" ht="134.4">
-      <c r="A30" s="59">
-        <v>60</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="55"/>
-    </row>
-    <row r="31" spans="1:16" s="52" customFormat="1" ht="57.6">
-      <c r="A31" s="59">
-        <v>61</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="55"/>
-      <c r="J31" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="56"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="55"/>
-    </row>
-    <row r="32" spans="1:16" s="52" customFormat="1" ht="57.6">
-      <c r="A32" s="59">
-        <v>62</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="55"/>
-      <c r="J32" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="55"/>
-    </row>
-    <row r="33" spans="1:16" s="52" customFormat="1" ht="57.6">
-      <c r="A33" s="59">
-        <v>63</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>141</v>
-      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" s="43" customFormat="1">
+      <c r="A29" s="50"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="46"/>
+    </row>
+    <row r="30" spans="1:16" s="43" customFormat="1">
+      <c r="A30" s="50"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="46"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="46"/>
+    </row>
+    <row r="31" spans="1:16" s="43" customFormat="1">
+      <c r="A31" s="50"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="46"/>
+    </row>
+    <row r="32" spans="1:16" s="43" customFormat="1">
+      <c r="A32" s="50"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="46"/>
+    </row>
+    <row r="33" spans="1:16" s="43" customFormat="1">
+      <c r="A33" s="50"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="46"/>
       <c r="H33" s="5"/>
-      <c r="J33" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="56"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="55"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3473,33 +2849,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD31"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="38" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15" style="35" customWidth="1"/>
-    <col min="8" max="8" width="53.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="49.21875" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="18.77734375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="4" customWidth="1"/>
     <col min="15" max="15" width="8" style="21" customWidth="1"/>
-    <col min="16" max="16" width="41.44140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="38.109375" style="5" customWidth="1"/>
     <col min="17" max="17" width="40.77734375" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="4"/>
+    <col min="18" max="509" width="8.77734375" style="4" customWidth="1"/>
+    <col min="510" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1">
@@ -3555,11 +2932,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="90.6" customHeight="1">
+    <row r="2" spans="1:17" ht="105" customHeight="1">
       <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="21" t="b">
+        <v>1</v>
+      </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
       <c r="E2" s="32" t="s">
@@ -3578,8 +2957,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="187.95" customHeight="1">
-      <c r="A3" s="38">
+    <row r="3" spans="1:17" ht="102.6" customHeight="1">
+      <c r="A3" s="52">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3619,7 +2998,7 @@
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A4" s="38">
+      <c r="A4" s="52">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3656,7 +3035,7 @@
       <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A5" s="38">
+      <c r="A5" s="52">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3696,7 +3075,7 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A6" s="38">
+      <c r="A6" s="52">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3705,16 +3084,16 @@
       <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -3736,7 +3115,7 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:17" ht="202.05" customHeight="1">
-      <c r="A7" s="38">
+      <c r="A7" s="52">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3771,7 +3150,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="220.05" customHeight="1">
-      <c r="A8" s="39">
+      <c r="A8" s="53">
         <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3808,8 +3187,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="211.2">
-      <c r="A9" s="39">
+    <row r="9" spans="1:17" ht="268.8">
+      <c r="A9" s="53">
         <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3847,8 +3226,11 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="96" customHeight="1">
-      <c r="A10" s="39">
+      <c r="A10" s="53">
         <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
@@ -3880,8 +3262,8 @@
       </c>
       <c r="M10" s="23"/>
     </row>
-    <row r="11" spans="1:17" ht="154.05000000000001" customHeight="1">
-      <c r="A11" s="39">
+    <row r="11" spans="1:17" ht="69" customHeight="1">
+      <c r="A11" s="53">
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3917,8 +3299,8 @@
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="84" customHeight="1">
-      <c r="A12" s="39">
+    <row r="12" spans="1:17" ht="63.6" customHeight="1">
+      <c r="A12" s="53">
         <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3956,7 +3338,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="57" customHeight="1">
-      <c r="A13" s="39">
+      <c r="A13" s="53">
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3993,9 +3375,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" customHeight="1">
-      <c r="A14" s="39">
+    <row r="14" spans="1:17" ht="50.4" customHeight="1">
+      <c r="A14" s="53">
         <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
@@ -4025,8 +3410,8 @@
       <c r="L14" s="4"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:17" ht="134.4">
-      <c r="A15" s="39">
+    <row r="15" spans="1:17" ht="50.4" customHeight="1">
+      <c r="A15" s="53">
         <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4063,8 +3448,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="43" customFormat="1" ht="209.4">
-      <c r="A16" s="39">
+    <row r="16" spans="1:17" s="41" customFormat="1" ht="61.8" customHeight="1">
+      <c r="A16" s="53">
         <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4073,7 +3458,7 @@
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -4082,7 +3467,7 @@
       <c r="F16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="41" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -4094,12 +3479,12 @@
       <c r="J16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="43" customFormat="1" ht="208.8">
-      <c r="A17" s="44">
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="64.8" customHeight="1">
+      <c r="A17" s="54">
         <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4108,7 +3493,7 @@
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="41" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -4117,7 +3502,7 @@
       <c r="F17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="41" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -4130,465 +3515,519 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="45" customFormat="1" ht="151.19999999999999" customHeight="1">
-      <c r="A18" s="45">
+    <row r="18" spans="1:16" ht="85.8" customHeight="1">
+      <c r="A18" s="37">
+        <v>45</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="67.2" customHeight="1">
+      <c r="A19" s="37">
+        <v>46</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="43" customFormat="1" ht="60.6" customHeight="1">
+      <c r="A20" s="50">
+        <v>50</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E20" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F20" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="48" t="s">
+      <c r="G20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I20" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="48"/>
-    </row>
-    <row r="19" spans="1:16" s="45" customFormat="1" ht="96">
-      <c r="A19" s="45">
+      <c r="K20" s="47"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="46"/>
+    </row>
+    <row r="21" spans="1:16" s="43" customFormat="1" ht="78.599999999999994" customHeight="1">
+      <c r="A21" s="50">
         <v>51</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E21" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F21" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="48" t="s">
+      <c r="G21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="47"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="43" customFormat="1" ht="46.2" customHeight="1">
+      <c r="A22" s="49">
+        <v>52</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="48" t="s">
+      <c r="F22" s="46" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="45" customFormat="1" ht="172.2" customHeight="1">
-      <c r="A20" s="45">
-        <v>52</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="1:16" s="45" customFormat="1" ht="96">
-      <c r="A21" s="45">
-        <v>53</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="1:16" s="45" customFormat="1" ht="153.6">
-      <c r="A22" s="45">
-        <v>54</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>113</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48" t="s">
+      <c r="H22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="1:16" s="45" customFormat="1" ht="115.2">
-      <c r="A23" s="45">
-        <v>55</v>
-      </c>
-      <c r="C23" s="45" t="s">
+      <c r="K22" s="47"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="46"/>
+    </row>
+    <row r="23" spans="1:16" s="43" customFormat="1" ht="96">
+      <c r="A23" s="50">
+        <v>53</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>113</v>
+      <c r="E23" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48" t="s">
+      <c r="H23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="45" customFormat="1" ht="76.8">
-      <c r="A24" s="45">
-        <v>56</v>
-      </c>
-      <c r="C24" s="45" t="s">
+      <c r="K23" s="47"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" s="43" customFormat="1" ht="129.6" customHeight="1">
+      <c r="A24" s="50">
+        <v>54</v>
+      </c>
+      <c r="C24" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>119</v>
+      <c r="E24" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="48"/>
-    </row>
-    <row r="25" spans="1:16" s="45" customFormat="1" ht="192">
-      <c r="A25" s="45">
-        <v>57</v>
-      </c>
-      <c r="C25" s="45" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="46"/>
+    </row>
+    <row r="25" spans="1:16" s="43" customFormat="1" ht="115.2">
+      <c r="A25" s="50">
+        <v>55</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>122</v>
+      <c r="E25" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>109</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="48" t="s">
+      <c r="H25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="48"/>
-    </row>
-    <row r="26" spans="1:16" s="45" customFormat="1" ht="96">
-      <c r="A26" s="45">
-        <v>58</v>
-      </c>
-      <c r="C26" s="45" t="s">
+      <c r="K25" s="47"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="43" customFormat="1" ht="57.6">
+      <c r="A26" s="50">
+        <v>56</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>125</v>
+      <c r="E26" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="J26" s="48" t="s">
+      <c r="H26" s="5"/>
+      <c r="J26" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="45" customFormat="1" ht="96">
-      <c r="A27" s="45">
+      <c r="K26" s="47"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" s="43" customFormat="1" ht="150.6" customHeight="1">
+      <c r="A27" s="43">
+        <v>57</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="47"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="46"/>
+    </row>
+    <row r="28" spans="1:16" s="43" customFormat="1" ht="57.6">
+      <c r="A28" s="55">
+        <v>58</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="J28" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="47"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="43" customFormat="1" ht="57.6">
+      <c r="A29" s="50">
         <v>59</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C29" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D29" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="48"/>
-    </row>
-    <row r="28" spans="1:16" s="45" customFormat="1" ht="115.2">
-      <c r="A28" s="45">
-        <v>60</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="48"/>
-    </row>
-    <row r="29" spans="1:16" s="45" customFormat="1" ht="57.6">
-      <c r="A29" s="45">
-        <v>61</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>135</v>
+      <c r="E29" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="J29" s="48" t="s">
+      <c r="H29" s="46"/>
+      <c r="J29" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="48"/>
-    </row>
-    <row r="30" spans="1:16" s="45" customFormat="1" ht="57.6">
-      <c r="A30" s="45">
+      <c r="K29" s="47"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="46"/>
+    </row>
+    <row r="30" spans="1:16" s="43" customFormat="1" ht="115.2">
+      <c r="A30" s="50">
+        <v>60</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="47"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="46"/>
+    </row>
+    <row r="31" spans="1:16" s="43" customFormat="1" ht="57.6">
+      <c r="A31" s="50">
+        <v>61</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="J31" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="47"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="46"/>
+    </row>
+    <row r="32" spans="1:16" s="43" customFormat="1" ht="57.6">
+      <c r="A32" s="50">
         <v>62</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D32" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="14" t="s">
+      <c r="E32" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="J30" s="48" t="s">
+      <c r="H32" s="46"/>
+      <c r="J32" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="48"/>
-    </row>
-    <row r="31" spans="1:16" s="45" customFormat="1" ht="76.8">
-      <c r="A31" s="45">
+      <c r="K32" s="47"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="46"/>
+    </row>
+    <row r="33" spans="1:16" s="43" customFormat="1" ht="57.6">
+      <c r="A33" s="50">
         <v>63</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C33" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="48"/>
+      <c r="D33" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="J33" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="47"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G18"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 B3:B1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G32:G1048576 G19">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G34:G1048576">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G16 G18 G20:G30">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G15 G20:G32">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -15,6 +15,7 @@
     <sheet name="case" sheetId="2" r:id="rId1"/>
     <sheet name="说明" sheetId="3" r:id="rId2"/>
     <sheet name="bak" sheetId="4" r:id="rId3"/>
+    <sheet name="bak2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -227,8 +228,77 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jh</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>必填项</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="227">
   <si>
     <t>类型</t>
   </si>
@@ -904,10 +974,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.autoNum(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/saasuser/tPatientInfo/save</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1031,6 +1097,348 @@
     <t>/saasuser/ecfFollowInfo/updateManageGrade?followUpStatus=1&amp;pId={{glempild}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":500,"$.msg":"hypertension 系统出现异常,请联系管理员-DTO！","$.data":null}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生端-查询患者随访记录信息</t>
+  </si>
+  <si>
+    <t>医生端-分层分级查询</t>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryHierarchyInfo</t>
+  </si>
+  <si>
+    <t>医生端-建议转诊患者-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryNotQualified?currPage=1&amp;entrance=0&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>医生端-建议转诊患者-必填参数</t>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryNotQualified?currPage=1&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>医生端-一周内待随访患者查询</t>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryOneWeekFollow?currPage=1&amp;itemId=79&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>医生端-逾期随访患者查询</t>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryOverdueFollow?currPage=1&amp;itemId=79&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>转诊记录表接口</t>
+  </si>
+  <si>
+    <t>医生端-新增转诊</t>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/create</t>
+  </si>
+  <si>
+    <t>{
+ "empiId": "{{glempild}}",
+ "receptionOrgNo": "306",
+ "signsAndSymptoms": "就这样",
+ "treatmentOf": "好的"
+}</t>
+  </si>
+  <si>
+    <t>{"zz_id":"select max(id) from saashypertensiontest.hy_referral_record where empiId = '426212903823876098'"}</t>
+  </si>
+  <si>
+    <t>医生端-待处理查询</t>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/pendingQueryPage?currPage=1&amp;orgCode=299&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>{"$.code":200","$.msg":"0"}</t>
+  </si>
+  <si>
+    <t>医生端-转入确认</t>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/pendingAffirm</t>
+  </si>
+  <si>
+    <t>{
+"id":"{{zz_id}}"
+}</t>
+  </si>
+  <si>
+    <t>医生端-转回申请</t>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/backApplyFor</t>
+  </si>
+  <si>
+    <t>{
+ "id": {{zz_id}},
+ "patientInfo": "就这吧",
+ "recommendedTreatment": "啥事没有"
+}</t>
+  </si>
+  <si>
+    <t>医生端-转回确认</t>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/backAffirm</t>
+  </si>
+  <si>
+    <t>医生端-已接收查询</t>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/acceptedQueryPage?currPage=1&amp;orgCode=299&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>医生端-转诊记录查询</t>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/recordQueryPage?currPage=1&amp;orgCode=299&amp;pageSize=10</t>
+  </si>
+  <si>
+    <t>医生端-通过id获取一条数据</t>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/getReferralRecordById?id={{zz_id}}</t>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/updateManageGrade?followUpStatus=1&amp;pId={{glempild}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ldt_idCardNo":"select idCardNo from saashypertensiontest.t_patient_info where name = '李大头'","glempild":"$.data.list[0].empiId"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryFollowDetailInfo?currPage=1&amp;itemId={{itemId}}&amp;pId={{glempild}}&amp;pageSize=50</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>query参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"orgCode":" {{orgId}}"
+"pageNum":"1"
+"pageSize":"10"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=&amp;pageNum=1&amp;pageSize=1</t>
+  </si>
+  <si>
+    <t>pc登录-必填非必填参数都有值</t>
+  </si>
+  <si>
+    <t>{
+ "beginAge": 0,
+ "currentPage": 1,
+ "docName": "dc",
+ "endAge": 0,
+ "groupType": "1",
+ "name": "张小三",
+ "orgId": {{orgId}},
+ "orgIdList": [],
+ "pageSize": 10,
+ "statusList": []
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "beginAge": 1,
+ "currentPage": 1,
+ "docName": "dc",
+ "endAge": 100,
+ "groupType": "1",
+ "name": "斤斤计较",
+ "orgId":  {{orgId}},
+ "orgIdList": [],
+ "pageSize": 10,
+ "statusList": [2]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"str(Data_PO.autoPhone())","idCardNo":"str(Data_PO.autoIdcard())","itemId":"select itemId from saashypertensiontest.ecf_follow_info where orgId = {{orgId}} and followUpName = '一级1' limit 1"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgCode={{orgId}}&amp;pageNum=1&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "currPage": 1,
+ "followId": "1",
+ "itemId": {{itemId}},
+ "pageSize": 10,
+ "patientName": "李大头",
+ "riskLevel": "0"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/querySinglePatient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCardNo={{ldt_idCardNo}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/findPatientContrast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=刘老头&amp;pageNum=1&amp;pageSize=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/findPatientContrast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=&amp;pageNum=1&amp;pageSize=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/updateManageGrade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryFollowDetailInfo</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId={{itemId}}&amp;pId={{glempild}}&amp;pageSize=50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryNotQualified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;entrance=0&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryOneWeekFollow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId=79&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryOverdueFollow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId=79&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;orgCode=299&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/pendingQueryPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/acceptedQueryPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/recordQueryPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/getReferralRecordById</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id={{zz_id}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hbpStatistics/enrolledPatient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hbpStatistics/findFollowUpSituation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/pendingQueryPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"0"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>followUpStatus=1&amp;pId={{glempild}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "id": {{zz_id}},
+ "patientInfo": "就这吧",
+"recommendedTreatment": "啥事没有"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"zz_id":"select max(id) from saashypertensiontest.hy_referral_record where empiId = {{glempild}}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "empiId": "{{glempild}}",
+ "receptionOrgNo": "306",
+"signsAndSymptoms": "就这样",
+ "treatmentOf": "好的"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1039,7 +1447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1174,6 +1582,69 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89996032593768116"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3B4151"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1276,7 +1747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1442,6 +1913,136 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,695 +2395,1596 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="49.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8" style="21" customWidth="1"/>
-    <col min="16" max="16" width="38.109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.77734375" style="4" customWidth="1"/>
-    <col min="18" max="509" width="8.77734375" style="4" customWidth="1"/>
-    <col min="510" max="16384" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="5.44140625" style="98" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="75" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="92" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="99" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="89" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="89" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="89" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" style="86" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" style="75" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="86" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="80" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="86" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="77" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="75" customWidth="1"/>
+    <col min="16" max="16" width="8" style="77" customWidth="1"/>
+    <col min="17" max="17" width="38.109375" style="86" customWidth="1"/>
+    <col min="18" max="18" width="40.77734375" style="75" customWidth="1"/>
+    <col min="19" max="510" width="8.77734375" style="75" customWidth="1"/>
+    <col min="511" max="16384" width="8.77734375" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:18" ht="33.450000000000003" customHeight="1">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="54" customHeight="1">
-      <c r="A2" s="37">
+    <row r="2" spans="1:18" ht="54" customHeight="1">
+      <c r="A2" s="76">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="10" t="s">
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="45" customHeight="1">
+      <c r="A3" s="82">
+        <v>2</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="81"/>
+      <c r="I3" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="81"/>
+    </row>
+    <row r="4" spans="1:18" ht="42.6" customHeight="1">
+      <c r="A4" s="82">
+        <v>3</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="81"/>
+      <c r="I4" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="65"/>
+    </row>
+    <row r="5" spans="1:18" ht="43.8" customHeight="1">
+      <c r="A5" s="82">
+        <v>10</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="60"/>
+      <c r="M5" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="65"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="81"/>
+    </row>
+    <row r="6" spans="1:18" ht="40.799999999999997" customHeight="1">
+      <c r="A6" s="82">
+        <v>11</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="81"/>
+    </row>
+    <row r="7" spans="1:18" ht="40.799999999999997" customHeight="1">
+      <c r="A7" s="82">
+        <v>20</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="33" customHeight="1">
+      <c r="A8" s="90">
+        <v>21</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="81"/>
+      <c r="I8" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="77"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="33.6" customHeight="1">
+      <c r="A9" s="90">
+        <v>22</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="81"/>
+      <c r="I9" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="77"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="32.4" customHeight="1">
+      <c r="A10" s="90">
+        <v>30</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="81"/>
+      <c r="I10" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="77"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="80"/>
+    </row>
+    <row r="11" spans="1:18" ht="38.4" customHeight="1">
+      <c r="A11" s="90">
+        <v>31</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="81"/>
+      <c r="I11" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="77"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="80"/>
+    </row>
+    <row r="12" spans="1:18" ht="31.8" customHeight="1">
+      <c r="A12" s="90">
+        <v>32</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="81"/>
+      <c r="I12" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="77"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" customHeight="1">
+      <c r="A13" s="90">
+        <v>33</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="77"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="85.8" customHeight="1">
+      <c r="A14" s="90">
+        <v>34</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="77"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="80"/>
+    </row>
+    <row r="15" spans="1:18" ht="50.4" customHeight="1">
+      <c r="A15" s="90">
+        <v>35</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="81"/>
+      <c r="I15" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="77"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="83" customFormat="1" ht="61.8" customHeight="1">
+      <c r="A16" s="90">
+        <v>40</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="83" customFormat="1" ht="64.8" customHeight="1">
+      <c r="A17" s="82">
+        <v>41</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="46.2" customHeight="1">
+      <c r="A18" s="76">
+        <v>45</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="46.2" customHeight="1">
+      <c r="A19" s="76">
+        <v>46</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="81"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="60.6" customHeight="1">
+      <c r="A20" s="91">
+        <v>50</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="94"/>
+      <c r="N20" s="95"/>
+      <c r="P20" s="95"/>
+    </row>
+    <row r="21" spans="1:17" ht="78.599999999999994" customHeight="1">
+      <c r="A21" s="91">
+        <v>51</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="81"/>
+      <c r="I21" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="94"/>
+      <c r="N21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="46.2" customHeight="1">
+      <c r="A22" s="96">
+        <v>52</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="81"/>
+      <c r="I22" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="94"/>
+      <c r="N22" s="95"/>
+      <c r="P22" s="95"/>
+    </row>
+    <row r="23" spans="1:17" ht="60.6" customHeight="1">
+      <c r="A23" s="91">
+        <v>53</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="86" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="51.6" customHeight="1">
-      <c r="A3" s="52">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="G23" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="81"/>
+      <c r="I23" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A4" s="52">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="K23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="94"/>
+      <c r="N23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="81"/>
+    </row>
+    <row r="24" spans="1:17" ht="58.8" customHeight="1">
+      <c r="A24" s="91">
+        <v>54</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="26"/>
-    </row>
-    <row r="5" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A5" s="52">
+      <c r="H24" s="81"/>
+      <c r="I24" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="94"/>
+      <c r="N24" s="95"/>
+      <c r="P24" s="95"/>
+    </row>
+    <row r="25" spans="1:17" ht="59.4" customHeight="1">
+      <c r="A25" s="91">
+        <v>55</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="81"/>
+      <c r="I25" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="94"/>
+      <c r="N25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="52.2">
+      <c r="A26" s="91">
+        <v>56</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="94"/>
+      <c r="N26" s="95"/>
+      <c r="P26" s="95"/>
+    </row>
+    <row r="27" spans="1:17" ht="150.6" customHeight="1">
+      <c r="A27" s="75">
+        <v>57</v>
+      </c>
+      <c r="B27" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C27" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="81"/>
+      <c r="I27" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="P27" s="95"/>
+    </row>
+    <row r="28" spans="1:17" ht="52.2">
+      <c r="A28" s="97">
+        <v>58</v>
+      </c>
+      <c r="B28" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="61.8" customHeight="1">
-      <c r="A6" s="52">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C28" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="94"/>
+      <c r="N28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="52.2">
+      <c r="A29" s="91">
+        <v>59</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="94"/>
+      <c r="N29" s="95"/>
+      <c r="P29" s="95"/>
+    </row>
+    <row r="30" spans="1:17" ht="99.6" customHeight="1">
+      <c r="A30" s="91">
+        <v>60</v>
+      </c>
+      <c r="B30" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="40" t="s">
+      <c r="C30" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" ht="76.8" customHeight="1">
-      <c r="A7" s="52">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="H30" s="81"/>
+      <c r="I30" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="94"/>
+      <c r="N30" s="95"/>
+      <c r="P30" s="95"/>
+    </row>
+    <row r="31" spans="1:17" ht="52.2">
+      <c r="A31" s="91">
+        <v>61</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="56.4" customHeight="1">
-      <c r="A8" s="53">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E31" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="81"/>
+      <c r="K31" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="94"/>
+      <c r="N31" s="95"/>
+      <c r="P31" s="95"/>
+    </row>
+    <row r="32" spans="1:17" ht="52.2">
+      <c r="A32" s="91">
+        <v>62</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="E32" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="81"/>
+      <c r="K32" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="94"/>
+      <c r="N32" s="95"/>
+      <c r="P32" s="95"/>
+    </row>
+    <row r="33" spans="1:17" ht="52.2">
+      <c r="A33" s="91">
+        <v>63</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="94"/>
+      <c r="N33" s="95"/>
+      <c r="P33" s="95"/>
+    </row>
+    <row r="34" spans="1:17" ht="69.599999999999994">
+      <c r="A34" s="82">
+        <v>66</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="94"/>
+      <c r="N34" s="95"/>
+      <c r="P34" s="95"/>
+    </row>
+    <row r="35" spans="1:17" ht="52.2">
+      <c r="A35" s="82">
         <v>67</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="57" customHeight="1">
-      <c r="A9" s="53">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="C35" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="81"/>
+      <c r="K35" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="94"/>
+      <c r="N35" s="95"/>
+      <c r="P35" s="95"/>
+    </row>
+    <row r="36" spans="1:17" ht="69.599999999999994">
+      <c r="A36" s="82">
+        <v>68</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="94"/>
+      <c r="N36" s="95"/>
+      <c r="P36" s="95"/>
+    </row>
+    <row r="37" spans="1:17" ht="52.2">
+      <c r="A37" s="82">
+        <v>69</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="94"/>
+      <c r="N37" s="95"/>
+      <c r="P37" s="95"/>
+    </row>
+    <row r="38" spans="1:17" ht="52.2">
+      <c r="A38" s="82">
+        <v>70</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="K38" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="94"/>
+      <c r="N38" s="95"/>
+      <c r="P38" s="95"/>
+    </row>
+    <row r="39" spans="1:17" ht="52.2">
+      <c r="A39" s="82">
+        <v>71</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K39" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="94"/>
+      <c r="N39" s="95"/>
+      <c r="P39" s="95"/>
+    </row>
+    <row r="40" spans="1:17" ht="128.4" customHeight="1">
+      <c r="A40" s="98">
+        <v>72</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="81"/>
+      <c r="I40" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="K40" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="94"/>
+      <c r="N40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="52.2">
+      <c r="A41" s="82">
+        <v>73</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="89"/>
+      <c r="K41" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="L41" s="94"/>
+      <c r="N41" s="95"/>
+      <c r="P41" s="95"/>
+    </row>
+    <row r="42" spans="1:17" ht="52.2">
+      <c r="A42" s="98">
         <v>74</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="52.8" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="6"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:17" ht="69" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="14"/>
-      <c r="I11" s="6"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="1:17" ht="63.6" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="6"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" ht="57" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="14"/>
-      <c r="I13" s="6"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" ht="50.4" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="6"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:17" ht="50.4" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="14"/>
-      <c r="I15" s="6"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" s="41" customFormat="1" ht="61.8" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" s="41" customFormat="1" ht="64.8" customHeight="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" ht="85.8" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" ht="67.2" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="60.6" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="78.599999999999994" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" s="43" customFormat="1" ht="46.2" customHeight="1">
-      <c r="A22" s="49"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" s="43" customFormat="1">
-      <c r="A23" s="50"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="129.6" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="46"/>
-    </row>
-    <row r="25" spans="1:16" s="43" customFormat="1">
-      <c r="A25" s="50"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" s="43" customFormat="1">
-      <c r="A26" s="50"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="5"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="150.6" customHeight="1">
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="46"/>
-    </row>
-    <row r="28" spans="1:16" s="43" customFormat="1">
-      <c r="A28" s="55"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" s="43" customFormat="1">
-      <c r="A29" s="50"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="46"/>
-    </row>
-    <row r="30" spans="1:16" s="43" customFormat="1">
-      <c r="A30" s="50"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="46"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="1:16" s="43" customFormat="1">
-      <c r="A31" s="50"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" s="43" customFormat="1">
-      <c r="A32" s="50"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="46"/>
-    </row>
-    <row r="33" spans="1:16" s="43" customFormat="1">
-      <c r="A33" s="50"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="5"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="46"/>
+      <c r="C42" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="81"/>
+      <c r="I42" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="94"/>
+      <c r="N42" s="95"/>
+      <c r="P42" s="95"/>
+    </row>
+    <row r="43" spans="1:17" ht="104.4">
+      <c r="A43" s="98">
+        <v>75</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="81"/>
+      <c r="I43" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="K43" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="94"/>
+      <c r="N43" s="95"/>
+      <c r="P43" s="95"/>
+    </row>
+    <row r="44" spans="1:17" ht="52.2">
+      <c r="A44" s="98">
+        <v>76</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="81"/>
+      <c r="I44" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="K44" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="94"/>
+      <c r="N44" s="95"/>
+      <c r="P44" s="95"/>
+    </row>
+    <row r="45" spans="1:17" ht="52.2">
+      <c r="A45" s="82">
+        <v>77</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="L45" s="94"/>
+      <c r="N45" s="95"/>
+      <c r="P45" s="95"/>
+    </row>
+    <row r="46" spans="1:17" ht="52.2">
+      <c r="A46" s="82">
+        <v>78</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="K46" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="L46" s="94"/>
+      <c r="N46" s="95"/>
+      <c r="P46" s="95"/>
+    </row>
+    <row r="47" spans="1:17" ht="52.2">
+      <c r="A47" s="82">
+        <v>79</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="G47" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="K47" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="L47" s="94"/>
+      <c r="N47" s="95"/>
+      <c r="P47" s="95"/>
+    </row>
+    <row r="48" spans="1:17" ht="52.2">
+      <c r="A48" s="98">
+        <v>80</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="G48" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="K48" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="L48" s="94"/>
+      <c r="N48" s="95"/>
+      <c r="P48" s="95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2490,16 +3992,16 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">
       <formula1>"正常,异常"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G5 G7:G15 G20:G32">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G20:G32 G3:G5 G7:G15">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G34:G1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G34:G41 G45:G1048576 H49:H1048576">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 B3:B1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G18"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:H2 G18"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -2853,7 +4355,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
@@ -3535,7 +5037,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="67.2" customHeight="1">
@@ -3546,11 +5048,11 @@
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="21"/>
@@ -3560,7 +5062,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="43" customFormat="1" ht="60.6" customHeight="1">
@@ -3620,7 +5122,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I21" s="46" t="s">
         <v>32</v>
@@ -3687,13 +5189,13 @@
         <v>107</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I23" s="46" t="s">
         <v>32</v>
@@ -3721,13 +5223,13 @@
         <v>108</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="46" t="s">
@@ -3759,7 +5261,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="46" t="s">
@@ -3770,7 +5272,7 @@
       <c r="M25" s="48"/>
       <c r="O25" s="48"/>
       <c r="P25" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="43" customFormat="1" ht="57.6">
@@ -3784,10 +5286,10 @@
         <v>18</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>9</v>
@@ -3825,7 +5327,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J27" s="46" t="s">
         <v>33</v>
@@ -3853,7 +5355,7 @@
         <v>113</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>9</v>
@@ -3867,7 +5369,7 @@
       <c r="M28" s="48"/>
       <c r="O28" s="48"/>
       <c r="P28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="43" customFormat="1" ht="57.6">
@@ -3884,7 +5386,7 @@
         <v>114</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>9</v>
@@ -3922,7 +5424,7 @@
         <v>117</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" s="47"/>
       <c r="L30" s="46"/>
@@ -4002,7 +5504,7 @@
         <v>123</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" s="46" t="s">
         <v>124</v>
@@ -4038,4 +5540,1617 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="36" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="32" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8" style="21" customWidth="1"/>
+    <col min="17" max="17" width="38.109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="40.77734375" style="4" customWidth="1"/>
+    <col min="19" max="510" width="8.77734375" style="4" customWidth="1"/>
+    <col min="511" max="16384" width="8.77734375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="33.450000000000003" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="54" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="65.400000000000006" customHeight="1">
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" ht="61.8" customHeight="1">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:18" ht="61.8" customHeight="1">
+      <c r="A5" s="52">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="24"/>
+      <c r="M5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" ht="61.8" customHeight="1">
+      <c r="A6" s="52">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" ht="76.8" customHeight="1">
+      <c r="A7" s="52">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="56.4" customHeight="1">
+      <c r="A8" s="53">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="57" customHeight="1">
+      <c r="A9" s="53">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="52.8" customHeight="1">
+      <c r="A10" s="53">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:18" ht="69" customHeight="1">
+      <c r="A11" s="53">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" ht="63.6" customHeight="1">
+      <c r="A12" s="53">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="57" customHeight="1">
+      <c r="A13" s="53">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="50.4" customHeight="1">
+      <c r="A14" s="53">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:18" ht="50.4" customHeight="1">
+      <c r="A15" s="53">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="41" customFormat="1" ht="61.8" customHeight="1">
+      <c r="A16" s="53">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="41" customFormat="1" ht="64.8" customHeight="1">
+      <c r="A17" s="54">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="85.8" customHeight="1">
+      <c r="A18" s="37">
+        <v>45</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="67.2" customHeight="1">
+      <c r="A19" s="37">
+        <v>46</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="43" customFormat="1" ht="60.6" customHeight="1">
+      <c r="A20" s="50">
+        <v>50</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="47"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="46"/>
+    </row>
+    <row r="21" spans="1:17" s="43" customFormat="1" ht="78.599999999999994" customHeight="1">
+      <c r="A21" s="50">
+        <v>51</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="47"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="43" customFormat="1" ht="46.2" customHeight="1">
+      <c r="A22" s="49">
+        <v>52</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="47"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="46"/>
+    </row>
+    <row r="23" spans="1:17" s="43" customFormat="1" ht="115.2">
+      <c r="A23" s="50">
+        <v>53</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="47"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" s="43" customFormat="1" ht="129.6" customHeight="1">
+      <c r="A24" s="50">
+        <v>54</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="46"/>
+    </row>
+    <row r="25" spans="1:17" s="43" customFormat="1" ht="115.2">
+      <c r="A25" s="50">
+        <v>55</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="43" customFormat="1" ht="57.6">
+      <c r="A26" s="50">
+        <v>56</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="5"/>
+      <c r="K26" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="47"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" s="43" customFormat="1" ht="150.6" customHeight="1">
+      <c r="A27" s="43">
+        <v>57</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="46"/>
+    </row>
+    <row r="28" spans="1:17" s="43" customFormat="1" ht="57.6">
+      <c r="A28" s="55">
+        <v>58</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="5"/>
+      <c r="K28" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="43" customFormat="1" ht="57.6">
+      <c r="A29" s="50">
+        <v>59</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="K29" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="47"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="46"/>
+    </row>
+    <row r="30" spans="1:17" s="43" customFormat="1" ht="134.4">
+      <c r="A30" s="50">
+        <v>60</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="47"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="46"/>
+    </row>
+    <row r="31" spans="1:17" s="43" customFormat="1" ht="57.6">
+      <c r="A31" s="50">
+        <v>61</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="46"/>
+      <c r="K31" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="47"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="46"/>
+    </row>
+    <row r="32" spans="1:17" s="43" customFormat="1" ht="57.6">
+      <c r="A32" s="50">
+        <v>62</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="46"/>
+      <c r="K32" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="47"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="46"/>
+    </row>
+    <row r="33" spans="1:17" s="43" customFormat="1" ht="57.6">
+      <c r="A33" s="50">
+        <v>63</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="5"/>
+      <c r="K33" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="47"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="46"/>
+    </row>
+    <row r="34" spans="1:17" ht="76.8">
+      <c r="A34" s="38">
+        <v>66</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="56"/>
+      <c r="N34" s="57"/>
+      <c r="P34" s="57"/>
+    </row>
+    <row r="35" spans="1:17" ht="57.6">
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="56"/>
+      <c r="N35" s="57"/>
+      <c r="P35" s="57"/>
+    </row>
+    <row r="36" spans="1:17" ht="76.8">
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="56"/>
+      <c r="N36" s="57"/>
+      <c r="P36" s="57"/>
+    </row>
+    <row r="37" spans="1:17" ht="76.8">
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="56"/>
+      <c r="N37" s="57"/>
+      <c r="P37" s="57"/>
+    </row>
+    <row r="38" spans="1:17" ht="57.6">
+      <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="56"/>
+      <c r="N38" s="57"/>
+      <c r="P38" s="57"/>
+    </row>
+    <row r="39" spans="1:17" ht="57.6">
+      <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="56"/>
+      <c r="N39" s="57"/>
+      <c r="P39" s="57"/>
+    </row>
+    <row r="40" spans="1:17" ht="134.4">
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="56"/>
+      <c r="N40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="76.8">
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="K41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L41" s="56"/>
+      <c r="N41" s="57"/>
+      <c r="P41" s="57"/>
+    </row>
+    <row r="42" spans="1:17" ht="57.6">
+      <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="56"/>
+      <c r="N42" s="57"/>
+      <c r="P42" s="57"/>
+    </row>
+    <row r="43" spans="1:17" ht="134.4">
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="56"/>
+      <c r="N43" s="57"/>
+      <c r="P43" s="57"/>
+    </row>
+    <row r="44" spans="1:17" ht="57.6">
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="56"/>
+      <c r="N44" s="57"/>
+      <c r="P44" s="57"/>
+    </row>
+    <row r="45" spans="1:17" ht="76.8">
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="56"/>
+      <c r="N45" s="57"/>
+      <c r="P45" s="57"/>
+    </row>
+    <row r="46" spans="1:17" ht="76.8">
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L46" s="56"/>
+      <c r="N46" s="57"/>
+      <c r="P46" s="57"/>
+    </row>
+    <row r="47" spans="1:17" ht="57.6">
+      <c r="B47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L47" s="56"/>
+      <c r="N47" s="57"/>
+      <c r="P47" s="57"/>
+    </row>
+    <row r="48" spans="1:17" ht="57.6">
+      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="56"/>
+      <c r="N48" s="57"/>
+      <c r="P48" s="57"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:H2 G18:H18"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 B3:B1048576">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G45:H1048576 G34:H41">
+      <formula1>"post,get,postLogin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:H5 G7:H15 G20:H32">
+      <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">
+      <formula1>"正常,异常"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\SAAS\i\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="bak" sheetId="4" r:id="rId3"/>
     <sheet name="bak2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="228">
   <si>
     <t>类型</t>
   </si>
@@ -1437,6 +1437,10 @@
   </si>
   <si>
     <t>{"$.code":200}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"str(Data_PO.autoPhone())","idCardNo":"str(Data_PO.autoIdcard())"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2050,74 +2054,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2397,36 +2333,36 @@
   </sheetPr>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="75" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="92" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="99" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="89" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="98" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="75" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="92" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="99" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="89" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="89" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="89" customWidth="1"/>
-    <col min="9" max="9" width="34.5546875" style="86" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" style="75" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="86" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="80" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="86" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="89" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="86" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="75" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="86" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="80" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="86" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="77" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="75" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="75" customWidth="1"/>
     <col min="16" max="16" width="8" style="77" customWidth="1"/>
-    <col min="17" max="17" width="38.109375" style="86" customWidth="1"/>
-    <col min="18" max="18" width="40.77734375" style="75" customWidth="1"/>
-    <col min="19" max="510" width="8.77734375" style="75" customWidth="1"/>
-    <col min="511" max="16384" width="8.77734375" style="75"/>
+    <col min="17" max="17" width="38.1640625" style="86" customWidth="1"/>
+    <col min="18" max="18" width="40.83203125" style="75" customWidth="1"/>
+    <col min="19" max="510" width="8.83203125" style="75" customWidth="1"/>
+    <col min="511" max="16384" width="8.83203125" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.450000000000003" customHeight="1">
+    <row r="1" spans="1:18" ht="33.5" customHeight="1">
       <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
@@ -2542,7 +2478,7 @@
       <c r="P3" s="64"/>
       <c r="Q3" s="81"/>
     </row>
-    <row r="4" spans="1:18" ht="42.6" customHeight="1">
+    <row r="4" spans="1:18" ht="42.5" customHeight="1">
       <c r="A4" s="82">
         <v>3</v>
       </c>
@@ -2580,7 +2516,7 @@
       <c r="O4" s="63"/>
       <c r="P4" s="65"/>
     </row>
-    <row r="5" spans="1:18" ht="43.8" customHeight="1">
+    <row r="5" spans="1:18" ht="43.75" customHeight="1">
       <c r="A5" s="82">
         <v>10</v>
       </c>
@@ -2618,7 +2554,7 @@
       <c r="P5" s="65"/>
       <c r="Q5" s="81"/>
     </row>
-    <row r="6" spans="1:18" ht="40.799999999999997" customHeight="1">
+    <row r="6" spans="1:18" ht="40.75" customHeight="1">
       <c r="A6" s="82">
         <v>11</v>
       </c>
@@ -2654,7 +2590,7 @@
       <c r="P6" s="65"/>
       <c r="Q6" s="81"/>
     </row>
-    <row r="7" spans="1:18" ht="40.799999999999997" customHeight="1">
+    <row r="7" spans="1:18" ht="40.75" customHeight="1">
       <c r="A7" s="82">
         <v>20</v>
       </c>
@@ -2729,7 +2665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="33.6" customHeight="1">
+    <row r="9" spans="1:18" ht="33.5" customHeight="1">
       <c r="A9" s="90">
         <v>22</v>
       </c>
@@ -2768,7 +2704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.4" customHeight="1">
+    <row r="10" spans="1:18" ht="32.5" customHeight="1">
       <c r="A10" s="90">
         <v>30</v>
       </c>
@@ -2801,7 +2737,7 @@
       <c r="M10" s="61"/>
       <c r="N10" s="80"/>
     </row>
-    <row r="11" spans="1:18" ht="38.4" customHeight="1">
+    <row r="11" spans="1:18" ht="38.5" customHeight="1">
       <c r="A11" s="90">
         <v>31</v>
       </c>
@@ -2834,7 +2770,7 @@
       <c r="M11" s="61"/>
       <c r="N11" s="80"/>
     </row>
-    <row r="12" spans="1:18" ht="31.8" customHeight="1">
+    <row r="12" spans="1:18" ht="31.75" customHeight="1">
       <c r="A12" s="90">
         <v>32</v>
       </c>
@@ -2912,7 +2848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="85.8" customHeight="1">
+    <row r="14" spans="1:18" ht="85.75" customHeight="1">
       <c r="A14" s="90">
         <v>34</v>
       </c>
@@ -2944,7 +2880,7 @@
       <c r="M14" s="75"/>
       <c r="N14" s="80"/>
     </row>
-    <row r="15" spans="1:18" ht="50.4" customHeight="1">
+    <row r="15" spans="1:18" ht="50.5" customHeight="1">
       <c r="A15" s="90">
         <v>35</v>
       </c>
@@ -2983,7 +2919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="83" customFormat="1" ht="61.8" customHeight="1">
+    <row r="16" spans="1:18" s="83" customFormat="1" ht="61.75" customHeight="1">
       <c r="A16" s="90">
         <v>40</v>
       </c>
@@ -3017,7 +2953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="83" customFormat="1" ht="64.8" customHeight="1">
+    <row r="17" spans="1:18" s="83" customFormat="1" ht="64.75" customHeight="1">
       <c r="A17" s="82">
         <v>41</v>
       </c>
@@ -3048,7 +2984,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="46.2" customHeight="1">
+    <row r="18" spans="1:18" ht="46.25" customHeight="1">
       <c r="A18" s="76">
         <v>45</v>
       </c>
@@ -3068,10 +3004,13 @@
       <c r="O18" s="80"/>
       <c r="P18" s="80"/>
       <c r="Q18" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="R18" s="81" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="46.2" customHeight="1">
+    <row r="19" spans="1:18" ht="46.25" customHeight="1">
       <c r="A19" s="76">
         <v>46</v>
       </c>
@@ -3096,7 +3035,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="60.6" customHeight="1">
+    <row r="20" spans="1:18" ht="60.5" customHeight="1">
       <c r="A20" s="91">
         <v>50</v>
       </c>
@@ -3129,7 +3068,7 @@
       <c r="N20" s="95"/>
       <c r="P20" s="95"/>
     </row>
-    <row r="21" spans="1:17" ht="78.599999999999994" customHeight="1">
+    <row r="21" spans="1:18" ht="78.5" customHeight="1">
       <c r="A21" s="91">
         <v>51</v>
       </c>
@@ -3168,7 +3107,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="46.2" customHeight="1">
+    <row r="22" spans="1:18" ht="46.25" customHeight="1">
       <c r="A22" s="96">
         <v>52</v>
       </c>
@@ -3204,7 +3143,7 @@
       <c r="N22" s="95"/>
       <c r="P22" s="95"/>
     </row>
-    <row r="23" spans="1:17" ht="60.6" customHeight="1">
+    <row r="23" spans="1:18" ht="60.5" customHeight="1">
       <c r="A23" s="91">
         <v>53</v>
       </c>
@@ -3238,7 +3177,7 @@
       <c r="P23" s="95"/>
       <c r="Q23" s="81"/>
     </row>
-    <row r="24" spans="1:17" ht="58.8" customHeight="1">
+    <row r="24" spans="1:18" ht="58.75" customHeight="1">
       <c r="A24" s="91">
         <v>54</v>
       </c>
@@ -3269,7 +3208,7 @@
       <c r="N24" s="95"/>
       <c r="P24" s="95"/>
     </row>
-    <row r="25" spans="1:17" ht="59.4" customHeight="1">
+    <row r="25" spans="1:18" ht="59.5" customHeight="1">
       <c r="A25" s="91">
         <v>55</v>
       </c>
@@ -3303,7 +3242,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="52.2">
+    <row r="26" spans="1:18" ht="36">
       <c r="A26" s="91">
         <v>56</v>
       </c>
@@ -3332,7 +3271,7 @@
       <c r="N26" s="95"/>
       <c r="P26" s="95"/>
     </row>
-    <row r="27" spans="1:17" ht="150.6" customHeight="1">
+    <row r="27" spans="1:18" ht="150.5" customHeight="1">
       <c r="A27" s="75">
         <v>57</v>
       </c>
@@ -3365,7 +3304,7 @@
       <c r="N27" s="95"/>
       <c r="P27" s="95"/>
     </row>
-    <row r="28" spans="1:17" ht="52.2">
+    <row r="28" spans="1:18" ht="54">
       <c r="A28" s="97">
         <v>58</v>
       </c>
@@ -3400,7 +3339,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="52.2">
+    <row r="29" spans="1:18" ht="36">
       <c r="A29" s="91">
         <v>59</v>
       </c>
@@ -3429,7 +3368,7 @@
       <c r="N29" s="95"/>
       <c r="P29" s="95"/>
     </row>
-    <row r="30" spans="1:17" ht="99.6" customHeight="1">
+    <row r="30" spans="1:18" ht="99.5" customHeight="1">
       <c r="A30" s="91">
         <v>60</v>
       </c>
@@ -3462,7 +3401,7 @@
       <c r="N30" s="95"/>
       <c r="P30" s="95"/>
     </row>
-    <row r="31" spans="1:17" ht="52.2">
+    <row r="31" spans="1:18" ht="36">
       <c r="A31" s="91">
         <v>61</v>
       </c>
@@ -3489,7 +3428,7 @@
       <c r="N31" s="95"/>
       <c r="P31" s="95"/>
     </row>
-    <row r="32" spans="1:17" ht="52.2">
+    <row r="32" spans="1:18" ht="36">
       <c r="A32" s="91">
         <v>62</v>
       </c>
@@ -3516,7 +3455,7 @@
       <c r="N32" s="95"/>
       <c r="P32" s="95"/>
     </row>
-    <row r="33" spans="1:17" ht="52.2">
+    <row r="33" spans="1:17" ht="54">
       <c r="A33" s="91">
         <v>63</v>
       </c>
@@ -3545,7 +3484,7 @@
       <c r="N33" s="95"/>
       <c r="P33" s="95"/>
     </row>
-    <row r="34" spans="1:17" ht="69.599999999999994">
+    <row r="34" spans="1:17" ht="54">
       <c r="A34" s="82">
         <v>66</v>
       </c>
@@ -3574,7 +3513,7 @@
       <c r="N34" s="95"/>
       <c r="P34" s="95"/>
     </row>
-    <row r="35" spans="1:17" ht="52.2">
+    <row r="35" spans="1:17" ht="36">
       <c r="A35" s="82">
         <v>67</v>
       </c>
@@ -3601,7 +3540,7 @@
       <c r="N35" s="95"/>
       <c r="P35" s="95"/>
     </row>
-    <row r="36" spans="1:17" ht="69.599999999999994">
+    <row r="36" spans="1:17" ht="72">
       <c r="A36" s="82">
         <v>68</v>
       </c>
@@ -3630,7 +3569,7 @@
       <c r="N36" s="95"/>
       <c r="P36" s="95"/>
     </row>
-    <row r="37" spans="1:17" ht="52.2">
+    <row r="37" spans="1:17" ht="54">
       <c r="A37" s="82">
         <v>69</v>
       </c>
@@ -3659,7 +3598,7 @@
       <c r="N37" s="95"/>
       <c r="P37" s="95"/>
     </row>
-    <row r="38" spans="1:17" ht="52.2">
+    <row r="38" spans="1:17" ht="54">
       <c r="A38" s="82">
         <v>70</v>
       </c>
@@ -3688,7 +3627,7 @@
       <c r="N38" s="95"/>
       <c r="P38" s="95"/>
     </row>
-    <row r="39" spans="1:17" ht="52.2">
+    <row r="39" spans="1:17" ht="54">
       <c r="A39" s="82">
         <v>71</v>
       </c>
@@ -3717,7 +3656,7 @@
       <c r="N39" s="95"/>
       <c r="P39" s="95"/>
     </row>
-    <row r="40" spans="1:17" ht="128.4" customHeight="1">
+    <row r="40" spans="1:17" ht="128.5" customHeight="1">
       <c r="A40" s="98">
         <v>72</v>
       </c>
@@ -3750,7 +3689,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="52.2">
+    <row r="41" spans="1:17" ht="54">
       <c r="A41" s="82">
         <v>73</v>
       </c>
@@ -3780,7 +3719,7 @@
       <c r="N41" s="95"/>
       <c r="P41" s="95"/>
     </row>
-    <row r="42" spans="1:17" ht="52.2">
+    <row r="42" spans="1:17" ht="54">
       <c r="A42" s="98">
         <v>74</v>
       </c>
@@ -3810,7 +3749,7 @@
       <c r="N42" s="95"/>
       <c r="P42" s="95"/>
     </row>
-    <row r="43" spans="1:17" ht="104.4">
+    <row r="43" spans="1:17" ht="108">
       <c r="A43" s="98">
         <v>75</v>
       </c>
@@ -3840,7 +3779,7 @@
       <c r="N43" s="95"/>
       <c r="P43" s="95"/>
     </row>
-    <row r="44" spans="1:17" ht="52.2">
+    <row r="44" spans="1:17" ht="54">
       <c r="A44" s="98">
         <v>76</v>
       </c>
@@ -3870,7 +3809,7 @@
       <c r="N44" s="95"/>
       <c r="P44" s="95"/>
     </row>
-    <row r="45" spans="1:17" ht="52.2">
+    <row r="45" spans="1:17" ht="54">
       <c r="A45" s="82">
         <v>77</v>
       </c>
@@ -3899,7 +3838,7 @@
       <c r="N45" s="95"/>
       <c r="P45" s="95"/>
     </row>
-    <row r="46" spans="1:17" ht="52.2">
+    <row r="46" spans="1:17" ht="54">
       <c r="A46" s="82">
         <v>78</v>
       </c>
@@ -3928,7 +3867,7 @@
       <c r="N46" s="95"/>
       <c r="P46" s="95"/>
     </row>
-    <row r="47" spans="1:17" ht="52.2">
+    <row r="47" spans="1:17" ht="54">
       <c r="A47" s="82">
         <v>79</v>
       </c>
@@ -3957,7 +3896,7 @@
       <c r="N47" s="95"/>
       <c r="P47" s="95"/>
     </row>
-    <row r="48" spans="1:17" ht="52.2">
+    <row r="48" spans="1:17" ht="54">
       <c r="A48" s="98">
         <v>80</v>
       </c>
@@ -4018,29 +3957,29 @@
       <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="7.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="54.77734375" style="2" customWidth="1"/>
-    <col min="17" max="513" width="8.77734375" style="2" customWidth="1"/>
-    <col min="514" max="16384" width="8.77734375" style="2"/>
+    <col min="16" max="16" width="54.83203125" style="2" customWidth="1"/>
+    <col min="17" max="513" width="8.83203125" style="2" customWidth="1"/>
+    <col min="514" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.450000000000003" customHeight="1">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.5" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -4090,7 +4029,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="97.05" customHeight="1">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="97" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -4114,7 +4053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="76.05" customHeight="1">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="76" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4156,7 +4095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4194,7 +4133,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1">
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4358,30 +4297,30 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="49.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="49.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="23" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="4" customWidth="1"/>
     <col min="15" max="15" width="8" style="21" customWidth="1"/>
-    <col min="16" max="16" width="38.109375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.77734375" style="4" customWidth="1"/>
-    <col min="18" max="509" width="8.77734375" style="4" customWidth="1"/>
-    <col min="510" max="16384" width="8.77734375" style="4"/>
+    <col min="16" max="16" width="38.1640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.83203125" style="4" customWidth="1"/>
+    <col min="18" max="509" width="8.83203125" style="4" customWidth="1"/>
+    <col min="510" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1">
+    <row r="1" spans="1:17" ht="33.5" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
@@ -4459,7 +4398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="102.6" customHeight="1">
+    <row r="3" spans="1:17" ht="102.5" customHeight="1">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -4499,7 +4438,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="61.8" customHeight="1">
+    <row r="4" spans="1:17" ht="61.75" customHeight="1">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -4536,7 +4475,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:17" ht="61.8" customHeight="1">
+    <row r="5" spans="1:17" ht="61.75" customHeight="1">
       <c r="A5" s="52">
         <v>10</v>
       </c>
@@ -4576,7 +4515,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="61.8" customHeight="1">
+    <row r="6" spans="1:17" ht="61.75" customHeight="1">
       <c r="A6" s="52">
         <v>11</v>
       </c>
@@ -4616,7 +4555,7 @@
       <c r="O6" s="26"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="202.05" customHeight="1">
+    <row r="7" spans="1:17" ht="202" customHeight="1">
       <c r="A7" s="52">
         <v>20</v>
       </c>
@@ -4651,7 +4590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="220.05" customHeight="1">
+    <row r="8" spans="1:17" ht="220" customHeight="1">
       <c r="A8" s="53">
         <v>21</v>
       </c>
@@ -4689,7 +4628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="268.8">
+    <row r="9" spans="1:17" ht="252">
       <c r="A9" s="53">
         <v>22</v>
       </c>
@@ -4801,7 +4740,7 @@
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="63.6" customHeight="1">
+    <row r="12" spans="1:17" ht="63.5" customHeight="1">
       <c r="A12" s="53">
         <v>32</v>
       </c>
@@ -4877,7 +4816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="50.4" customHeight="1">
+    <row r="14" spans="1:17" ht="50.5" customHeight="1">
       <c r="A14" s="53">
         <v>34</v>
       </c>
@@ -4912,7 +4851,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:17" ht="50.4" customHeight="1">
+    <row r="15" spans="1:17" ht="50.5" customHeight="1">
       <c r="A15" s="53">
         <v>35</v>
       </c>
@@ -4950,7 +4889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="41" customFormat="1" ht="61.8" customHeight="1">
+    <row r="16" spans="1:17" s="41" customFormat="1" ht="61.75" customHeight="1">
       <c r="A16" s="53">
         <v>40</v>
       </c>
@@ -4985,7 +4924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="41" customFormat="1" ht="64.8" customHeight="1">
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="64.75" customHeight="1">
       <c r="A17" s="54">
         <v>41</v>
       </c>
@@ -5017,7 +4956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="85.8" customHeight="1">
+    <row r="18" spans="1:16" ht="85.75" customHeight="1">
       <c r="A18" s="37">
         <v>45</v>
       </c>
@@ -5040,7 +4979,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="67.2" customHeight="1">
+    <row r="19" spans="1:16" ht="67.25" customHeight="1">
       <c r="A19" s="37">
         <v>46</v>
       </c>
@@ -5065,7 +5004,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="60.6" customHeight="1">
+    <row r="20" spans="1:16" s="43" customFormat="1" ht="60.5" customHeight="1">
       <c r="A20" s="50">
         <v>50</v>
       </c>
@@ -5102,7 +5041,7 @@
       <c r="O20" s="48"/>
       <c r="P20" s="46"/>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="78.599999999999994" customHeight="1">
+    <row r="21" spans="1:16" s="43" customFormat="1" ht="78.5" customHeight="1">
       <c r="A21" s="50">
         <v>51</v>
       </c>
@@ -5138,7 +5077,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="43" customFormat="1" ht="46.2" customHeight="1">
+    <row r="22" spans="1:16" s="43" customFormat="1" ht="46.25" customHeight="1">
       <c r="A22" s="49">
         <v>52</v>
       </c>
@@ -5175,7 +5114,7 @@
       <c r="O22" s="48"/>
       <c r="P22" s="46"/>
     </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="96">
+    <row r="23" spans="1:16" s="43" customFormat="1" ht="105">
       <c r="A23" s="50">
         <v>53</v>
       </c>
@@ -5209,7 +5148,7 @@
       <c r="O23" s="48"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="129.6" customHeight="1">
+    <row r="24" spans="1:16" s="43" customFormat="1" ht="129.5" customHeight="1">
       <c r="A24" s="50">
         <v>54</v>
       </c>
@@ -5241,7 +5180,7 @@
       <c r="O24" s="48"/>
       <c r="P24" s="46"/>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="115.2">
+    <row r="25" spans="1:16" s="43" customFormat="1" ht="126">
       <c r="A25" s="50">
         <v>55</v>
       </c>
@@ -5275,7 +5214,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="57.6">
+    <row r="26" spans="1:16" s="43" customFormat="1" ht="42">
       <c r="A26" s="50">
         <v>56</v>
       </c>
@@ -5304,7 +5243,7 @@
       <c r="O26" s="48"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="150.6" customHeight="1">
+    <row r="27" spans="1:16" s="43" customFormat="1" ht="150.5" customHeight="1">
       <c r="A27" s="43">
         <v>57</v>
       </c>
@@ -5338,7 +5277,7 @@
       <c r="O27" s="48"/>
       <c r="P27" s="46"/>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="57.6">
+    <row r="28" spans="1:16" s="43" customFormat="1" ht="63">
       <c r="A28" s="55">
         <v>58</v>
       </c>
@@ -5372,7 +5311,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="57.6">
+    <row r="29" spans="1:16" s="43" customFormat="1" ht="42">
       <c r="A29" s="50">
         <v>59</v>
       </c>
@@ -5401,7 +5340,7 @@
       <c r="O29" s="48"/>
       <c r="P29" s="46"/>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="115.2">
+    <row r="30" spans="1:16" s="43" customFormat="1" ht="126">
       <c r="A30" s="50">
         <v>60</v>
       </c>
@@ -5432,7 +5371,7 @@
       <c r="O30" s="48"/>
       <c r="P30" s="46"/>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="57.6">
+    <row r="31" spans="1:16" s="43" customFormat="1" ht="42">
       <c r="A31" s="50">
         <v>61</v>
       </c>
@@ -5461,7 +5400,7 @@
       <c r="O31" s="48"/>
       <c r="P31" s="46"/>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="57.6">
+    <row r="32" spans="1:16" s="43" customFormat="1" ht="42">
       <c r="A32" s="50">
         <v>62</v>
       </c>
@@ -5490,7 +5429,7 @@
       <c r="O32" s="48"/>
       <c r="P32" s="46"/>
     </row>
-    <row r="33" spans="1:16" s="43" customFormat="1" ht="57.6">
+    <row r="33" spans="1:16" s="43" customFormat="1" ht="63">
       <c r="A33" s="50">
         <v>63</v>
       </c>
@@ -5550,31 +5489,31 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="34" customWidth="1"/>
     <col min="6" max="6" width="36" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="35" customWidth="1"/>
     <col min="9" max="9" width="32" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="23" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="5" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="4" customWidth="1"/>
     <col min="16" max="16" width="8" style="21" customWidth="1"/>
-    <col min="17" max="17" width="38.109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="40.77734375" style="4" customWidth="1"/>
-    <col min="19" max="510" width="8.77734375" style="4" customWidth="1"/>
-    <col min="511" max="16384" width="8.77734375" style="4"/>
+    <col min="17" max="17" width="38.1640625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="40.83203125" style="4" customWidth="1"/>
+    <col min="19" max="510" width="8.83203125" style="4" customWidth="1"/>
+    <col min="511" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.450000000000003" customHeight="1">
+    <row r="1" spans="1:18" ht="33.5" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
@@ -5654,7 +5593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="65.400000000000006" customHeight="1">
+    <row r="3" spans="1:18" ht="65.5" customHeight="1">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -5690,7 +5629,7 @@
       <c r="P3" s="27"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="61.8" customHeight="1">
+    <row r="4" spans="1:18" ht="61.75" customHeight="1">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -5728,7 +5667,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="1:18" ht="61.8" customHeight="1">
+    <row r="5" spans="1:18" ht="61.75" customHeight="1">
       <c r="A5" s="52">
         <v>10</v>
       </c>
@@ -5766,7 +5705,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="61.8" customHeight="1">
+    <row r="6" spans="1:18" ht="61.75" customHeight="1">
       <c r="A6" s="52">
         <v>11</v>
       </c>
@@ -5802,7 +5741,7 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="76.8" customHeight="1">
+    <row r="7" spans="1:18" ht="76.75" customHeight="1">
       <c r="A7" s="52">
         <v>20</v>
       </c>
@@ -5838,7 +5777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="56.4" customHeight="1">
+    <row r="8" spans="1:18" ht="56.5" customHeight="1">
       <c r="A8" s="53">
         <v>21</v>
       </c>
@@ -5916,7 +5855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="52.8" customHeight="1">
+    <row r="10" spans="1:18" ht="52.75" customHeight="1">
       <c r="A10" s="53">
         <v>30</v>
       </c>
@@ -5982,7 +5921,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:18" ht="63.6" customHeight="1">
+    <row r="12" spans="1:18" ht="63.5" customHeight="1">
       <c r="A12" s="53">
         <v>32</v>
       </c>
@@ -6060,7 +5999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="50.4" customHeight="1">
+    <row r="14" spans="1:18" ht="50.5" customHeight="1">
       <c r="A14" s="53">
         <v>34</v>
       </c>
@@ -6096,7 +6035,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:18" ht="50.4" customHeight="1">
+    <row r="15" spans="1:18" ht="50.5" customHeight="1">
       <c r="A15" s="53">
         <v>35</v>
       </c>
@@ -6135,7 +6074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="41" customFormat="1" ht="61.8" customHeight="1">
+    <row r="16" spans="1:18" s="41" customFormat="1" ht="61.75" customHeight="1">
       <c r="A16" s="53">
         <v>40</v>
       </c>
@@ -6168,7 +6107,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="41" customFormat="1" ht="64.8" customHeight="1">
+    <row r="17" spans="1:17" s="41" customFormat="1" ht="64.75" customHeight="1">
       <c r="A17" s="54">
         <v>41</v>
       </c>
@@ -6198,7 +6137,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="85.8" customHeight="1">
+    <row r="18" spans="1:17" ht="85.75" customHeight="1">
       <c r="A18" s="37">
         <v>45</v>
       </c>
@@ -6222,7 +6161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="67.2" customHeight="1">
+    <row r="19" spans="1:17" ht="67.25" customHeight="1">
       <c r="A19" s="37">
         <v>46</v>
       </c>
@@ -6248,7 +6187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="43" customFormat="1" ht="60.6" customHeight="1">
+    <row r="20" spans="1:17" s="43" customFormat="1" ht="60.5" customHeight="1">
       <c r="A20" s="50">
         <v>50</v>
       </c>
@@ -6286,7 +6225,7 @@
       <c r="P20" s="48"/>
       <c r="Q20" s="46"/>
     </row>
-    <row r="21" spans="1:17" s="43" customFormat="1" ht="78.599999999999994" customHeight="1">
+    <row r="21" spans="1:17" s="43" customFormat="1" ht="78.5" customHeight="1">
       <c r="A21" s="50">
         <v>51</v>
       </c>
@@ -6323,7 +6262,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="43" customFormat="1" ht="46.2" customHeight="1">
+    <row r="22" spans="1:17" s="43" customFormat="1" ht="46.25" customHeight="1">
       <c r="A22" s="49">
         <v>52</v>
       </c>
@@ -6361,7 +6300,7 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="46"/>
     </row>
-    <row r="23" spans="1:17" s="43" customFormat="1" ht="115.2">
+    <row r="23" spans="1:17" s="43" customFormat="1" ht="105">
       <c r="A23" s="50">
         <v>53</v>
       </c>
@@ -6399,7 +6338,7 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" s="43" customFormat="1" ht="129.6" customHeight="1">
+    <row r="24" spans="1:17" s="43" customFormat="1" ht="129.5" customHeight="1">
       <c r="A24" s="50">
         <v>54</v>
       </c>
@@ -6435,7 +6374,7 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="46"/>
     </row>
-    <row r="25" spans="1:17" s="43" customFormat="1" ht="115.2">
+    <row r="25" spans="1:17" s="43" customFormat="1" ht="126">
       <c r="A25" s="50">
         <v>55</v>
       </c>
@@ -6470,7 +6409,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="43" customFormat="1" ht="57.6">
+    <row r="26" spans="1:17" s="43" customFormat="1" ht="63">
       <c r="A26" s="50">
         <v>56</v>
       </c>
@@ -6503,7 +6442,7 @@
       <c r="P26" s="48"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" s="43" customFormat="1" ht="150.6" customHeight="1">
+    <row r="27" spans="1:17" s="43" customFormat="1" ht="150.5" customHeight="1">
       <c r="A27" s="43">
         <v>57</v>
       </c>
@@ -6538,7 +6477,7 @@
       <c r="P27" s="48"/>
       <c r="Q27" s="46"/>
     </row>
-    <row r="28" spans="1:17" s="43" customFormat="1" ht="57.6">
+    <row r="28" spans="1:17" s="43" customFormat="1" ht="63">
       <c r="A28" s="55">
         <v>58</v>
       </c>
@@ -6573,7 +6512,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="43" customFormat="1" ht="57.6">
+    <row r="29" spans="1:17" s="43" customFormat="1" ht="63">
       <c r="A29" s="50">
         <v>59</v>
       </c>
@@ -6605,7 +6544,7 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="46"/>
     </row>
-    <row r="30" spans="1:17" s="43" customFormat="1" ht="134.4">
+    <row r="30" spans="1:17" s="43" customFormat="1" ht="147">
       <c r="A30" s="50">
         <v>60</v>
       </c>
@@ -6637,7 +6576,7 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="46"/>
     </row>
-    <row r="31" spans="1:17" s="43" customFormat="1" ht="57.6">
+    <row r="31" spans="1:17" s="43" customFormat="1" ht="42">
       <c r="A31" s="50">
         <v>61</v>
       </c>
@@ -6667,7 +6606,7 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="46"/>
     </row>
-    <row r="32" spans="1:17" s="43" customFormat="1" ht="57.6">
+    <row r="32" spans="1:17" s="43" customFormat="1" ht="42">
       <c r="A32" s="50">
         <v>62</v>
       </c>
@@ -6697,7 +6636,7 @@
       <c r="P32" s="48"/>
       <c r="Q32" s="46"/>
     </row>
-    <row r="33" spans="1:17" s="43" customFormat="1" ht="57.6">
+    <row r="33" spans="1:17" s="43" customFormat="1" ht="63">
       <c r="A33" s="50">
         <v>63</v>
       </c>
@@ -6727,7 +6666,7 @@
       <c r="P33" s="48"/>
       <c r="Q33" s="46"/>
     </row>
-    <row r="34" spans="1:17" ht="76.8">
+    <row r="34" spans="1:17" ht="84">
       <c r="A34" s="38">
         <v>66</v>
       </c>
@@ -6753,7 +6692,7 @@
       <c r="N34" s="57"/>
       <c r="P34" s="57"/>
     </row>
-    <row r="35" spans="1:17" ht="57.6">
+    <row r="35" spans="1:17" ht="42">
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
@@ -6779,7 +6718,7 @@
       <c r="N35" s="57"/>
       <c r="P35" s="57"/>
     </row>
-    <row r="36" spans="1:17" ht="76.8">
+    <row r="36" spans="1:17" ht="84">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -6805,7 +6744,7 @@
       <c r="N36" s="57"/>
       <c r="P36" s="57"/>
     </row>
-    <row r="37" spans="1:17" ht="76.8">
+    <row r="37" spans="1:17" ht="63">
       <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
@@ -6831,7 +6770,7 @@
       <c r="N37" s="57"/>
       <c r="P37" s="57"/>
     </row>
-    <row r="38" spans="1:17" ht="57.6">
+    <row r="38" spans="1:17" ht="63">
       <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
@@ -6857,7 +6796,7 @@
       <c r="N38" s="57"/>
       <c r="P38" s="57"/>
     </row>
-    <row r="39" spans="1:17" ht="57.6">
+    <row r="39" spans="1:17" ht="63">
       <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
@@ -6883,7 +6822,7 @@
       <c r="N39" s="57"/>
       <c r="P39" s="57"/>
     </row>
-    <row r="40" spans="1:17" ht="134.4">
+    <row r="40" spans="1:17" ht="147">
       <c r="B40" s="4" t="s">
         <v>10</v>
       </c>
@@ -6915,7 +6854,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="76.8">
+    <row r="41" spans="1:17" ht="63">
       <c r="B41" s="4" t="s">
         <v>10</v>
       </c>
@@ -6939,7 +6878,7 @@
       <c r="N41" s="57"/>
       <c r="P41" s="57"/>
     </row>
-    <row r="42" spans="1:17" ht="57.6">
+    <row r="42" spans="1:17" ht="63">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -6969,7 +6908,7 @@
       <c r="N42" s="57"/>
       <c r="P42" s="57"/>
     </row>
-    <row r="43" spans="1:17" ht="134.4">
+    <row r="43" spans="1:17" ht="126">
       <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
@@ -6999,7 +6938,7 @@
       <c r="N43" s="57"/>
       <c r="P43" s="57"/>
     </row>
-    <row r="44" spans="1:17" ht="57.6">
+    <row r="44" spans="1:17" ht="63">
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
@@ -7029,7 +6968,7 @@
       <c r="N44" s="57"/>
       <c r="P44" s="57"/>
     </row>
-    <row r="45" spans="1:17" ht="76.8">
+    <row r="45" spans="1:17" ht="63">
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
@@ -7055,7 +6994,7 @@
       <c r="N45" s="57"/>
       <c r="P45" s="57"/>
     </row>
-    <row r="46" spans="1:17" ht="76.8">
+    <row r="46" spans="1:17" ht="63">
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
@@ -7081,7 +7020,7 @@
       <c r="N46" s="57"/>
       <c r="P46" s="57"/>
     </row>
-    <row r="47" spans="1:17" ht="57.6">
+    <row r="47" spans="1:17" ht="63">
       <c r="B47" s="4" t="s">
         <v>10</v>
       </c>
@@ -7107,7 +7046,7 @@
       <c r="N47" s="57"/>
       <c r="P47" s="57"/>
     </row>
-    <row r="48" spans="1:17" ht="57.6">
+    <row r="48" spans="1:17" ht="42">
       <c r="B48" s="4" t="s">
         <v>10</v>
       </c>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/SAAS/i/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\SAAS\i\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="244">
   <si>
     <t>类型</t>
   </si>
@@ -1288,6 +1288,142 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/saasuser/tPatientInfo/querySinglePatient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCardNo={{ldt_idCardNo}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/findPatientContrast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=刘老头&amp;pageNum=1&amp;pageSize=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/findPatientContrast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=&amp;pageNum=1&amp;pageSize=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/updateManageGrade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryFollowDetailInfo</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId={{itemId}}&amp;pId={{glempild}}&amp;pageSize=50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryNotQualified</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;entrance=0&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryOneWeekFollow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId=79&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/ecfFollowInfo/queryOverdueFollow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId=79&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;orgCode=299&amp;pageSize=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/pendingQueryPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/acceptedQueryPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/recordQueryPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/getReferralRecordById</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id={{zz_id}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hbpStatistics/enrolledPatient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hbpStatistics/findFollowUpSituation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/pendingQueryPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"0"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>followUpStatus=1&amp;pId={{glempild}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "id": {{zz_id}},
+ "patientInfo": "就这吧",
+"recommendedTreatment": "啥事没有"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"zz_id":"select max(id) from saashypertensiontest.hy_referral_record where empiId = {{glempild}}"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"str(Data_PO.autoPhone())","idCardNo":"str(Data_PO.autoIdcard())"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "currPage": 1,
  "followId": "1",
@@ -1299,123 +1435,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/saasuser/tPatientInfo/querySinglePatient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>idCardNo={{ldt_idCardNo}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/tPatientInfo/findPatientContrast</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=刘老头&amp;pageNum=1&amp;pageSize=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/tPatientInfo/findPatientContrast</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name=&amp;pageNum=1&amp;pageSize=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/ecfFollowInfo/updateManageGrade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/ecfFollowInfo/queryFollowDetailInfo</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>currPage=1&amp;itemId={{itemId}}&amp;pId={{glempild}}&amp;pageSize=50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/ecfFollowInfo/queryNotQualified</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>currPage=1&amp;entrance=0&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>currPage=1&amp;itemId=79&amp;orgIdList=299&amp;pageSize=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/ecfFollowInfo/queryOneWeekFollow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>currPage=1&amp;itemId=79&amp;pageSize=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/ecfFollowInfo/queryOverdueFollow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>currPage=1&amp;itemId=79&amp;pageSize=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>currPage=1&amp;orgCode=299&amp;pageSize=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/hyReferralRecord/pendingQueryPage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/hyReferralRecord/acceptedQueryPage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/hyReferralRecord/recordQueryPage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/hyReferralRecord/getReferralRecordById</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id={{zz_id}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/hbpStatistics/enrolledPatient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/hbpStatistics/findFollowUpSituation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/hyReferralRecord/pendingQueryPage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.code":200,"$.msg":"0"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>followUpStatus=1&amp;pId={{glempild}}</t>
+    <t>/saasuser/tPatientInfo/queryPatientList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
- "id": {{zz_id}},
- "patientInfo": "就这吧",
-"recommendedTreatment": "啥事没有"
+ "currPage": 1,
+ "itemId": {{itemId}},
+ "pageSize": 10,
+ "riskLevel": ""
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"zz_id":"select max(id) from saashypertensiontest.hy_referral_record where empiId = {{glempild}}"}</t>
+    <t>{"empiId":"$.data.list[0].empiId","itemId":"$.data.list[0].itemId"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.autoNum(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ldt_idCardNo":"select idCardNo from saashypertensiontest.t_patient_info where name = '李大头'","glempild":"{{empiId}}"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1428,20 +1469,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"$.code":200,"$.msg":"success"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.code":200}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"$.code":200}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"str(Data_PO.autoPhone())","idCardNo":"str(Data_PO.autoIdcard())"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>putWWW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/hyReferralRecord/pendingAffirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id={{zz_id}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id={{zz_id}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生端-新增患者-全参</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "idCardNo": "{{idCardNo}}",
+ "name": "大黑",
+ "phone": "{{phone}}"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "age": "18",
+ "avatar": "",
+ "belongDocId": 0,
+ "birthday": "",
+ "completeTag": "不完整",
+ "dateAdded": "",
+ "empiId": "12233",
+ "fatFlag": "",
+ "followId": 0,
+ "followUpStatus": "",
+ "grading": "",
+ "gradingName": "",
+ "historyState": "0",
+ "id": 0,
+ "idCardNo": "{{idCardNo}}",
+ "itemId": "",
+ "name": "小黑",
+ "phone": "{{phone}}",
+ "referralDocId": 0,
+ "riskLevelName": "中危",
+ "sex": "男",
+ "sexName": "",
+ "state": 0,
+ "status": "2"
+}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生端-删除对照组患者-全参</t>
+  </si>
+  <si>
+    <t>/saasuser/tPatientInfo/depPatientContrast</t>
+  </si>
+  <si>
+    <t>{
+"empiId":"{{dzempiId}}"
+}</t>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success","$.data":"true"}</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1649,8 +1745,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.89992980742820516"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1723,6 +1826,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39991454817346722"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1751,7 +1866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2036,17 +2151,26 @@
     <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2073,7 +2197,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2331,38 +2455,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="98" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="75" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="92" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="99" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="75" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="97" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="89" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="89" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="89" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="86" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="86" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="80" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="86" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="89" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" style="86" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="75" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="86" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="80" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="86" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="77" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="75" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="75" customWidth="1"/>
     <col min="16" max="16" width="8" style="77" customWidth="1"/>
-    <col min="17" max="17" width="38.1640625" style="86" customWidth="1"/>
-    <col min="18" max="18" width="40.83203125" style="75" customWidth="1"/>
-    <col min="19" max="510" width="8.83203125" style="75" customWidth="1"/>
-    <col min="511" max="16384" width="8.83203125" style="75"/>
+    <col min="17" max="17" width="38.109375" style="86" customWidth="1"/>
+    <col min="18" max="18" width="40.77734375" style="75" customWidth="1"/>
+    <col min="19" max="510" width="8.77734375" style="75" customWidth="1"/>
+    <col min="511" max="16384" width="8.77734375" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.5" customHeight="1">
+    <row r="1" spans="1:18" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
@@ -2439,7 +2563,7 @@
       <c r="O2" s="80"/>
       <c r="P2" s="80"/>
       <c r="Q2" s="81" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1">
@@ -2478,7 +2602,7 @@
       <c r="P3" s="64"/>
       <c r="Q3" s="81"/>
     </row>
-    <row r="4" spans="1:18" ht="42.5" customHeight="1">
+    <row r="4" spans="1:18" ht="42.45" customHeight="1">
       <c r="A4" s="82">
         <v>3</v>
       </c>
@@ -2516,7 +2640,7 @@
       <c r="O4" s="63"/>
       <c r="P4" s="65"/>
     </row>
-    <row r="5" spans="1:18" ht="43.75" customHeight="1">
+    <row r="5" spans="1:18" ht="43.8" customHeight="1">
       <c r="A5" s="82">
         <v>10</v>
       </c>
@@ -2554,7 +2678,7 @@
       <c r="P5" s="65"/>
       <c r="Q5" s="81"/>
     </row>
-    <row r="6" spans="1:18" ht="40.75" customHeight="1">
+    <row r="6" spans="1:18" ht="40.799999999999997" customHeight="1">
       <c r="A6" s="82">
         <v>11</v>
       </c>
@@ -2590,7 +2714,7 @@
       <c r="P6" s="65"/>
       <c r="Q6" s="81"/>
     </row>
-    <row r="7" spans="1:18" ht="40.75" customHeight="1">
+    <row r="7" spans="1:18" ht="40.799999999999997" customHeight="1">
       <c r="A7" s="82">
         <v>20</v>
       </c>
@@ -2665,7 +2789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="33.5" customHeight="1">
+    <row r="9" spans="1:18" ht="33.450000000000003" customHeight="1">
       <c r="A9" s="90">
         <v>22</v>
       </c>
@@ -2704,7 +2828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="32.5" customHeight="1">
+    <row r="10" spans="1:18" ht="32.549999999999997" customHeight="1">
       <c r="A10" s="90">
         <v>30</v>
       </c>
@@ -2737,7 +2861,7 @@
       <c r="M10" s="61"/>
       <c r="N10" s="80"/>
     </row>
-    <row r="11" spans="1:18" ht="38.5" customHeight="1">
+    <row r="11" spans="1:18" ht="38.549999999999997" customHeight="1">
       <c r="A11" s="90">
         <v>31</v>
       </c>
@@ -2751,7 +2875,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G11" s="85" t="s">
         <v>14</v>
@@ -2770,7 +2894,7 @@
       <c r="M11" s="61"/>
       <c r="N11" s="80"/>
     </row>
-    <row r="12" spans="1:18" ht="31.75" customHeight="1">
+    <row r="12" spans="1:18" ht="31.8" customHeight="1">
       <c r="A12" s="90">
         <v>32</v>
       </c>
@@ -2848,7 +2972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="85.75" customHeight="1">
+    <row r="14" spans="1:18" ht="85.8" customHeight="1">
       <c r="A14" s="90">
         <v>34</v>
       </c>
@@ -2862,7 +2986,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" s="85" t="s">
         <v>9</v>
@@ -2880,7 +3004,7 @@
       <c r="M14" s="75"/>
       <c r="N14" s="80"/>
     </row>
-    <row r="15" spans="1:18" ht="50.5" customHeight="1">
+    <row r="15" spans="1:18" ht="50.55" customHeight="1">
       <c r="A15" s="90">
         <v>35</v>
       </c>
@@ -2919,7 +3043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="83" customFormat="1" ht="61.75" customHeight="1">
+    <row r="16" spans="1:18" s="83" customFormat="1" ht="61.8" customHeight="1">
       <c r="A16" s="90">
         <v>40</v>
       </c>
@@ -2950,10 +3074,10 @@
         <v>99</v>
       </c>
       <c r="Q16" s="83" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="83" customFormat="1" ht="64.75" customHeight="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="83" customFormat="1" ht="64.8" customHeight="1">
       <c r="A17" s="82">
         <v>41</v>
       </c>
@@ -2984,7 +3108,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="46.25" customHeight="1">
+    <row r="18" spans="1:18" ht="46.2" customHeight="1">
       <c r="A18" s="76">
         <v>45</v>
       </c>
@@ -3004,13 +3128,13 @@
       <c r="O18" s="80"/>
       <c r="P18" s="80"/>
       <c r="Q18" s="81" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R18" s="81" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="46.25" customHeight="1">
+    <row r="19" spans="1:18" ht="46.2" customHeight="1">
       <c r="A19" s="76">
         <v>46</v>
       </c>
@@ -3035,7 +3159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="60.5" customHeight="1">
+    <row r="20" spans="1:18" ht="60.45" customHeight="1">
       <c r="A20" s="91">
         <v>50</v>
       </c>
@@ -3068,7 +3192,7 @@
       <c r="N20" s="95"/>
       <c r="P20" s="95"/>
     </row>
-    <row r="21" spans="1:18" ht="78.5" customHeight="1">
+    <row r="21" spans="1:18" ht="78.45" customHeight="1">
       <c r="A21" s="91">
         <v>51</v>
       </c>
@@ -3107,8 +3231,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="46.25" customHeight="1">
-      <c r="A22" s="96">
+    <row r="22" spans="1:18" ht="46.2" customHeight="1">
+      <c r="A22" s="98">
         <v>52</v>
       </c>
       <c r="B22" s="75" t="s">
@@ -3121,7 +3245,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="93" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="F22" s="86" t="s">
         <v>106</v>
@@ -3131,7 +3255,7 @@
       </c>
       <c r="H22" s="81"/>
       <c r="I22" s="86" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="J22" s="86" t="s">
         <v>32</v>
@@ -3143,8 +3267,8 @@
       <c r="N22" s="95"/>
       <c r="P22" s="95"/>
     </row>
-    <row r="23" spans="1:18" ht="60.5" customHeight="1">
-      <c r="A23" s="91">
+    <row r="23" spans="1:18" ht="60.45" customHeight="1">
+      <c r="A23" s="98">
         <v>53</v>
       </c>
       <c r="C23" s="75" t="s">
@@ -3164,7 +3288,7 @@
       </c>
       <c r="H23" s="81"/>
       <c r="I23" s="86" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="J23" s="86" t="s">
         <v>32</v>
@@ -3177,8 +3301,8 @@
       <c r="P23" s="95"/>
       <c r="Q23" s="81"/>
     </row>
-    <row r="24" spans="1:18" ht="58.75" customHeight="1">
-      <c r="A24" s="91">
+    <row r="24" spans="1:18" ht="58.8" customHeight="1">
+      <c r="A24" s="98">
         <v>54</v>
       </c>
       <c r="C24" s="75" t="s">
@@ -3191,16 +3315,18 @@
         <v>108</v>
       </c>
       <c r="F24" s="86" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="G24" s="85" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="81"/>
       <c r="I24" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="J24" s="86"/>
+        <v>226</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>32</v>
+      </c>
       <c r="K24" s="86" t="s">
         <v>33</v>
       </c>
@@ -3208,8 +3334,8 @@
       <c r="N24" s="95"/>
       <c r="P24" s="95"/>
     </row>
-    <row r="25" spans="1:18" ht="59.5" customHeight="1">
-      <c r="A25" s="91">
+    <row r="25" spans="1:18" ht="59.55" customHeight="1">
+      <c r="A25" s="98">
         <v>55</v>
       </c>
       <c r="C25" s="75" t="s">
@@ -3229,9 +3355,11 @@
       </c>
       <c r="H25" s="81"/>
       <c r="I25" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="J25" s="86"/>
+        <v>228</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>32</v>
+      </c>
       <c r="K25" s="86" t="s">
         <v>33</v>
       </c>
@@ -3239,11 +3367,11 @@
       <c r="N25" s="95"/>
       <c r="P25" s="95"/>
       <c r="Q25" s="86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="36">
-      <c r="A26" s="91">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="52.2">
+      <c r="A26" s="98">
         <v>56</v>
       </c>
       <c r="C26" s="75" t="s">
@@ -3256,13 +3384,16 @@
         <v>142</v>
       </c>
       <c r="F26" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="85" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>32</v>
       </c>
       <c r="K26" s="86" t="s">
         <v>33</v>
@@ -3271,8 +3402,8 @@
       <c r="N26" s="95"/>
       <c r="P26" s="95"/>
     </row>
-    <row r="27" spans="1:18" ht="150.5" customHeight="1">
-      <c r="A27" s="75">
+    <row r="27" spans="1:18" ht="169.8" customHeight="1">
+      <c r="A27" s="99">
         <v>57</v>
       </c>
       <c r="B27" s="75" t="s">
@@ -3297,6 +3428,9 @@
       <c r="I27" s="86" t="s">
         <v>136</v>
       </c>
+      <c r="J27" s="86" t="s">
+        <v>32</v>
+      </c>
       <c r="K27" s="86" t="s">
         <v>33</v>
       </c>
@@ -3304,8 +3438,8 @@
       <c r="N27" s="95"/>
       <c r="P27" s="95"/>
     </row>
-    <row r="28" spans="1:18" ht="54">
-      <c r="A28" s="97">
+    <row r="28" spans="1:18" ht="52.2">
+      <c r="A28" s="99">
         <v>58</v>
       </c>
       <c r="B28" s="75" t="s">
@@ -3321,13 +3455,13 @@
         <v>113</v>
       </c>
       <c r="F28" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" s="85" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K28" s="86" t="s">
         <v>33</v>
@@ -3339,7 +3473,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="36">
+    <row r="29" spans="1:18" ht="52.2">
       <c r="A29" s="91">
         <v>59</v>
       </c>
@@ -3353,13 +3487,13 @@
         <v>114</v>
       </c>
       <c r="F29" s="86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G29" s="85" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K29" s="86" t="s">
         <v>33</v>
@@ -3368,12 +3502,9 @@
       <c r="N29" s="95"/>
       <c r="P29" s="95"/>
     </row>
-    <row r="30" spans="1:18" ht="99.5" customHeight="1">
-      <c r="A30" s="91">
+    <row r="30" spans="1:18" ht="99.45" customHeight="1">
+      <c r="A30" s="99">
         <v>60</v>
-      </c>
-      <c r="B30" s="75" t="s">
-        <v>10</v>
       </c>
       <c r="C30" s="75" t="s">
         <v>7</v>
@@ -3401,8 +3532,8 @@
       <c r="N30" s="95"/>
       <c r="P30" s="95"/>
     </row>
-    <row r="31" spans="1:18" ht="36">
-      <c r="A31" s="91">
+    <row r="31" spans="1:18" ht="99.6" customHeight="1">
+      <c r="A31" s="98">
         <v>61</v>
       </c>
       <c r="C31" s="75" t="s">
@@ -3411,24 +3542,28 @@
       <c r="D31" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="81"/>
-      <c r="K31" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="94"/>
-      <c r="N31" s="95"/>
-      <c r="P31" s="95"/>
-    </row>
-    <row r="32" spans="1:18" ht="36">
+      <c r="E31" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="L31" s="101"/>
+      <c r="N31" s="102"/>
+      <c r="P31" s="102"/>
+    </row>
+    <row r="32" spans="1:18" ht="52.2">
       <c r="A32" s="91">
         <v>62</v>
       </c>
@@ -3439,10 +3574,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F32" s="86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G32" s="85" t="s">
         <v>9</v>
@@ -3455,7 +3590,7 @@
       <c r="N32" s="95"/>
       <c r="P32" s="95"/>
     </row>
-    <row r="33" spans="1:17" ht="54">
+    <row r="33" spans="1:17" ht="52.2">
       <c r="A33" s="91">
         <v>63</v>
       </c>
@@ -3463,20 +3598,18 @@
         <v>7</v>
       </c>
       <c r="D33" s="92" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="E33" s="93" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F33" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="H33" s="81" t="s">
-        <v>220</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G33" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="81"/>
       <c r="K33" s="86" t="s">
         <v>33</v>
       </c>
@@ -3484,9 +3617,9 @@
       <c r="N33" s="95"/>
       <c r="P33" s="95"/>
     </row>
-    <row r="34" spans="1:17" ht="54">
-      <c r="A34" s="82">
-        <v>66</v>
+    <row r="34" spans="1:17" ht="52.2">
+      <c r="A34" s="91">
+        <v>64</v>
       </c>
       <c r="C34" s="75" t="s">
         <v>7</v>
@@ -3495,16 +3628,16 @@
         <v>122</v>
       </c>
       <c r="E34" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="89" t="s">
-        <v>9</v>
+        <v>123</v>
+      </c>
+      <c r="F34" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="86" t="s">
+        <v>124</v>
       </c>
       <c r="H34" s="81" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K34" s="86" t="s">
         <v>33</v>
@@ -3513,9 +3646,9 @@
       <c r="N34" s="95"/>
       <c r="P34" s="95"/>
     </row>
-    <row r="35" spans="1:17" ht="36">
-      <c r="A35" s="82">
-        <v>67</v>
+    <row r="35" spans="1:17" ht="69.599999999999994">
+      <c r="A35" s="91">
+        <v>65</v>
       </c>
       <c r="C35" s="75" t="s">
         <v>7</v>
@@ -3524,15 +3657,17 @@
         <v>122</v>
       </c>
       <c r="E35" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35" s="89" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G35" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="81" t="s">
+        <v>201</v>
+      </c>
       <c r="K35" s="86" t="s">
         <v>33</v>
       </c>
@@ -3540,9 +3675,9 @@
       <c r="N35" s="95"/>
       <c r="P35" s="95"/>
     </row>
-    <row r="36" spans="1:17" ht="72">
-      <c r="A36" s="82">
-        <v>68</v>
+    <row r="36" spans="1:17" ht="52.2">
+      <c r="A36" s="91">
+        <v>66</v>
       </c>
       <c r="C36" s="75" t="s">
         <v>7</v>
@@ -3551,17 +3686,15 @@
         <v>122</v>
       </c>
       <c r="E36" s="93" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="G36" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="81" t="s">
-        <v>204</v>
-      </c>
+      <c r="H36" s="81"/>
       <c r="K36" s="86" t="s">
         <v>33</v>
       </c>
@@ -3569,9 +3702,9 @@
       <c r="N36" s="95"/>
       <c r="P36" s="95"/>
     </row>
-    <row r="37" spans="1:17" ht="54">
-      <c r="A37" s="82">
-        <v>69</v>
+    <row r="37" spans="1:17" ht="69.599999999999994">
+      <c r="A37" s="91">
+        <v>67</v>
       </c>
       <c r="C37" s="75" t="s">
         <v>7</v>
@@ -3580,16 +3713,16 @@
         <v>122</v>
       </c>
       <c r="E37" s="93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F37" s="89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G37" s="89" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K37" s="86" t="s">
         <v>33</v>
@@ -3598,9 +3731,9 @@
       <c r="N37" s="95"/>
       <c r="P37" s="95"/>
     </row>
-    <row r="38" spans="1:17" ht="54">
-      <c r="A38" s="82">
-        <v>70</v>
+    <row r="38" spans="1:17" ht="52.2">
+      <c r="A38" s="91">
+        <v>68</v>
       </c>
       <c r="C38" s="75" t="s">
         <v>7</v>
@@ -3609,16 +3742,16 @@
         <v>122</v>
       </c>
       <c r="E38" s="93" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F38" s="89" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G38" s="89" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="81" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K38" s="86" t="s">
         <v>33</v>
@@ -3627,9 +3760,9 @@
       <c r="N38" s="95"/>
       <c r="P38" s="95"/>
     </row>
-    <row r="39" spans="1:17" ht="54">
-      <c r="A39" s="82">
-        <v>71</v>
+    <row r="39" spans="1:17" ht="52.2">
+      <c r="A39" s="91">
+        <v>69</v>
       </c>
       <c r="C39" s="75" t="s">
         <v>7</v>
@@ -3638,16 +3771,16 @@
         <v>122</v>
       </c>
       <c r="E39" s="93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F39" s="89" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G39" s="89" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K39" s="86" t="s">
         <v>33</v>
@@ -3656,28 +3789,27 @@
       <c r="N39" s="95"/>
       <c r="P39" s="95"/>
     </row>
-    <row r="40" spans="1:17" ht="128.5" customHeight="1">
-      <c r="A40" s="98">
-        <v>72</v>
+    <row r="40" spans="1:17" ht="52.2">
+      <c r="A40" s="91">
+        <v>70</v>
       </c>
       <c r="C40" s="75" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="92" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E40" s="93" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F40" s="89" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="G40" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="81"/>
-      <c r="I40" s="89" t="s">
-        <v>223</v>
+        <v>9</v>
+      </c>
+      <c r="H40" s="81" t="s">
+        <v>208</v>
       </c>
       <c r="K40" s="86" t="s">
         <v>33</v>
@@ -3685,13 +3817,10 @@
       <c r="L40" s="94"/>
       <c r="N40" s="95"/>
       <c r="P40" s="95"/>
-      <c r="Q40" s="86" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="54">
-      <c r="A41" s="82">
-        <v>73</v>
+    </row>
+    <row r="41" spans="1:17" ht="128.55000000000001" customHeight="1">
+      <c r="A41" s="91">
+        <v>71</v>
       </c>
       <c r="C41" s="75" t="s">
         <v>7</v>
@@ -3700,28 +3829,31 @@
         <v>159</v>
       </c>
       <c r="E41" s="93" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F41" s="89" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="G41" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="89"/>
+        <v>14</v>
+      </c>
+      <c r="H41" s="81"/>
+      <c r="I41" s="89" t="s">
+        <v>232</v>
+      </c>
       <c r="K41" s="86" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="L41" s="94"/>
       <c r="N41" s="95"/>
       <c r="P41" s="95"/>
-    </row>
-    <row r="42" spans="1:17" ht="54">
-      <c r="A42" s="98">
-        <v>74</v>
+      <c r="Q41" s="86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="52.2">
+      <c r="A42" s="91">
+        <v>72</v>
       </c>
       <c r="C42" s="75" t="s">
         <v>7</v>
@@ -3730,28 +3862,28 @@
         <v>159</v>
       </c>
       <c r="E42" s="93" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F42" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="G42" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="81"/>
-      <c r="I42" s="86" t="s">
-        <v>169</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G42" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="89"/>
       <c r="K42" s="86" t="s">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="L42" s="94"/>
       <c r="N42" s="95"/>
       <c r="P42" s="95"/>
     </row>
-    <row r="43" spans="1:17" ht="108">
-      <c r="A43" s="98">
-        <v>75</v>
+    <row r="43" spans="1:17" ht="52.2">
+      <c r="A43" s="91">
+        <v>73</v>
       </c>
       <c r="C43" s="75" t="s">
         <v>7</v>
@@ -3760,17 +3892,16 @@
         <v>159</v>
       </c>
       <c r="E43" s="93" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F43" s="89" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="G43" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="86" t="s">
-        <v>221</v>
+        <v>233</v>
+      </c>
+      <c r="H43" s="86" t="s">
+        <v>236</v>
       </c>
       <c r="K43" s="86" t="s">
         <v>33</v>
@@ -3779,9 +3910,9 @@
       <c r="N43" s="95"/>
       <c r="P43" s="95"/>
     </row>
-    <row r="44" spans="1:17" ht="54">
-      <c r="A44" s="98">
-        <v>76</v>
+    <row r="44" spans="1:17" ht="104.4">
+      <c r="A44" s="91">
+        <v>74</v>
       </c>
       <c r="C44" s="75" t="s">
         <v>7</v>
@@ -3790,17 +3921,17 @@
         <v>159</v>
       </c>
       <c r="E44" s="93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G44" s="86" t="s">
         <v>124</v>
       </c>
       <c r="H44" s="81"/>
       <c r="I44" s="86" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="K44" s="86" t="s">
         <v>33</v>
@@ -3809,9 +3940,9 @@
       <c r="N44" s="95"/>
       <c r="P44" s="95"/>
     </row>
-    <row r="45" spans="1:17" ht="54">
-      <c r="A45" s="82">
-        <v>77</v>
+    <row r="45" spans="1:17" ht="52.2">
+      <c r="A45" s="91">
+        <v>75</v>
       </c>
       <c r="C45" s="75" t="s">
         <v>7</v>
@@ -3820,27 +3951,27 @@
         <v>159</v>
       </c>
       <c r="E45" s="93" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F45" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" s="89" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="81" t="s">
-        <v>210</v>
+        <v>174</v>
+      </c>
+      <c r="G45" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>235</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>226</v>
+        <v>33</v>
       </c>
       <c r="L45" s="94"/>
       <c r="N45" s="95"/>
       <c r="P45" s="95"/>
     </row>
-    <row r="46" spans="1:17" ht="54">
-      <c r="A46" s="82">
-        <v>78</v>
+    <row r="46" spans="1:17" ht="52.2">
+      <c r="A46" s="91">
+        <v>76</v>
       </c>
       <c r="C46" s="75" t="s">
         <v>7</v>
@@ -3849,27 +3980,27 @@
         <v>159</v>
       </c>
       <c r="E46" s="93" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F46" s="89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G46" s="89" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K46" s="86" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L46" s="94"/>
       <c r="N46" s="95"/>
       <c r="P46" s="95"/>
     </row>
-    <row r="47" spans="1:17" ht="54">
-      <c r="A47" s="82">
-        <v>79</v>
+    <row r="47" spans="1:17" ht="52.2">
+      <c r="A47" s="91">
+        <v>77</v>
       </c>
       <c r="C47" s="75" t="s">
         <v>7</v>
@@ -3878,27 +4009,27 @@
         <v>159</v>
       </c>
       <c r="E47" s="93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F47" s="89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G47" s="89" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K47" s="86" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L47" s="94"/>
       <c r="N47" s="95"/>
       <c r="P47" s="95"/>
     </row>
-    <row r="48" spans="1:17" ht="54">
-      <c r="A48" s="98">
-        <v>80</v>
+    <row r="48" spans="1:17" ht="52.2">
+      <c r="A48" s="91">
+        <v>78</v>
       </c>
       <c r="C48" s="75" t="s">
         <v>7</v>
@@ -3907,23 +4038,52 @@
         <v>159</v>
       </c>
       <c r="E48" s="93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F48" s="89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G48" s="89" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="81" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K48" s="86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L48" s="94"/>
       <c r="N48" s="95"/>
       <c r="P48" s="95"/>
+    </row>
+    <row r="49" spans="1:16" ht="52.2">
+      <c r="A49" s="91">
+        <v>79</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="F49" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="K49" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="L49" s="94"/>
+      <c r="N49" s="95"/>
+      <c r="P49" s="95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3931,10 +4091,10 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">
       <formula1>"正常,异常"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G20:G32 G3:G5 G7:G15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G7:G15 G3:G5 G20:G30 G32:G33">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G34:G41 G45:G1048576 H49:H1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G35:G42 G46:G1048576 H50:H1048576 G31">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 B3:B1048576">
@@ -3957,29 +4117,29 @@
       <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" customWidth="1"/>
     <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.77734375" style="2" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="14" width="27.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="7.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="54.83203125" style="2" customWidth="1"/>
-    <col min="17" max="513" width="8.83203125" style="2" customWidth="1"/>
-    <col min="514" max="16384" width="8.83203125" style="2"/>
+    <col min="16" max="16" width="54.77734375" style="2" customWidth="1"/>
+    <col min="17" max="513" width="8.77734375" style="2" customWidth="1"/>
+    <col min="514" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.5" customHeight="1">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>55</v>
       </c>
@@ -4029,7 +4189,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="97" customHeight="1">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="97.05" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -4053,7 +4213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="76" customHeight="1">
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="76.05" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -4095,7 +4255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -4133,7 +4293,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.75" customHeight="1">
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="61.8" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -4297,30 +4457,30 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="49.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="41.77734375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="49.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="4" customWidth="1"/>
     <col min="15" max="15" width="8" style="21" customWidth="1"/>
-    <col min="16" max="16" width="38.1640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="40.83203125" style="4" customWidth="1"/>
-    <col min="18" max="509" width="8.83203125" style="4" customWidth="1"/>
-    <col min="510" max="16384" width="8.83203125" style="4"/>
+    <col min="16" max="16" width="38.109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="40.77734375" style="4" customWidth="1"/>
+    <col min="18" max="509" width="8.77734375" style="4" customWidth="1"/>
+    <col min="510" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.5" customHeight="1">
+    <row r="1" spans="1:17" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
@@ -4398,7 +4558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="102.5" customHeight="1">
+    <row r="3" spans="1:17" ht="102.45" customHeight="1">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -4438,7 +4598,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="61.75" customHeight="1">
+    <row r="4" spans="1:17" ht="61.8" customHeight="1">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -4475,7 +4635,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="1:17" ht="61.75" customHeight="1">
+    <row r="5" spans="1:17" ht="61.8" customHeight="1">
       <c r="A5" s="52">
         <v>10</v>
       </c>
@@ -4515,7 +4675,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="61.75" customHeight="1">
+    <row r="6" spans="1:17" ht="61.8" customHeight="1">
       <c r="A6" s="52">
         <v>11</v>
       </c>
@@ -4555,7 +4715,7 @@
       <c r="O6" s="26"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="202" customHeight="1">
+    <row r="7" spans="1:17" ht="202.05" customHeight="1">
       <c r="A7" s="52">
         <v>20</v>
       </c>
@@ -4590,7 +4750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="220" customHeight="1">
+    <row r="8" spans="1:17" ht="220.05" customHeight="1">
       <c r="A8" s="53">
         <v>21</v>
       </c>
@@ -4628,7 +4788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="252">
+    <row r="9" spans="1:17" ht="268.8">
       <c r="A9" s="53">
         <v>22</v>
       </c>
@@ -4740,7 +4900,7 @@
       </c>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="63.5" customHeight="1">
+    <row r="12" spans="1:17" ht="63.45" customHeight="1">
       <c r="A12" s="53">
         <v>32</v>
       </c>
@@ -4816,7 +4976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="50.5" customHeight="1">
+    <row r="14" spans="1:17" ht="50.55" customHeight="1">
       <c r="A14" s="53">
         <v>34</v>
       </c>
@@ -4851,7 +5011,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:17" ht="50.5" customHeight="1">
+    <row r="15" spans="1:17" ht="50.55" customHeight="1">
       <c r="A15" s="53">
         <v>35</v>
       </c>
@@ -4889,7 +5049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="41" customFormat="1" ht="61.75" customHeight="1">
+    <row r="16" spans="1:17" s="41" customFormat="1" ht="61.8" customHeight="1">
       <c r="A16" s="53">
         <v>40</v>
       </c>
@@ -4924,7 +5084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="41" customFormat="1" ht="64.75" customHeight="1">
+    <row r="17" spans="1:16" s="41" customFormat="1" ht="64.8" customHeight="1">
       <c r="A17" s="54">
         <v>41</v>
       </c>
@@ -4956,7 +5116,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="85.75" customHeight="1">
+    <row r="18" spans="1:16" ht="85.8" customHeight="1">
       <c r="A18" s="37">
         <v>45</v>
       </c>
@@ -4979,7 +5139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="67.25" customHeight="1">
+    <row r="19" spans="1:16" ht="67.2" customHeight="1">
       <c r="A19" s="37">
         <v>46</v>
       </c>
@@ -5004,7 +5164,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="43" customFormat="1" ht="60.5" customHeight="1">
+    <row r="20" spans="1:16" s="43" customFormat="1" ht="60.45" customHeight="1">
       <c r="A20" s="50">
         <v>50</v>
       </c>
@@ -5041,7 +5201,7 @@
       <c r="O20" s="48"/>
       <c r="P20" s="46"/>
     </row>
-    <row r="21" spans="1:16" s="43" customFormat="1" ht="78.5" customHeight="1">
+    <row r="21" spans="1:16" s="43" customFormat="1" ht="78.45" customHeight="1">
       <c r="A21" s="50">
         <v>51</v>
       </c>
@@ -5077,7 +5237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="43" customFormat="1" ht="46.25" customHeight="1">
+    <row r="22" spans="1:16" s="43" customFormat="1" ht="46.2" customHeight="1">
       <c r="A22" s="49">
         <v>52</v>
       </c>
@@ -5114,7 +5274,7 @@
       <c r="O22" s="48"/>
       <c r="P22" s="46"/>
     </row>
-    <row r="23" spans="1:16" s="43" customFormat="1" ht="105">
+    <row r="23" spans="1:16" s="43" customFormat="1" ht="96">
       <c r="A23" s="50">
         <v>53</v>
       </c>
@@ -5148,7 +5308,7 @@
       <c r="O23" s="48"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" s="43" customFormat="1" ht="129.5" customHeight="1">
+    <row r="24" spans="1:16" s="43" customFormat="1" ht="129.44999999999999" customHeight="1">
       <c r="A24" s="50">
         <v>54</v>
       </c>
@@ -5180,7 +5340,7 @@
       <c r="O24" s="48"/>
       <c r="P24" s="46"/>
     </row>
-    <row r="25" spans="1:16" s="43" customFormat="1" ht="126">
+    <row r="25" spans="1:16" s="43" customFormat="1" ht="115.2">
       <c r="A25" s="50">
         <v>55</v>
       </c>
@@ -5214,7 +5374,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="43" customFormat="1" ht="42">
+    <row r="26" spans="1:16" s="43" customFormat="1" ht="57.6">
       <c r="A26" s="50">
         <v>56</v>
       </c>
@@ -5243,7 +5403,7 @@
       <c r="O26" s="48"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" s="43" customFormat="1" ht="150.5" customHeight="1">
+    <row r="27" spans="1:16" s="43" customFormat="1" ht="150.44999999999999" customHeight="1">
       <c r="A27" s="43">
         <v>57</v>
       </c>
@@ -5277,7 +5437,7 @@
       <c r="O27" s="48"/>
       <c r="P27" s="46"/>
     </row>
-    <row r="28" spans="1:16" s="43" customFormat="1" ht="63">
+    <row r="28" spans="1:16" s="43" customFormat="1" ht="57.6">
       <c r="A28" s="55">
         <v>58</v>
       </c>
@@ -5311,7 +5471,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="43" customFormat="1" ht="42">
+    <row r="29" spans="1:16" s="43" customFormat="1" ht="57.6">
       <c r="A29" s="50">
         <v>59</v>
       </c>
@@ -5340,7 +5500,7 @@
       <c r="O29" s="48"/>
       <c r="P29" s="46"/>
     </row>
-    <row r="30" spans="1:16" s="43" customFormat="1" ht="126">
+    <row r="30" spans="1:16" s="43" customFormat="1" ht="115.2">
       <c r="A30" s="50">
         <v>60</v>
       </c>
@@ -5371,7 +5531,7 @@
       <c r="O30" s="48"/>
       <c r="P30" s="46"/>
     </row>
-    <row r="31" spans="1:16" s="43" customFormat="1" ht="42">
+    <row r="31" spans="1:16" s="43" customFormat="1" ht="57.6">
       <c r="A31" s="50">
         <v>61</v>
       </c>
@@ -5400,7 +5560,7 @@
       <c r="O31" s="48"/>
       <c r="P31" s="46"/>
     </row>
-    <row r="32" spans="1:16" s="43" customFormat="1" ht="42">
+    <row r="32" spans="1:16" s="43" customFormat="1" ht="57.6">
       <c r="A32" s="50">
         <v>62</v>
       </c>
@@ -5429,7 +5589,7 @@
       <c r="O32" s="48"/>
       <c r="P32" s="46"/>
     </row>
-    <row r="33" spans="1:16" s="43" customFormat="1" ht="63">
+    <row r="33" spans="1:16" s="43" customFormat="1" ht="57.6">
       <c r="A33" s="50">
         <v>63</v>
       </c>
@@ -5489,31 +5649,31 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
     <col min="6" max="6" width="36" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="35" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="35" customWidth="1"/>
     <col min="9" max="9" width="32" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="23" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="4" customWidth="1"/>
     <col min="16" max="16" width="8" style="21" customWidth="1"/>
-    <col min="17" max="17" width="38.1640625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="40.83203125" style="4" customWidth="1"/>
-    <col min="19" max="510" width="8.83203125" style="4" customWidth="1"/>
-    <col min="511" max="16384" width="8.83203125" style="4"/>
+    <col min="17" max="17" width="38.109375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="40.77734375" style="4" customWidth="1"/>
+    <col min="19" max="510" width="8.77734375" style="4" customWidth="1"/>
+    <col min="511" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.5" customHeight="1">
+    <row r="1" spans="1:18" ht="33.450000000000003" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
@@ -5593,7 +5753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="65.5" customHeight="1">
+    <row r="3" spans="1:18" ht="65.55" customHeight="1">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -5629,7 +5789,7 @@
       <c r="P3" s="27"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="61.75" customHeight="1">
+    <row r="4" spans="1:18" ht="61.8" customHeight="1">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -5667,7 +5827,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="26"/>
     </row>
-    <row r="5" spans="1:18" ht="61.75" customHeight="1">
+    <row r="5" spans="1:18" ht="61.8" customHeight="1">
       <c r="A5" s="52">
         <v>10</v>
       </c>
@@ -5705,7 +5865,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="61.75" customHeight="1">
+    <row r="6" spans="1:18" ht="61.8" customHeight="1">
       <c r="A6" s="52">
         <v>11</v>
       </c>
@@ -5741,7 +5901,7 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:18" ht="76.75" customHeight="1">
+    <row r="7" spans="1:18" ht="76.8" customHeight="1">
       <c r="A7" s="52">
         <v>20</v>
       </c>
@@ -5777,7 +5937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="56.5" customHeight="1">
+    <row r="8" spans="1:18" ht="56.55" customHeight="1">
       <c r="A8" s="53">
         <v>21</v>
       </c>
@@ -5855,7 +6015,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="52.75" customHeight="1">
+    <row r="10" spans="1:18" ht="52.8" customHeight="1">
       <c r="A10" s="53">
         <v>30</v>
       </c>
@@ -5921,7 +6081,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:18" ht="63.5" customHeight="1">
+    <row r="12" spans="1:18" ht="63.45" customHeight="1">
       <c r="A12" s="53">
         <v>32</v>
       </c>
@@ -5999,7 +6159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="50.5" customHeight="1">
+    <row r="14" spans="1:18" ht="50.55" customHeight="1">
       <c r="A14" s="53">
         <v>34</v>
       </c>
@@ -6035,7 +6195,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:18" ht="50.5" customHeight="1">
+    <row r="15" spans="1:18" ht="50.55" customHeight="1">
       <c r="A15" s="53">
         <v>35</v>
       </c>
@@ -6074,7 +6234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="41" customFormat="1" ht="61.75" customHeight="1">
+    <row r="16" spans="1:18" s="41" customFormat="1" ht="61.8" customHeight="1">
       <c r="A16" s="53">
         <v>40</v>
       </c>
@@ -6107,7 +6267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="41" customFormat="1" ht="64.75" customHeight="1">
+    <row r="17" spans="1:17" s="41" customFormat="1" ht="64.8" customHeight="1">
       <c r="A17" s="54">
         <v>41</v>
       </c>
@@ -6137,7 +6297,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="85.75" customHeight="1">
+    <row r="18" spans="1:17" ht="85.8" customHeight="1">
       <c r="A18" s="37">
         <v>45</v>
       </c>
@@ -6161,7 +6321,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="67.25" customHeight="1">
+    <row r="19" spans="1:17" ht="67.2" customHeight="1">
       <c r="A19" s="37">
         <v>46</v>
       </c>
@@ -6187,7 +6347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="43" customFormat="1" ht="60.5" customHeight="1">
+    <row r="20" spans="1:17" s="43" customFormat="1" ht="60.45" customHeight="1">
       <c r="A20" s="50">
         <v>50</v>
       </c>
@@ -6225,7 +6385,7 @@
       <c r="P20" s="48"/>
       <c r="Q20" s="46"/>
     </row>
-    <row r="21" spans="1:17" s="43" customFormat="1" ht="78.5" customHeight="1">
+    <row r="21" spans="1:17" s="43" customFormat="1" ht="78.45" customHeight="1">
       <c r="A21" s="50">
         <v>51</v>
       </c>
@@ -6262,7 +6422,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="43" customFormat="1" ht="46.25" customHeight="1">
+    <row r="22" spans="1:17" s="43" customFormat="1" ht="46.2" customHeight="1">
       <c r="A22" s="49">
         <v>52</v>
       </c>
@@ -6300,7 +6460,7 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="46"/>
     </row>
-    <row r="23" spans="1:17" s="43" customFormat="1" ht="105">
+    <row r="23" spans="1:17" s="43" customFormat="1" ht="115.2">
       <c r="A23" s="50">
         <v>53</v>
       </c>
@@ -6338,7 +6498,7 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" s="43" customFormat="1" ht="129.5" customHeight="1">
+    <row r="24" spans="1:17" s="43" customFormat="1" ht="129.44999999999999" customHeight="1">
       <c r="A24" s="50">
         <v>54</v>
       </c>
@@ -6374,7 +6534,7 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="46"/>
     </row>
-    <row r="25" spans="1:17" s="43" customFormat="1" ht="126">
+    <row r="25" spans="1:17" s="43" customFormat="1" ht="115.2">
       <c r="A25" s="50">
         <v>55</v>
       </c>
@@ -6409,7 +6569,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="43" customFormat="1" ht="63">
+    <row r="26" spans="1:17" s="43" customFormat="1" ht="57.6">
       <c r="A26" s="50">
         <v>56</v>
       </c>
@@ -6442,7 +6602,7 @@
       <c r="P26" s="48"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" s="43" customFormat="1" ht="150.5" customHeight="1">
+    <row r="27" spans="1:17" s="43" customFormat="1" ht="150.44999999999999" customHeight="1">
       <c r="A27" s="43">
         <v>57</v>
       </c>
@@ -6477,7 +6637,7 @@
       <c r="P27" s="48"/>
       <c r="Q27" s="46"/>
     </row>
-    <row r="28" spans="1:17" s="43" customFormat="1" ht="63">
+    <row r="28" spans="1:17" s="43" customFormat="1" ht="57.6">
       <c r="A28" s="55">
         <v>58</v>
       </c>
@@ -6512,7 +6672,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="43" customFormat="1" ht="63">
+    <row r="29" spans="1:17" s="43" customFormat="1" ht="57.6">
       <c r="A29" s="50">
         <v>59</v>
       </c>
@@ -6544,7 +6704,7 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="46"/>
     </row>
-    <row r="30" spans="1:17" s="43" customFormat="1" ht="147">
+    <row r="30" spans="1:17" s="43" customFormat="1" ht="134.4">
       <c r="A30" s="50">
         <v>60</v>
       </c>
@@ -6576,7 +6736,7 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="46"/>
     </row>
-    <row r="31" spans="1:17" s="43" customFormat="1" ht="42">
+    <row r="31" spans="1:17" s="43" customFormat="1" ht="57.6">
       <c r="A31" s="50">
         <v>61</v>
       </c>
@@ -6606,7 +6766,7 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="46"/>
     </row>
-    <row r="32" spans="1:17" s="43" customFormat="1" ht="42">
+    <row r="32" spans="1:17" s="43" customFormat="1" ht="57.6">
       <c r="A32" s="50">
         <v>62</v>
       </c>
@@ -6636,7 +6796,7 @@
       <c r="P32" s="48"/>
       <c r="Q32" s="46"/>
     </row>
-    <row r="33" spans="1:17" s="43" customFormat="1" ht="63">
+    <row r="33" spans="1:17" s="43" customFormat="1" ht="57.6">
       <c r="A33" s="50">
         <v>63</v>
       </c>
@@ -6666,7 +6826,7 @@
       <c r="P33" s="48"/>
       <c r="Q33" s="46"/>
     </row>
-    <row r="34" spans="1:17" ht="84">
+    <row r="34" spans="1:17" ht="76.8">
       <c r="A34" s="38">
         <v>66</v>
       </c>
@@ -6692,7 +6852,7 @@
       <c r="N34" s="57"/>
       <c r="P34" s="57"/>
     </row>
-    <row r="35" spans="1:17" ht="42">
+    <row r="35" spans="1:17" ht="57.6">
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
@@ -6718,7 +6878,7 @@
       <c r="N35" s="57"/>
       <c r="P35" s="57"/>
     </row>
-    <row r="36" spans="1:17" ht="84">
+    <row r="36" spans="1:17" ht="76.8">
       <c r="B36" s="4" t="s">
         <v>10</v>
       </c>
@@ -6744,7 +6904,7 @@
       <c r="N36" s="57"/>
       <c r="P36" s="57"/>
     </row>
-    <row r="37" spans="1:17" ht="63">
+    <row r="37" spans="1:17" ht="76.8">
       <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
@@ -6770,7 +6930,7 @@
       <c r="N37" s="57"/>
       <c r="P37" s="57"/>
     </row>
-    <row r="38" spans="1:17" ht="63">
+    <row r="38" spans="1:17" ht="57.6">
       <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
@@ -6796,7 +6956,7 @@
       <c r="N38" s="57"/>
       <c r="P38" s="57"/>
     </row>
-    <row r="39" spans="1:17" ht="63">
+    <row r="39" spans="1:17" ht="57.6">
       <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
@@ -6822,7 +6982,7 @@
       <c r="N39" s="57"/>
       <c r="P39" s="57"/>
     </row>
-    <row r="40" spans="1:17" ht="147">
+    <row r="40" spans="1:17" ht="134.4">
       <c r="B40" s="4" t="s">
         <v>10</v>
       </c>
@@ -6854,7 +7014,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="63">
+    <row r="41" spans="1:17" ht="76.8">
       <c r="B41" s="4" t="s">
         <v>10</v>
       </c>
@@ -6878,7 +7038,7 @@
       <c r="N41" s="57"/>
       <c r="P41" s="57"/>
     </row>
-    <row r="42" spans="1:17" ht="63">
+    <row r="42" spans="1:17" ht="57.6">
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
@@ -6908,7 +7068,7 @@
       <c r="N42" s="57"/>
       <c r="P42" s="57"/>
     </row>
-    <row r="43" spans="1:17" ht="126">
+    <row r="43" spans="1:17" ht="134.4">
       <c r="B43" s="4" t="s">
         <v>10</v>
       </c>
@@ -6938,7 +7098,7 @@
       <c r="N43" s="57"/>
       <c r="P43" s="57"/>
     </row>
-    <row r="44" spans="1:17" ht="63">
+    <row r="44" spans="1:17" ht="57.6">
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
@@ -6968,7 +7128,7 @@
       <c r="N44" s="57"/>
       <c r="P44" s="57"/>
     </row>
-    <row r="45" spans="1:17" ht="63">
+    <row r="45" spans="1:17" ht="76.8">
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
@@ -6994,7 +7154,7 @@
       <c r="N45" s="57"/>
       <c r="P45" s="57"/>
     </row>
-    <row r="46" spans="1:17" ht="63">
+    <row r="46" spans="1:17" ht="76.8">
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
@@ -7020,7 +7180,7 @@
       <c r="N46" s="57"/>
       <c r="P46" s="57"/>
     </row>
-    <row r="47" spans="1:17" ht="63">
+    <row r="47" spans="1:17" ht="57.6">
       <c r="B47" s="4" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7206,7 @@
       <c r="N47" s="57"/>
       <c r="P47" s="57"/>
     </row>
-    <row r="48" spans="1:17" ht="42">
+    <row r="48" spans="1:17" ht="57.6">
       <c r="B48" s="4" t="s">
         <v>10</v>
       </c>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>jh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="235">
   <si>
     <t>类型</t>
   </si>
@@ -1234,9 +1234,6 @@
     <t>["application/json"]</t>
   </si>
   <si>
-    <t>consumes</t>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1246,6 +1243,56 @@
   </si>
   <si>
     <t>[[orgid,所属机构idi,body,true,array,integer],[orgid,所属机构idi,body,true,array,integer],[orgid,所属机构idi,body,true,array,integer],[orgid,所属机构idi,body,true,array,integer]]</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.autoNum(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saasuser/history/addPatient</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>paths</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumes</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -1261,22 +1308,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.autoNum(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saasuser/history/addPatient</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>paths</t>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>db结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded</t>
+  </si>
+  <si>
+    <t>getDownfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postDownfile</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1353,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1484,6 +1551,11 @@
       <name val="Source Code Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Source Code Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1586,7 +1658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1840,6 +1912,12 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1847,6 +1925,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1866,7 +2012,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2126,29 +2272,29 @@
   </sheetPr>
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="65" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="65" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" style="70" customWidth="1"/>
     <col min="6" max="6" width="22.109375" style="62" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="62" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="62" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" style="59" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="48" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="62" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="62" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="62" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="59" customWidth="1"/>
     <col min="11" max="11" width="17.44140625" style="59" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="53" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="59" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="48" customWidth="1"/>
-    <col min="16" max="16" width="8" style="50" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" style="59" customWidth="1"/>
+    <col min="13" max="13" width="14" style="59" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="59" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" style="48" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="48" customWidth="1"/>
     <col min="17" max="17" width="47.5546875" style="59" customWidth="1"/>
     <col min="18" max="18" width="40.77734375" style="48" customWidth="1"/>
     <col min="19" max="510" width="8.77734375" style="48" customWidth="1"/>
@@ -2156,20 +2302,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33.450000000000003" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>54</v>
+      <c r="A1" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>3</v>
@@ -2178,31 +2324,31 @@
         <v>4</v>
       </c>
       <c r="H1" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="43" t="s">
         <v>147</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>6</v>
       </c>
       <c r="K1" s="44" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>57</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="O1" s="46" t="s">
         <v>56</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="Q1" s="47" t="s">
         <v>84</v>
@@ -2212,11 +2358,11 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="46.8" customHeight="1">
-      <c r="A2" s="49">
-        <v>1</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="52" t="s">
         <v>49</v>
@@ -2225,138 +2371,124 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="50"/>
+      <c r="J2" s="53"/>
       <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
       <c r="P2" s="53"/>
       <c r="Q2" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1">
-      <c r="A3" s="55">
-        <v>2</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="56" t="s">
+      <c r="B3" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="56"/>
       <c r="E3" s="54" t="s">
         <v>148</v>
       </c>
       <c r="F3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>31</v>
+      <c r="G3" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="59" t="s">
+        <v>224</v>
       </c>
       <c r="K3" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="33"/>
       <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
+      <c r="N3" s="34"/>
       <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="54"/>
     </row>
     <row r="4" spans="1:18" ht="42.45" customHeight="1">
-      <c r="A4" s="55">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="56" t="s">
+      <c r="B4" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="56"/>
       <c r="E4" s="61" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="54"/>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="59" t="s">
         <v>34</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="33"/>
       <c r="M4" s="34"/>
-      <c r="N4" s="38"/>
+      <c r="N4" s="34"/>
       <c r="O4" s="36"/>
-      <c r="P4" s="38"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:18" ht="43.8" customHeight="1">
-      <c r="A5" s="55">
-        <v>10</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="56" t="s">
+      <c r="B5" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>15</v>
       </c>
+      <c r="D5" s="56"/>
       <c r="E5" s="54" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="62" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="54"/>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="54"/>
+      <c r="J5" s="54" t="s">
         <v>45</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="K5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="33"/>
       <c r="M5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="36"/>
-      <c r="P5" s="38"/>
+      <c r="P5" s="36"/>
       <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:18" ht="40.799999999999997" customHeight="1">
-      <c r="A6" s="55">
-        <v>11</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="B6" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="56"/>
       <c r="E6" s="56" t="s">
         <v>86</v>
       </c>
@@ -2367,360 +2499,316 @@
         <v>14</v>
       </c>
       <c r="H6" s="54"/>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
         <v>88</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="K6" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="33"/>
       <c r="M6" s="34"/>
-      <c r="N6" s="38"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="36"/>
-      <c r="P6" s="38"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:18" ht="40.799999999999997" customHeight="1">
-      <c r="A7" s="55">
-        <v>20</v>
-      </c>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="48" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="56" t="s">
+        <v>221</v>
+      </c>
       <c r="C7" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="56" t="s">
         <v>18</v>
       </c>
+      <c r="D7" s="56"/>
       <c r="E7" s="54" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>21</v>
+      <c r="G7" s="86" t="s">
+        <v>234</v>
       </c>
       <c r="H7" s="54"/>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="54"/>
+      <c r="J7" s="54" t="s">
         <v>149</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="O7" s="59" t="s">
         <v>36</v>
       </c>
+      <c r="P7" s="59"/>
       <c r="Q7" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="33" customHeight="1">
-      <c r="A8" s="63">
-        <v>21</v>
-      </c>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="56" t="s">
+      <c r="B8" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="56"/>
       <c r="E8" s="59" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>21</v>
+      <c r="G8" s="86" t="s">
+        <v>234</v>
       </c>
       <c r="H8" s="54"/>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="54"/>
+      <c r="J8" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="50"/>
       <c r="M8" s="48"/>
-      <c r="N8" s="53"/>
+      <c r="N8" s="48"/>
       <c r="O8" s="59" t="s">
         <v>39</v>
       </c>
+      <c r="P8" s="59"/>
       <c r="Q8" s="59" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="33.450000000000003" customHeight="1">
-      <c r="A9" s="63">
-        <v>22</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="56" t="s">
+      <c r="B9" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>18</v>
       </c>
+      <c r="D9" s="56"/>
       <c r="E9" s="59" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>21</v>
+      <c r="G9" s="86" t="s">
+        <v>234</v>
       </c>
       <c r="H9" s="54"/>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="50"/>
       <c r="M9" s="48"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="59" t="s">
         <v>36</v>
       </c>
+      <c r="P9" s="59"/>
       <c r="Q9" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="32.549999999999997" customHeight="1">
-      <c r="A10" s="63">
-        <v>30</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="56" t="s">
+      <c r="B10" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>43</v>
       </c>
+      <c r="D10" s="56"/>
       <c r="E10" s="59" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="54"/>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="54"/>
+      <c r="J10" s="59" t="s">
         <v>69</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="K10" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="50"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="53"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:18" ht="38.549999999999997" customHeight="1">
-      <c r="A11" s="63">
-        <v>31</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="56" t="s">
+      <c r="B11" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>43</v>
       </c>
+      <c r="D11" s="56"/>
       <c r="E11" s="59" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="54"/>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="54"/>
+      <c r="J11" s="59" t="s">
         <v>70</v>
-      </c>
-      <c r="J11" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="K11" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="50"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:18" ht="31.8" customHeight="1">
-      <c r="A12" s="63">
-        <v>32</v>
-      </c>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="56" t="s">
+      <c r="B12" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="56" t="s">
         <v>43</v>
       </c>
+      <c r="D12" s="56"/>
       <c r="E12" s="59" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="58" t="s">
-        <v>21</v>
+      <c r="G12" s="86" t="s">
+        <v>234</v>
       </c>
       <c r="H12" s="54"/>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="54"/>
+      <c r="J12" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="50"/>
       <c r="M12" s="48"/>
-      <c r="N12" s="53"/>
+      <c r="N12" s="48"/>
       <c r="O12" s="59" t="s">
         <v>36</v>
       </c>
+      <c r="P12" s="59"/>
       <c r="Q12" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1">
-      <c r="A13" s="63">
-        <v>33</v>
-      </c>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="56" t="s">
+      <c r="B13" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>43</v>
       </c>
+      <c r="D13" s="56"/>
       <c r="E13" s="59" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="58" t="s">
-        <v>21</v>
+      <c r="G13" s="86" t="s">
+        <v>234</v>
       </c>
       <c r="H13" s="54"/>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="50"/>
       <c r="M13" s="48"/>
-      <c r="N13" s="53"/>
+      <c r="N13" s="48"/>
       <c r="O13" s="59" t="s">
         <v>36</v>
       </c>
+      <c r="P13" s="59"/>
       <c r="Q13" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="85.8" customHeight="1">
-      <c r="A14" s="63">
-        <v>34</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="56" t="s">
+      <c r="B14" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="56" t="s">
         <v>43</v>
       </c>
+      <c r="D14" s="56"/>
       <c r="E14" s="59" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="54"/>
+      <c r="I14" s="54" t="s">
         <v>152</v>
-      </c>
-      <c r="J14" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="K14" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="50"/>
       <c r="M14" s="48"/>
-      <c r="N14" s="53"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:18" ht="50.55" customHeight="1">
-      <c r="A15" s="63">
-        <v>35</v>
-      </c>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="56" t="s">
+      <c r="B15" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="56" t="s">
         <v>43</v>
       </c>
+      <c r="D15" s="56"/>
       <c r="E15" s="59" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="58" t="s">
-        <v>42</v>
+      <c r="G15" s="86" t="s">
+        <v>233</v>
       </c>
       <c r="H15" s="54"/>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="54"/>
+      <c r="J15" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="50"/>
       <c r="M15" s="48"/>
-      <c r="N15" s="53"/>
+      <c r="N15" s="48"/>
       <c r="O15" s="59" t="s">
         <v>36</v>
       </c>
+      <c r="P15" s="59"/>
       <c r="Q15" s="59" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="56" customFormat="1" ht="61.8" customHeight="1">
-      <c r="A16" s="63">
-        <v>40</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="56" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="54" t="s">
@@ -2733,28 +2821,24 @@
         <v>14</v>
       </c>
       <c r="H16" s="54"/>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="54"/>
+      <c r="J16" s="54" t="s">
         <v>150</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="K16" s="59" t="s">
         <v>90</v>
       </c>
+      <c r="L16" s="59"/>
       <c r="Q16" s="56" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="56" customFormat="1" ht="64.8" customHeight="1">
-      <c r="A17" s="55">
-        <v>41</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="56" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="56" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="54" t="s">
@@ -2767,21 +2851,20 @@
         <v>14</v>
       </c>
       <c r="H17" s="54"/>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="54"/>
+      <c r="J17" s="54" t="s">
         <v>72</v>
-      </c>
-      <c r="J17" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="K17" s="59" t="s">
         <v>125</v>
       </c>
+      <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:18" ht="46.2" customHeight="1">
-      <c r="A18" s="49">
-        <v>45</v>
-      </c>
-      <c r="C18" s="50"/>
+      <c r="B18" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="51"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52" t="s">
         <v>49</v>
@@ -2789,9 +2872,10 @@
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="53"/>
       <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
       <c r="O18" s="53"/>
@@ -2804,10 +2888,10 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="46.2" customHeight="1">
-      <c r="A19" s="49">
-        <v>46</v>
-      </c>
-      <c r="C19" s="50"/>
+      <c r="B19" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52" t="s">
         <v>118</v>
@@ -2817,9 +2901,10 @@
         <v>119</v>
       </c>
       <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
       <c r="M19" s="53"/>
       <c r="N19" s="53"/>
       <c r="O19" s="53"/>
@@ -2829,13 +2914,10 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="60.45" customHeight="1">
-      <c r="A20" s="64">
-        <v>50</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="65" t="s">
+      <c r="B20" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="66" t="s">
@@ -2844,34 +2926,26 @@
       <c r="F20" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="58" t="s">
-        <v>8</v>
+      <c r="G20" s="54" t="s">
+        <v>228</v>
       </c>
       <c r="H20" s="54"/>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="54"/>
+      <c r="J20" s="59" t="s">
         <v>94</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="K20" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="67"/>
-      <c r="N20" s="68"/>
-      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="1:18" ht="78.45" customHeight="1">
-      <c r="A21" s="64">
-        <v>51</v>
-      </c>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="65" t="s">
+      <c r="B21" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -2880,37 +2954,29 @@
       <c r="F21" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="58" t="s">
-        <v>8</v>
+      <c r="G21" s="54" t="s">
+        <v>228</v>
       </c>
       <c r="H21" s="54"/>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="54"/>
+      <c r="J21" s="59" t="s">
         <v>117</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="K21" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="67"/>
-      <c r="N21" s="68"/>
-      <c r="P21" s="68"/>
       <c r="Q21" s="59" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="46.2" customHeight="1">
-      <c r="A22" s="71">
-        <v>52</v>
-      </c>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="65" t="s">
+      <c r="B22" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="66" t="s">
@@ -2919,31 +2985,23 @@
       <c r="F22" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="54"/>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="54"/>
+      <c r="J22" s="59" t="s">
         <v>198</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="K22" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="67"/>
-      <c r="N22" s="68"/>
-      <c r="P22" s="68"/>
     </row>
     <row r="23" spans="1:18" ht="60.45" customHeight="1">
-      <c r="A23" s="71">
-        <v>53</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="65" t="s">
+      <c r="B23" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -2952,32 +3010,24 @@
       <c r="F23" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="54"/>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="54"/>
+      <c r="J23" s="59" t="s">
         <v>197</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="K23" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="N23" s="68"/>
-      <c r="P23" s="68"/>
       <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:18" ht="58.8" customHeight="1">
-      <c r="A24" s="71">
-        <v>54</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="65" t="s">
+      <c r="B24" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="66" t="s">
@@ -2986,31 +3036,23 @@
       <c r="F24" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="54"/>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="54"/>
+      <c r="J24" s="59" t="s">
         <v>186</v>
-      </c>
-      <c r="J24" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="K24" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="67"/>
-      <c r="N24" s="68"/>
-      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:18" ht="59.55" customHeight="1">
-      <c r="A25" s="71">
-        <v>55</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="65" t="s">
+      <c r="B25" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="66" t="s">
@@ -3019,34 +3061,26 @@
       <c r="F25" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="54"/>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="54"/>
+      <c r="J25" s="59" t="s">
         <v>188</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="K25" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="67"/>
-      <c r="N25" s="68"/>
-      <c r="P25" s="68"/>
       <c r="Q25" s="59" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="52.2">
-      <c r="A26" s="71">
-        <v>56</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="65" t="s">
+      <c r="B26" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="66" t="s">
@@ -3055,33 +3089,25 @@
       <c r="F26" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="54" t="s">
+      <c r="H26" s="54"/>
+      <c r="I26" s="54" t="s">
         <v>154</v>
-      </c>
-      <c r="J26" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="K26" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="67"/>
-      <c r="N26" s="68"/>
-      <c r="P26" s="68"/>
     </row>
     <row r="27" spans="1:18" ht="169.8" customHeight="1">
-      <c r="A27" s="72">
-        <v>57</v>
-      </c>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="65" t="s">
+      <c r="B27" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="66" t="s">
@@ -3090,34 +3116,26 @@
       <c r="F27" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="54"/>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="54"/>
+      <c r="J27" s="59" t="s">
         <v>121</v>
-      </c>
-      <c r="J27" s="59" t="s">
-        <v>31</v>
       </c>
       <c r="K27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="67"/>
-      <c r="N27" s="68"/>
-      <c r="P27" s="68"/>
     </row>
     <row r="28" spans="1:18" ht="52.2">
-      <c r="A28" s="72">
-        <v>58</v>
-      </c>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="65" t="s">
+      <c r="B28" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="66" t="s">
@@ -3126,30 +3144,25 @@
       <c r="F28" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="54" t="s">
+      <c r="H28" s="54"/>
+      <c r="I28" s="54" t="s">
         <v>156</v>
       </c>
       <c r="K28" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="67"/>
-      <c r="N28" s="68"/>
-      <c r="P28" s="68"/>
       <c r="Q28" s="59" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="52.2">
-      <c r="A29" s="64">
-        <v>59</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="65" t="s">
+      <c r="B29" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="66" t="s">
@@ -3158,27 +3171,22 @@
       <c r="F29" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="54"/>
+      <c r="I29" s="54" t="s">
         <v>158</v>
       </c>
       <c r="K29" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="67"/>
-      <c r="N29" s="68"/>
-      <c r="P29" s="68"/>
     </row>
     <row r="30" spans="1:18" ht="99.45" customHeight="1">
-      <c r="A30" s="72">
-        <v>60</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="66" t="s">
@@ -3187,28 +3195,23 @@
       <c r="F30" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="62" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="54"/>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="54"/>
+      <c r="J30" s="59" t="s">
         <v>107</v>
       </c>
       <c r="K30" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="L30" s="67"/>
-      <c r="N30" s="68"/>
-      <c r="P30" s="68"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="99.6" customHeight="1">
-      <c r="A31" s="71">
-        <v>61</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="65" t="s">
+      <c r="B31" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="73" t="s">
@@ -3217,29 +3220,26 @@
       <c r="F31" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73" t="s">
+      <c r="H31" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="J31" s="73"/>
       <c r="K31" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="L31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="P31" s="75"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="32" spans="1:18" ht="52.2">
-      <c r="A32" s="64">
-        <v>62</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="65" t="s">
+      <c r="B32" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="66" t="s">
@@ -3248,25 +3248,20 @@
       <c r="F32" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="62" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
       <c r="K32" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="67"/>
-      <c r="N32" s="68"/>
-      <c r="P32" s="68"/>
-    </row>
-    <row r="33" spans="1:17" ht="52.2">
-      <c r="A33" s="64">
-        <v>63</v>
-      </c>
-      <c r="C33" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="65" t="s">
+    </row>
+    <row r="33" spans="2:17" ht="52.2">
+      <c r="B33" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="66" t="s">
@@ -3275,25 +3270,20 @@
       <c r="F33" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="62" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
       <c r="K33" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="67"/>
-      <c r="N33" s="68"/>
-      <c r="P33" s="68"/>
-    </row>
-    <row r="34" spans="1:17" ht="52.2">
-      <c r="A34" s="64">
-        <v>64</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="65" t="s">
+    </row>
+    <row r="34" spans="2:17" ht="52.2">
+      <c r="B34" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E34" s="66" t="s">
@@ -3305,24 +3295,19 @@
       <c r="G34" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="H34" s="54" t="s">
+      <c r="H34" s="54"/>
+      <c r="I34" s="54" t="s">
         <v>179</v>
       </c>
       <c r="K34" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L34" s="67"/>
-      <c r="N34" s="68"/>
-      <c r="P34" s="68"/>
-    </row>
-    <row r="35" spans="1:17" ht="87">
-      <c r="A35" s="64">
-        <v>65</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="65" t="s">
+    </row>
+    <row r="35" spans="2:17" ht="87">
+      <c r="B35" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E35" s="66" t="s">
@@ -3334,24 +3319,19 @@
       <c r="G35" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="54"/>
+      <c r="I35" s="54" t="s">
         <v>161</v>
       </c>
       <c r="K35" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L35" s="67"/>
-      <c r="N35" s="68"/>
-      <c r="P35" s="68"/>
-    </row>
-    <row r="36" spans="1:17" ht="52.2">
-      <c r="A36" s="64">
-        <v>66</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="65" t="s">
+    </row>
+    <row r="36" spans="2:17" ht="52.2">
+      <c r="B36" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E36" s="66" t="s">
@@ -3364,21 +3344,16 @@
         <v>9</v>
       </c>
       <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
       <c r="K36" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L36" s="67"/>
-      <c r="N36" s="68"/>
-      <c r="P36" s="68"/>
-    </row>
-    <row r="37" spans="1:17" ht="87">
-      <c r="A37" s="64">
-        <v>67</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="65" t="s">
+    </row>
+    <row r="37" spans="2:17" ht="87">
+      <c r="B37" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E37" s="66" t="s">
@@ -3390,24 +3365,19 @@
       <c r="G37" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="54"/>
+      <c r="I37" s="54" t="s">
         <v>163</v>
       </c>
       <c r="K37" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="67"/>
-      <c r="N37" s="68"/>
-      <c r="P37" s="68"/>
-    </row>
-    <row r="38" spans="1:17" ht="69.599999999999994">
-      <c r="A38" s="64">
-        <v>68</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="65" t="s">
+    </row>
+    <row r="38" spans="2:17" ht="69.599999999999994">
+      <c r="B38" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E38" s="66" t="s">
@@ -3419,24 +3389,19 @@
       <c r="G38" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="54" t="s">
+      <c r="H38" s="54"/>
+      <c r="I38" s="54" t="s">
         <v>164</v>
       </c>
       <c r="K38" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="67"/>
-      <c r="N38" s="68"/>
-      <c r="P38" s="68"/>
-    </row>
-    <row r="39" spans="1:17" ht="52.2">
-      <c r="A39" s="64">
-        <v>69</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="65" t="s">
+    </row>
+    <row r="39" spans="2:17" ht="52.2">
+      <c r="B39" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E39" s="66" t="s">
@@ -3448,24 +3413,19 @@
       <c r="G39" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="54" t="s">
+      <c r="H39" s="54"/>
+      <c r="I39" s="54" t="s">
         <v>166</v>
       </c>
       <c r="K39" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L39" s="67"/>
-      <c r="N39" s="68"/>
-      <c r="P39" s="68"/>
-    </row>
-    <row r="40" spans="1:17" ht="52.2">
-      <c r="A40" s="64">
-        <v>70</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="65" t="s">
+    </row>
+    <row r="40" spans="2:17" ht="52.2">
+      <c r="B40" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E40" s="66" t="s">
@@ -3477,24 +3437,19 @@
       <c r="G40" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="54"/>
+      <c r="I40" s="54" t="s">
         <v>168</v>
       </c>
       <c r="K40" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L40" s="67"/>
-      <c r="N40" s="68"/>
-      <c r="P40" s="68"/>
-    </row>
-    <row r="41" spans="1:17" ht="128.55000000000001" customHeight="1">
-      <c r="A41" s="64">
-        <v>71</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="65" t="s">
+    </row>
+    <row r="41" spans="2:17" ht="128.55000000000001" customHeight="1">
+      <c r="B41" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="66" t="s">
@@ -3507,27 +3462,22 @@
         <v>14</v>
       </c>
       <c r="H41" s="54"/>
-      <c r="I41" s="62" t="s">
+      <c r="I41" s="54"/>
+      <c r="J41" s="62" t="s">
         <v>191</v>
       </c>
       <c r="K41" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L41" s="67"/>
-      <c r="N41" s="68"/>
-      <c r="P41" s="68"/>
       <c r="Q41" s="59" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="52.2">
-      <c r="A42" s="64">
-        <v>72</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="65" t="s">
+    <row r="42" spans="2:17" ht="52.2">
+      <c r="B42" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E42" s="66" t="s">
@@ -3539,25 +3489,20 @@
       <c r="G42" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="54"/>
+      <c r="I42" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
       <c r="K42" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="L42" s="67"/>
-      <c r="N42" s="68"/>
-      <c r="P42" s="68"/>
-    </row>
-    <row r="43" spans="1:17" ht="52.2">
-      <c r="A43" s="64">
-        <v>73</v>
-      </c>
-      <c r="C43" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="65" t="s">
+    </row>
+    <row r="43" spans="2:17" ht="52.2">
+      <c r="B43" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="66" t="s">
@@ -3567,26 +3512,23 @@
         <v>193</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="H43" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="59" t="s">
         <v>195</v>
       </c>
       <c r="K43" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="67"/>
-      <c r="N43" s="68"/>
-      <c r="P43" s="68"/>
-    </row>
-    <row r="44" spans="1:17" ht="104.4">
-      <c r="A44" s="64">
-        <v>74</v>
-      </c>
-      <c r="C44" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="65" t="s">
+    </row>
+    <row r="44" spans="2:17" ht="104.4">
+      <c r="B44" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E44" s="66" t="s">
@@ -3599,24 +3541,19 @@
         <v>114</v>
       </c>
       <c r="H44" s="54"/>
-      <c r="I44" s="59" t="s">
+      <c r="I44" s="54"/>
+      <c r="J44" s="59" t="s">
         <v>180</v>
       </c>
       <c r="K44" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L44" s="67"/>
-      <c r="N44" s="68"/>
-      <c r="P44" s="68"/>
-    </row>
-    <row r="45" spans="1:17" ht="52.2">
-      <c r="A45" s="64">
-        <v>75</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="65" t="s">
+    </row>
+    <row r="45" spans="2:17" ht="52.2">
+      <c r="B45" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E45" s="66" t="s">
@@ -3626,26 +3563,23 @@
         <v>142</v>
       </c>
       <c r="G45" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="59" t="s">
         <v>194</v>
       </c>
       <c r="K45" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="67"/>
-      <c r="N45" s="68"/>
-      <c r="P45" s="68"/>
-    </row>
-    <row r="46" spans="1:17" ht="52.2">
-      <c r="A46" s="64">
-        <v>76</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="65" t="s">
+    </row>
+    <row r="46" spans="2:17" ht="52.2">
+      <c r="B46" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E46" s="66" t="s">
@@ -3657,24 +3591,19 @@
       <c r="G46" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="54" t="s">
+      <c r="H46" s="54"/>
+      <c r="I46" s="54" t="s">
         <v>169</v>
       </c>
       <c r="K46" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="L46" s="67"/>
-      <c r="N46" s="68"/>
-      <c r="P46" s="68"/>
-    </row>
-    <row r="47" spans="1:17" ht="52.2">
-      <c r="A47" s="64">
-        <v>77</v>
-      </c>
-      <c r="C47" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="65" t="s">
+    </row>
+    <row r="47" spans="2:17" ht="52.2">
+      <c r="B47" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E47" s="66" t="s">
@@ -3686,24 +3615,19 @@
       <c r="G47" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="54" t="s">
+      <c r="H47" s="54"/>
+      <c r="I47" s="54" t="s">
         <v>169</v>
       </c>
       <c r="K47" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="L47" s="67"/>
-      <c r="N47" s="68"/>
-      <c r="P47" s="68"/>
-    </row>
-    <row r="48" spans="1:17" ht="52.2">
-      <c r="A48" s="64">
-        <v>78</v>
-      </c>
-      <c r="C48" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="65" t="s">
+    </row>
+    <row r="48" spans="2:17" ht="52.2">
+      <c r="B48" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E48" s="66" t="s">
@@ -3715,24 +3639,19 @@
       <c r="G48" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H48" s="54" t="s">
+      <c r="H48" s="54"/>
+      <c r="I48" s="54" t="s">
         <v>169</v>
       </c>
       <c r="K48" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="L48" s="67"/>
-      <c r="N48" s="68"/>
-      <c r="P48" s="68"/>
-    </row>
-    <row r="49" spans="1:16" ht="52.2">
-      <c r="A49" s="64">
-        <v>79</v>
-      </c>
-      <c r="C49" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="65" t="s">
+    </row>
+    <row r="49" spans="2:11" ht="52.2">
+      <c r="B49" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="65" t="s">
         <v>134</v>
       </c>
       <c r="E49" s="66" t="s">
@@ -3744,32 +3663,27 @@
       <c r="G49" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="54" t="s">
+      <c r="H49" s="54"/>
+      <c r="I49" s="54" t="s">
         <v>174</v>
       </c>
       <c r="K49" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="L49" s="67"/>
-      <c r="N49" s="68"/>
-      <c r="P49" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C1:C6 C16:C1048576">
-      <formula1>"正常,异常"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G7:G15 G3:G5 G20:G30 G32:G33">
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G32:G33 G22:G30 G3:G5 G14 G10:G11">
       <formula1>"token,post,get,downFilePost,downFileGet,upFile,delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G35:G42 G46:G1048576 H50:H1048576 G31">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G31 H50:I1048576 G46:G1048576 G35:G42">
       <formula1>"post,get,postLogin"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8:C15 B3:B1048576">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576 B50:B1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:H2 G18"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G1:I2 G18"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -3782,9 +3696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.2"/>
@@ -3807,22 +3721,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="76" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="85" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>217</v>
       </c>
       <c r="D1" s="78" t="s">
         <v>206</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="38.4">
@@ -3833,16 +3747,16 @@
         <v>204</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E2" s="83" t="s">
         <v>207</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3862,7 +3776,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>

--- a/instance/zyjk/SAAS/i/saas_interface_case.xlsx
+++ b/instance/zyjk/SAAS/i/saas_interface_case.xlsx
@@ -2012,7 +2012,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2274,7 +2274,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
@@ -2286,8 +2286,8 @@
     <col min="5" max="5" width="21.77734375" style="70" customWidth="1"/>
     <col min="6" max="6" width="22.109375" style="62" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="62" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="62" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="62" customWidth="1"/>
     <col min="10" max="10" width="25.5546875" style="59" customWidth="1"/>
     <col min="11" max="11" width="17.44140625" style="59" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" style="59" customWidth="1"/>
